--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00160711\Downloads\CNN-Nokia-vs-iPhone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE5D83E-F89F-4B6E-9D28-7E31CE87B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3DBC3-A34C-4A00-958C-EC37D7F790CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="349">
   <si>
     <t>nokia</t>
   </si>
@@ -592,6 +592,486 @@
   </si>
   <si>
     <t>https://i.pinimg.com/736x/81/fb/f2/81fbf2dd4ccb3ac4b5fc5ac73fb65412--mobile-price-old-phone.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-8qgc7LwF8LA/TtdDvYSVPCI/AAAAAAAABxQ/cgECPMOzdP0/s1600/Nokia%2B638.JPG</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/3shk3wnp3ia51.jpg</t>
+  </si>
+  <si>
+    <t>https://farm1.staticflickr.com/86/237942730_fbe32c8b4c_z.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/474x/a5/fd/da/a5fdda7671a558aa1985c8282432313e--motorola-droid-the-age.jpg</t>
+  </si>
+  <si>
+    <t>https://jabbatalk.com/wp-content/uploads/Nokia-2110.jpg</t>
+  </si>
+  <si>
+    <t>http://i187.photobucket.com/albums/x240/floatingrocksebay/nokia-100-analogue-3.jpg~original</t>
+  </si>
+  <si>
+    <t>http://www.mobilephonehistory.co.uk/nokia/nokia_analogue_phones.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/nokiamob.net/wp-content/uploads/2017/06/Nokia-3310-u-ruci-copy.jpg?resize=768%2C821&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>http://www.suonoelettronico.com/waves22/soundimage/Nokia-2110.jpg</t>
+  </si>
+  <si>
+    <t>https://thumbs.dreamstime.com/b/nokia-mobile-phones-bangkok-thailand-march-wooden-background-89210946.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_z2lPlxCrFSY/TPf_hnKvO7I/AAAAAAAAAEs/36SEEwnqisk/s1600/nokia-old-phone.jpg</t>
+  </si>
+  <si>
+    <t>http://i.ebayimg.com/00/s/MTYwMFgxMjAw/z/Wf0AAOSwqu9U7Zym/$_35.JPG</t>
+  </si>
+  <si>
+    <t>https://img.etimg.com/thumb/msid-57531569,width-1070,height-580,imgsize-30460,overlay-etpanache/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1si3.SpXXXXctXFXXq6xXFXXXx/Original-Nokia-3310-Cellphones-2G-GSM-900-1800-Unlocked-Refurbished-Cheap-Phone.jpg</t>
+  </si>
+  <si>
+    <t>https://p3y6v9e6.stackpathcdn.com/wp-content/uploads/zikoko/2020/05/5110.jpg</t>
+  </si>
+  <si>
+    <t>https://static.hitek.fr/img/actualite/4-nokia-2110.jpg</t>
+  </si>
+  <si>
+    <t>https://rukminim1.flixcart.com/image/1664/1664/mobile/q/t/n/nokia-e63-original-imacypgnayaepxyx.jpeg?q=90</t>
+  </si>
+  <si>
+    <t>https://n4.sdlcdn.com/imgs/a/8/k/Comate-Nokia-E63-Full-Housing-SDL833938278-1-2ed5a.jpg</t>
+  </si>
+  <si>
+    <t>https://img1.etsystatic.com/000/0/6193325/il_fullxfull.326028621.jpg</t>
+  </si>
+  <si>
+    <t>http://nokiamob.net/wp-content/uploads/2017/06/Nokia-3310-u-ruci-copy.jpg</t>
+  </si>
+  <si>
+    <t>https://pre00.deviantart.net/ae8d/th/pre/f/2014/070/8/e/nokia_cityman_from_1987__nokia_s_first_handheld__by_redfield_1982-d79s0d5.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-cJ7Mq0_LaR4/WpW4cyrIZeI/AAAAAAAANYQ/n11g5-1cwygMBPrUnXH74noCBiF3CgD1gCLcBGAs/s1600/nokia-8110-1996.jpg</t>
+  </si>
+  <si>
+    <t>http://images.computerhistory.org/makesoftware/mscw.artifact.texting.why-just-160-characters.nokia-2110-nhe-4nx-1994.jpg</t>
+  </si>
+  <si>
+    <t>https://ke.jumia.is/fNLJOxuyRV9DuUMfZbBxTIA6KVY=/fit-in/680x680/filters:fill(white):sharpen(1,0,false):quality(100)/product/98/925441/2.jpg</t>
+  </si>
+  <si>
+    <t>https://the-gadgeteer.com/assets/nokia1.jpg</t>
+  </si>
+  <si>
+    <t>http://m.phonegg.com/5/510b.jpg</t>
+  </si>
+  <si>
+    <t>http://pd.prlog.org/40044293-3-e83-tv-phone-bingoes-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/phoneradar.com/wp-content/uploads/2015/01/Nokia-215.png?fit=690%2C402&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>http://www.cntr.salford.ac.uk/comms/resources/artefacts/mobile_phones/ETACS/Nokia_101.JPG</t>
+  </si>
+  <si>
+    <t>https://img.clasf.co.ve/2019/09/01/Telefono-Nokia-Analogico-3381-20190901144820.5051040015.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/56/e0/25/56e025c5222e34a86bfb8219f17236a0.jpg</t>
+  </si>
+  <si>
+    <t>http://i187.photobucket.com/albums/x240/floatingrocksebay/nokia-100-analogue-4.jpg~original</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/4150T29R6ZL._SL500_AA300_.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-c0WcQCc36qM/TdlLJc82AFI/AAAAAAAAERM/RAGzpNnEZ14/s1600/Nokia+E63+vs+E71+%25283%2529.jpg</t>
+  </si>
+  <si>
+    <t>http://www.extragsm.com/images/phone/big/Nokia/6280/Nokia-6280-02.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-8qgc7LwF8LA/TtdDvYSVPCI/AAAAAAAABxQ/cgECPMOzdP0/w1200-h630-p-k-nu/Nokia%2B638.JPG</t>
+  </si>
+  <si>
+    <t>https://i-cdn.phonearena.com/images/phones/7153-large/Nokia-6560.jpg</t>
+  </si>
+  <si>
+    <t>http://img.deusm.com/informationweek/2015/07/1321353/nokia_6110-smaller.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/ae/e9/ed/aee9ed9d7eac3e62ce7deda8593b66b9--mobile-phones-time-capsule.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn.mobilesyrup.com/wp-content/uploads/2017/02/nokia-brickphone.jpg</t>
+  </si>
+  <si>
+    <t>https://thedealsguru.com/wp-content/uploads/2020/02/nokia-2700-mobile-phone-2.jpg</t>
+  </si>
+  <si>
+    <t>https://thedealsguru.com/wp-content/uploads/2019/05/E71.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/ImageUrl_Nokia_Symbian_2XXX_2760_1024x1024.jpg?v=1539883337</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/64/49/65/644965a8e48fc4909f9128804e43b004.jpg</t>
+  </si>
+  <si>
+    <t>https://www.simpletek.net/16709-large_default/Array.jpg</t>
+  </si>
+  <si>
+    <t>https://www.samstores.com/media/products/20730/750X750/nokia-2760-gsm-camera-bluetooth-cell-phone-unlocked.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/7c/Nokia_E71.JPG</t>
+  </si>
+  <si>
+    <t>http://www.fonearena.com/blog/wp-content/uploads/2008/08/nokia-3640-fold.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn.shopify.com/s/files/1/2286/5823/products/rBVaEFfqKHqAH-s3AAdxXy8blr4954_grande.jpg?v=1539883337</t>
+  </si>
+  <si>
+    <t>http://images.fieroforum.com/2015/20150710_213532.jpg</t>
+  </si>
+  <si>
+    <t>https://thumbs.dreamstime.com/z/bangkok-thailand-december-used-nokia-mobile-phone-model-bangkok-thailand-december-used-nokia-mobile-phone-model-keypad-167226336.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/s3.timetoast.com/public/uploads/photos/2187130/nokia6160.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1XMdHQXXXXXXBXXXXq6xXFXXXC/hot-Sale-cell-phone-Original-Nokia-3220-Unlocked-GSM900-1800-1900-Cheap-Mobile-Phone.jpg</t>
+  </si>
+  <si>
+    <t>https://icdn.ensonhaber.com/resimler/galeri/1_4223.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/LVIAAOSwtMNe24C0/s-l300.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/www.mobilebd.co/wp-content/uploads/2020/03/Nokia-5310-Official-image.jpg?fit=500%2C500&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://n4.sdlcdn.com/imgs/h/5/l/nokia-e63-Red-E63-256-SDL459004063-1-5f8ae.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-L9zyTPrLoWc/Tkum6lai7nI/AAAAAAAAB7Q/D9HTmpnbhEQ/s1600/Nokia+E72+Full+Specs+Review+and+Price.jpg</t>
+  </si>
+  <si>
+    <t>http://www.todayscloseout.com/v/vspfiles/photos/NOKIA-6205-2.jpg</t>
+  </si>
+  <si>
+    <t>https://image.pushauction.com/0/0/f84c8368-2b5a-49c5-859f-6b0c43c49861/d6ddb99e-d3d0-4875-9af8-d9f8985416f6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dhresource.com/0x0/f2/albu/g8/M01/EC/13/rBVaVF2wGJqAI7-WAAE9ZfyaL10381.jpg/original-unlocked-nokia-5130-xpressmusic.jpg</t>
+  </si>
+  <si>
+    <t>https://gh.jumia.is/unsafe/fit-in/500x500/filters:fill(white)/product/50/63117/3.jpg?5410</t>
+  </si>
+  <si>
+    <t>http://zagg-blog.s3.amazonaws.com/community/blog/wp-content/uploads/2013/05/nokia-918.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/KKYAAOSwSp5dRtZY/s-l640.jpg</t>
+  </si>
+  <si>
+    <t>analog nokia</t>
+  </si>
+  <si>
+    <t>https://www.computerhope.com/jargon/c/cellphone.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jegsons.com/multiple_uploader/images/19/192291-img.jpg</t>
+  </si>
+  <si>
+    <t>http://i1304.photobucket.com/albums/s530/tmtelectronics/nokia6131pink-500x500_zpsiwhjxeb8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/2LsAAOSwKbRfUBS0/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pngfind.com/pngs/m/563-5634134_nokia-branded-android-phones-and-hmd-global-feature.png</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/FfMAAOSwzE5cxwYv/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kanalaceh.com/wp-content/uploads/2019/04/Nokia-1280-87640.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1jZj9PXXXXXXaXVXXq6xXFXXXy/Hot-sale-Phone-Original-NOKIA-6700-Silder-Mobile-Phone-3G-GSM-Unlocked-6700s-Phone-Blue-English.jpg</t>
+  </si>
+  <si>
+    <t>https://d28i4xct2kl5lp.cloudfront.net/product_images/1572534626.32.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41WAyFy6CpL._SY300_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>http://ichef.bbci.co.uk/news/976/cpsprodpb/13B10/production/_92965608_thinkstockphotos-98972506.jpg</t>
+  </si>
+  <si>
+    <t>http://storage0.dms.mpinteractiv.ro/media/401/781/10384/3824072/1/15nokia-6700.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_mNtqH52fQvo/RuYCG__6p1I/AAAAAAAAACc/fnUFjLmu0nE/w1200-h630-p-k-no-nu/e65.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1H_9edrZnBKNjSZFrq6yRLFXax/C7-Nokia-Unlocked-original-cell-mobile-phone-GSM-3G-WIFI-GPS-8MP-8GB-internal-memory-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i2.wp.com/www.profitwarning.co.uk/wp-content/uploads/2019/11/nokia3200d-scaled.jpg?fit=2048%2C1536&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://www.dhresource.com/upload/20097/55/ff808081201d4c6901201dfb7ab354fd/productimg1249029830200.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-jY12DD-OpFk/UB39VMfZdjI/AAAAAAAAAh4/5I2JTB5luFc/s1600/DSC_0397.JPG</t>
+  </si>
+  <si>
+    <t>https://preview.redd.it/do2oy3lvnd451.jpg?auto=webp&amp;s=8555c86b014d95dd44010f62600ec9ec2f1a7b71</t>
+  </si>
+  <si>
+    <t>https://static.fjcdn.com/pictures/Nokia+brick_f9af43_3767925.png</t>
+  </si>
+  <si>
+    <t>https://www.dailydot.com/wp-content/uploads/54a/48/f8d5104b89dacfcb7f5967ed5de6114d.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gq-magazine.co.uk/photos/5d139974d7a70104e1bba946/master/w_1600%2Cc_limit/5110-GQ-19May16_pr_b.jpg</t>
+  </si>
+  <si>
+    <t>http://dp.image-gmkt.com/SG/GMKT.IMG/premiumReview/2013/07/27/e77d6c67-240f-4e16-a950-69952d783b04.jpg</t>
+  </si>
+  <si>
+    <t>https://outofwarranty.com/blog/wp-content/uploads/2017/02/Nokia-3310.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/thumbs/images/g/F9IAAOSw6xxeuHtV/s-l225.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/wCwAAOSwslJcvbAD/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.rewindmuseum.com/images3/nokia3210.jpg</t>
+  </si>
+  <si>
+    <t>https://external-preview.redd.it/OPSSt5t-wdIGlEqaaYeNIKFsE97BAFC8Z7k1GPE8-7o.jpg?auto=webp&amp;s=c25beccaf2ab26ef6e68a070958e08157927770e</t>
+  </si>
+  <si>
+    <t>http://www.iphoneantidote.com/blog/wp-content/uploads/2016/04/3074895130_a7535c49a5_z.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/thumbs/images/g/~w8AAOSw~hJdnLtw/s-l225.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/0f/7e/ea/0f7eeab4ac70f757de23c0695e78077a.jpg</t>
+  </si>
+  <si>
+    <t>http://static.tvtropes.org/pmwiki/pub/images/Nokia_Brick.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/coolthingsilove.com/wp-content/uploads/2017/10/an-old-nokia.jpg?resize=640%2C426&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://www.dailydot.com/wp-content/uploads/b4b/14/6db4f77eca5692c4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/t-WO0d5ZwrM/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>http://i.ebayimg.com/00/s/NDUwWDUwMA==/z/YIcAAOxy4dNSsllr/$_103.JPG?set_id=2</t>
+  </si>
+  <si>
+    <t>https://reverseretrograde.files.wordpress.com/2015/10/img_9653.jpg?w=672&amp;h=1008</t>
+  </si>
+  <si>
+    <t>http://img.ycpix.com/listimg/img1_0317/23/img_y7ALFF8wphWmb7z_r.jpg</t>
+  </si>
+  <si>
+    <t>https://assets3.thrillist.com/v1/image/1913086/414x310/crop;jpeg_quality=65.jpg</t>
+  </si>
+  <si>
+    <t>https://www.knowyourmobile.com/wp-content/uploads/2020/11/10-Amazing-Facts-About-The-Nokia-3310-980x674.jpg</t>
+  </si>
+  <si>
+    <t>http://www.iyrie.com/blog/wp-content/uploads/nokia-brick-300x200.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/1/156/421203364_996516ef93_b.jpg</t>
+  </si>
+  <si>
+    <t>https://media.techeblog.com/images/nokiap30.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-oSB_dtKsMCA/UgnFsgyBtPI/AAAAAAAAB5s/kQ5VwYtSFVY/s1600/nokia+brick.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgflip.com/5fwnfe.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/rafflespress.com/wp-content/uploads/2013/04/nokia1.jpg</t>
+  </si>
+  <si>
+    <t>https://external-preview.redd.it/wdo1Prl6eHxSj58UaiA8t8mamvnf1yw5wAnwQ_JrGf8.jpg?width=640&amp;crop=smart&amp;auto=webp&amp;s=e68e99edfbfd90ad1cefd661e3c7187548d53712</t>
+  </si>
+  <si>
+    <t>https://www.techreviewer.co.uk/wp-content/uploads/2014/05/Nokia3310.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/8a/40/88/8a4088f753664bd4af97bfd3a378e274.jpg</t>
+  </si>
+  <si>
+    <t>http://www.clker.com/cliparts/4/d/e/f/1513793922599328474nokia-brick.hi.png</t>
+  </si>
+  <si>
+    <t>https://149369349.v2.pressablecdn.com/wp-content/uploads/2017/02/nokia.jpg</t>
+  </si>
+  <si>
+    <t>https://static.turbosquid.com/Preview/2014/05/26__23_30_50/CellPhoneRender.png045c4c87-dfa3-4fec-b9fc-813818046861Larger.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/FO8AAOSwQahekeT8/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.businessworldghana.com/wp-content/uploads/2017/02/nokia-3310.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn-img-1.wanelo.com/p/907/a98/66c/bb863f26cd2092452948c97/full_size.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dailydot.com/wp-content/uploads/d73/ae/2c72a9b4677e4478.jpg</t>
+  </si>
+  <si>
+    <t>https://uploads.dailydot.com/798/38/nokia20331020phone3.jpg?auto=compress%2Cformat&amp;ixlib=php-3.3.0</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/pBgAAOSwkUxeINsn/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>http://oyster.ignimgs.com/wordpress/write.ign.com/94094/2012/02/nokia-3360-image.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kickassfacts.com/wp-content/uploads/2020/07/Nokia_1611_image.jpg</t>
+  </si>
+  <si>
+    <t>http://media-cache-ec0.pinimg.com/736x/e0/5d/fd/e05dfd7e3a0d6ee840d6c0b65ec29a6e.jpg</t>
+  </si>
+  <si>
+    <t>http://farm6.staticflickr.com/5096/5543506333_4b6dbc1402_z.jpg</t>
+  </si>
+  <si>
+    <t>http://odditymall.com/includes/content/nokia-brick-phone-iphone-case-0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.quotesgram.com/small/27/0/574589191-Nokia-brick.jpg</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/www.redferret.net/wp-content/uploads/2015/01/binatonebrick.jpg?fit=578%2C581&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://jckreports.com/wp-content/uploads/2021/10/nokia6-750x536.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/6d/89/89/6d898951340ae912e7a6e3eb1bcf0c74.jpg</t>
+  </si>
+  <si>
+    <t>http://i.ebayimg.com/00/$(KGrHqIOKpUE24S3Nw,0BN2PpqH7wg~~_35.JPG?set_id=89040003C1</t>
+  </si>
+  <si>
+    <t>http://www.tvfilmprops.co.uk/userdata/PRODPIC-1048.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/46/26/8b/46268b0bde759846b6eca36fb49a596e.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/730091077525458944/t-6ilhSV_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/c5/10/1b/c5101b779c3b5f4c07a84bb43cc95022.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/FO8AAOSwQahekeT8/s-l300.jpg</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/36421d_bfcb3f590f3e42b78c2d0766e671f729~mv2.png/v1/fit/w_2500,h_1330,al_c/36421d_bfcb3f590f3e42b78c2d0766e671f729~mv2.png</t>
+  </si>
+  <si>
+    <t>https://www.kickassfacts.com/wp-content/uploads/2020/07/Nokia_3310.jpg</t>
+  </si>
+  <si>
+    <t>https://static.turbosquid.com/Preview/2014/05/26__23_30_50/CellPhoneRender.png045c4c87-dfa3-4fec-b9fc-813818046861Original.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pikpng.com/pngl/m/569-5690819_nokia-snake-nokia-3310-png-transparent-clipart.png</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-GA4u26xGug8/UbTJKZ7t6_I/AAAAAAAAAEY/KG0bs2VMYVE/s1600/IMG_1289.jpg</t>
+  </si>
+  <si>
+    <t>http://resources0.news.com.au/images/2014/05/26/1226931/677952-b70853e4-e47a-11e3-ba62-a129b4e220c3.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41LNQCRBtsL._AC_US327_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://d3ku2up3znex6l.cloudfront.net/public/album_photo/98/75/01/17324_f741.jpg?c=34d5</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/00/s/ODAwWDYwMA==/z/SDAAAOSwiC1e~U8P/$_86.PNG</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/3106/3169516123_e6c9b57c4d_b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/c2/bc/95/c2bc9530bb81854a30faf0d8a8da131d--unlocked-mobile-phones-smart-phones.jpg</t>
+  </si>
+  <si>
+    <t>https://resources.stuff.co.nz/content/dam/images/1/h/8/n/r/l/image.related.StuffLandscapeSixteenByNine.1420x800.1h8nm9.png/1487109432269.jpg</t>
+  </si>
+  <si>
+    <t>https://preview.redd.it/2b5cikpgvei21.jpg?auto=webp&amp;s=9fdec62b8cd35370a73bf995f1a577d68b315377</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/220QMwVHIlY/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31mpV0V9OuL._AC_US500_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://external-preview.redd.it/JPpGYCH_grlIsNMZxpRYGKGKkwJ7NgvLBxGwrBiKGRo.jpg?auto=webp&amp;s=b6d0564317a82000fca85574ab41e33d78016a33</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/mtcjtb8i0wkz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/08/65/c3/0865c30e5ad96e603dc08dfbdcae4392--bricks-technology.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/414Nf7DhuIL._AC_US218_.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.quotesgram.com/img/21/97/1599897733-nokia-brick-smartpone-FB.jpg</t>
+  </si>
+  <si>
+    <t>http://www.iyrie.com/blog/wp-content/uploads/nokia-brick.jpg</t>
+  </si>
+  <si>
+    <t>https://uploads.dailydot.com/ab7/9a/e8f1ad3566f97448-e1491839721533.jpg?auto=compress&amp;fm=pjpg</t>
+  </si>
+  <si>
+    <t>brick nokia</t>
   </si>
 </sst>
 </file>
@@ -944,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,6 +3645,2012 @@
       </c>
       <c r="C201" s="1" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>253</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>253</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>253</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>253</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>253</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>253</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>253</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>253</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>253</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>253</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>253</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>253</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>253</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>253</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>253</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>253</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>253</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>253</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>253</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>253</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>253</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>253</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>253</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>253</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>253</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>253</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>253</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>253</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>253</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>253</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>253</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>253</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>253</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>253</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>253</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>253</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>253</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>253</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>253</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>253</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>253</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>253</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>253</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>253</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>253</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>253</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>253</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>253</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>253</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>253</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>253</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>253</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>253</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>253</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>253</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>253</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>253</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>253</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>253</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>253</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>253</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>253</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>253</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>253</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>253</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>253</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>253</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>253</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>253</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>253</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>253</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>253</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>253</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>253</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>253</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>348</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>348</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>348</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>348</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>348</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>348</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>348</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>348</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>348</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>348</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>348</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>348</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>348</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>348</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>348</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>348</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>348</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>348</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>348</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>348</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>348</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>348</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>348</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>348</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>348</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>348</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>348</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>348</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>348</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>348</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>348</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>348</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>348</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>348</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>348</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>348</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>348</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>348</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>348</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>348</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>348</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>348</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>348</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>348</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>348</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>348</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>348</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>348</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>348</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>348</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>348</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>348</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>348</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>348</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>348</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>348</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>348</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>348</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>348</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>348</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>348</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>348</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>348</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>348</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>348</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>348</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>348</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>348</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3362,8 +5848,182 @@
     <hyperlink ref="C199" r:id="rId191" xr:uid="{74389EB7-E950-44D1-AB16-B962AC4076AF}"/>
     <hyperlink ref="C200" r:id="rId192" xr:uid="{9B3B24C8-4D29-4A9A-BBEF-056F8811B405}"/>
     <hyperlink ref="C201" r:id="rId193" xr:uid="{C2CBE1C4-01CC-4A28-B968-14B6B83FAD7F}"/>
+    <hyperlink ref="C202" r:id="rId194" xr:uid="{958EF1D4-B621-4DEB-AC93-4727298BA91F}"/>
+    <hyperlink ref="C203" r:id="rId195" xr:uid="{F328C044-5C27-4979-8264-2D3258819BC7}"/>
+    <hyperlink ref="C204" r:id="rId196" xr:uid="{6A3A7410-9C75-4DBA-9347-1133311B4A2B}"/>
+    <hyperlink ref="C205" r:id="rId197" xr:uid="{0ADB1551-4BD6-477F-8A64-A77CE2CF24A8}"/>
+    <hyperlink ref="C206" r:id="rId198" xr:uid="{06C7BB82-965B-47AB-8047-9EDA9AEDB9D3}"/>
+    <hyperlink ref="C207" r:id="rId199" xr:uid="{9A60F9C0-F61E-4E0F-97B7-98E72547CDFE}"/>
+    <hyperlink ref="C208" r:id="rId200" xr:uid="{F303B14E-FEA1-453A-85F7-E41189AFDE5A}"/>
+    <hyperlink ref="C209" r:id="rId201" xr:uid="{A037819F-A56A-4519-B66A-6E0B289C5A85}"/>
+    <hyperlink ref="C210" r:id="rId202" xr:uid="{014A7FF5-08DC-4236-AEB4-24B4E29CB589}"/>
+    <hyperlink ref="C211" r:id="rId203" xr:uid="{C61A28EF-C9CD-4D04-AF78-DC61322E1B21}"/>
+    <hyperlink ref="C212" r:id="rId204" xr:uid="{07C1B390-BA95-47BA-A3F1-5AF3E1FE6D5F}"/>
+    <hyperlink ref="C213" r:id="rId205" xr:uid="{FD931075-35A1-4797-838F-BB07D4E8C1A1}"/>
+    <hyperlink ref="C214" r:id="rId206" xr:uid="{F6D58940-7CCC-4BB3-B9F3-0E704A344985}"/>
+    <hyperlink ref="C215" r:id="rId207" xr:uid="{D76335D0-2098-43C1-AC6E-A603D546C88A}"/>
+    <hyperlink ref="C216" r:id="rId208" xr:uid="{62991C7D-438B-46BA-A703-56F503C9F820}"/>
+    <hyperlink ref="C217" r:id="rId209" xr:uid="{76FB1EE6-45D2-4996-A077-FA180B465C5E}"/>
+    <hyperlink ref="C218" r:id="rId210" xr:uid="{EDB4D6D6-FF74-42D3-9B93-A65B4C3D3CE6}"/>
+    <hyperlink ref="C219" r:id="rId211" xr:uid="{D961DDFC-7723-4AA4-B751-CE09EC0854D3}"/>
+    <hyperlink ref="C220" r:id="rId212" xr:uid="{234238C1-60FD-4298-B6B8-2A77EB23D980}"/>
+    <hyperlink ref="C221" r:id="rId213" xr:uid="{86B4DE10-7A11-4D98-990C-6B45692D8B7E}"/>
+    <hyperlink ref="C222" r:id="rId214" xr:uid="{32284837-CF85-4392-96BF-F0BE1705A4CA}"/>
+    <hyperlink ref="C223" r:id="rId215" xr:uid="{02E6F39B-778C-4C4E-84E4-8CBABC1C5E2A}"/>
+    <hyperlink ref="C224" r:id="rId216" xr:uid="{FBC7BFA9-E17A-4345-A7BD-7D4468F76C41}"/>
+    <hyperlink ref="C225" r:id="rId217" xr:uid="{FD476A91-ED29-4CE5-B264-1E699C0CBCF0}"/>
+    <hyperlink ref="C226" r:id="rId218" xr:uid="{CB433310-E32B-4CB3-8C59-EB51C956BC2C}"/>
+    <hyperlink ref="C227" r:id="rId219" xr:uid="{F0A3A131-E065-443B-9341-6D468F0A6538}"/>
+    <hyperlink ref="C228" r:id="rId220" xr:uid="{BAC25B71-9627-4395-BBD5-442FADF9FD34}"/>
+    <hyperlink ref="C229" r:id="rId221" xr:uid="{658EBAE1-011D-4B14-A398-3827F68566EC}"/>
+    <hyperlink ref="C230" r:id="rId222" xr:uid="{69E5F5F7-E0BC-4793-AB77-F3C67377869F}"/>
+    <hyperlink ref="C231" r:id="rId223" xr:uid="{2A91464C-27E7-496A-8309-6538F3F3824A}"/>
+    <hyperlink ref="C232" r:id="rId224" xr:uid="{B04C7ED2-E757-4FA4-9CEE-DB798026AAF7}"/>
+    <hyperlink ref="C233" r:id="rId225" xr:uid="{8CEF9739-B223-4A76-BBAC-F068607132F9}"/>
+    <hyperlink ref="C234" r:id="rId226" xr:uid="{A1308145-FC38-43DE-9C1F-B35692B61208}"/>
+    <hyperlink ref="C235" r:id="rId227" xr:uid="{E9C9F514-F084-4362-A0C7-2C81542A0E0D}"/>
+    <hyperlink ref="C236" r:id="rId228" xr:uid="{EFCAF0C9-0F9A-4186-B2C0-3F59B80ECD53}"/>
+    <hyperlink ref="C237" r:id="rId229" xr:uid="{C3DBF0A0-8564-4CE2-AFAD-C1442AB06826}"/>
+    <hyperlink ref="C238" r:id="rId230" xr:uid="{E9FE0F60-9130-499C-9E89-9EFB3889E4FD}"/>
+    <hyperlink ref="C239" r:id="rId231" xr:uid="{C8821A0C-1BB0-49A3-B61B-807DC1E0B5B0}"/>
+    <hyperlink ref="C240" r:id="rId232" xr:uid="{D5770F5C-C0C8-43A3-B98B-542CE6FC3631}"/>
+    <hyperlink ref="C241" r:id="rId233" xr:uid="{26540F62-58AA-4A09-988D-B5307F8A3115}"/>
+    <hyperlink ref="C242" r:id="rId234" xr:uid="{6FD2E2E1-1F3E-4FC4-85D5-AA19EA5C61E9}"/>
+    <hyperlink ref="C243" r:id="rId235" xr:uid="{46110617-E076-4815-9D76-39B3CB20F25C}"/>
+    <hyperlink ref="C244" r:id="rId236" xr:uid="{97733671-4891-4011-BF58-4DFEC5405AED}"/>
+    <hyperlink ref="C245" r:id="rId237" xr:uid="{477C51D7-E915-4BA0-90F8-DA7A59594488}"/>
+    <hyperlink ref="C246" r:id="rId238" xr:uid="{107D70B1-449B-4324-A97D-1E626B94F8D5}"/>
+    <hyperlink ref="C247" r:id="rId239" xr:uid="{2179A983-27D5-4DD8-9486-2D9869CFD05E}"/>
+    <hyperlink ref="C248" r:id="rId240" xr:uid="{CFA820FF-2F37-4FEF-A687-38AE62044D9D}"/>
+    <hyperlink ref="C249" r:id="rId241" xr:uid="{C6585723-3164-4C13-A657-51685CFAB33B}"/>
+    <hyperlink ref="C250" r:id="rId242" xr:uid="{8D75AA35-0C04-442B-8135-BC25AE08E03A}"/>
+    <hyperlink ref="C251" r:id="rId243" xr:uid="{2A9FC6DF-ADFC-486C-9659-9040BB95D1C3}"/>
+    <hyperlink ref="C252" r:id="rId244" xr:uid="{CDD74275-16A3-4517-8192-3A6D7A50B7A0}"/>
+    <hyperlink ref="C253" r:id="rId245" xr:uid="{423849E8-0FFC-4347-AE5A-A8BD4FB5870C}"/>
+    <hyperlink ref="C254" r:id="rId246" xr:uid="{08EB1E15-E6A0-4A52-8E15-E27CB4214C44}"/>
+    <hyperlink ref="C255" r:id="rId247" xr:uid="{752DD55C-BC8C-467E-B073-D60613A01AF2}"/>
+    <hyperlink ref="C256" r:id="rId248" xr:uid="{5106166E-01D0-420E-A70A-9A969B4932C4}"/>
+    <hyperlink ref="C257" r:id="rId249" xr:uid="{8CB8E8A9-4EE6-4A50-8B52-752159CE0BA5}"/>
+    <hyperlink ref="C258" r:id="rId250" xr:uid="{110AEE02-B5A7-422A-A776-125A2AAD15B7}"/>
+    <hyperlink ref="C259" r:id="rId251" xr:uid="{8B1D7EA4-8523-47C7-96F6-4AA04A116888}"/>
+    <hyperlink ref="C261" r:id="rId252" xr:uid="{5B3FC133-A726-4A73-94EE-F495B147ECD7}"/>
+    <hyperlink ref="C262" r:id="rId253" xr:uid="{9DB577A5-4D99-4561-8900-CF5CA4FB08F7}"/>
+    <hyperlink ref="C263" r:id="rId254" xr:uid="{F51E0FE9-0D45-41A3-A5EB-1E31051266A6}"/>
+    <hyperlink ref="C264" r:id="rId255" xr:uid="{33C8EAD6-0900-4359-8CF7-F91457CB8C1D}"/>
+    <hyperlink ref="C265" r:id="rId256" xr:uid="{BF3B5793-C9B7-41B5-BE26-18FA94B4D4A7}"/>
+    <hyperlink ref="C266" r:id="rId257" xr:uid="{A7E9899A-4DAE-41FE-AF80-99D2C856A33B}"/>
+    <hyperlink ref="C267" r:id="rId258" xr:uid="{E09336A6-CB7A-4AF3-8585-1738D7E8106B}"/>
+    <hyperlink ref="C268" r:id="rId259" xr:uid="{D65B4076-28F7-4164-945F-80AC9FFEB2B7}"/>
+    <hyperlink ref="C269" r:id="rId260" xr:uid="{51A96A00-5C3F-4630-AD98-8ADCEAF82504}"/>
+    <hyperlink ref="C270" r:id="rId261" xr:uid="{79FA6920-907C-4676-BF9B-80E5A79A3576}"/>
+    <hyperlink ref="C272" r:id="rId262" xr:uid="{CCD00442-767F-4E36-93E0-D3CF02556493}"/>
+    <hyperlink ref="C273" r:id="rId263" xr:uid="{383B1181-1873-4F25-85F0-7AB3010261A1}"/>
+    <hyperlink ref="C274" r:id="rId264" xr:uid="{203A6AC5-FCC1-41D2-B424-D103ECE2A59F}"/>
+    <hyperlink ref="C275" r:id="rId265" xr:uid="{CC3B49AB-9637-4A4A-96AA-3525FFAD9F56}"/>
+    <hyperlink ref="C276" r:id="rId266" xr:uid="{B4B2A3FA-41F4-455F-A357-133D4BC88EFA}"/>
+    <hyperlink ref="C277" r:id="rId267" xr:uid="{A2DDB6C9-DD79-4520-B73E-E5C3C99A7258}"/>
+    <hyperlink ref="C278" r:id="rId268" xr:uid="{0E75E86D-505A-494C-B991-F14E91A8AFC3}"/>
+    <hyperlink ref="C279" r:id="rId269" xr:uid="{96A9FE90-F6E6-4321-A798-F32C62ABE158}"/>
+    <hyperlink ref="C280" r:id="rId270" xr:uid="{80DC260F-4593-44B3-9B74-C97DAC4AD6E7}"/>
+    <hyperlink ref="C281" r:id="rId271" xr:uid="{C50CBCDB-C755-45E0-A301-38E4085E9A44}"/>
+    <hyperlink ref="C282" r:id="rId272" xr:uid="{4E150CF6-1823-4BFD-998B-35482E7A92DA}"/>
+    <hyperlink ref="C283" r:id="rId273" xr:uid="{3D4DD9BE-9AC9-4AC3-BC33-45427A2E3FF6}"/>
+    <hyperlink ref="C284" r:id="rId274" xr:uid="{FAFDD189-85B2-4770-87C5-B21FB33AAF0D}"/>
+    <hyperlink ref="C285" r:id="rId275" xr:uid="{23AB312D-BB51-4BFC-86C2-4D675AF98F30}"/>
+    <hyperlink ref="C286" r:id="rId276" xr:uid="{9FE330E4-6E0C-42E9-AB06-71CB1C92A452}"/>
+    <hyperlink ref="C287" r:id="rId277" xr:uid="{D38CBBE4-7678-4BAD-B198-B4E0FC008C0F}"/>
+    <hyperlink ref="C288" r:id="rId278" xr:uid="{6B92629E-5726-4B2F-B5B3-EF515CE22FF8}"/>
+    <hyperlink ref="C289" r:id="rId279" xr:uid="{B938B0E0-75D1-41B4-8AC7-B1EFAE5E36E3}"/>
+    <hyperlink ref="C290" r:id="rId280" xr:uid="{DDE714D3-FBB9-40A4-B7BD-C6B6A586DF88}"/>
+    <hyperlink ref="C291" r:id="rId281" xr:uid="{A40683EC-4CA8-4F7B-BBCB-D1F75F7B9B0B}"/>
+    <hyperlink ref="C292" r:id="rId282" xr:uid="{F9BE099F-AE44-4C70-8645-9D715E81B1EE}"/>
+    <hyperlink ref="C293" r:id="rId283" xr:uid="{97F17299-DC5D-47B0-90EB-74B0E6E8BBE0}"/>
+    <hyperlink ref="C294" r:id="rId284" xr:uid="{A4CA316D-2A5B-4B18-8148-EFD0F1EF0E9E}"/>
+    <hyperlink ref="C295" r:id="rId285" xr:uid="{0B16EBBA-F927-4845-AFF1-A468D1B8BFF1}"/>
+    <hyperlink ref="C296" r:id="rId286" xr:uid="{23994E07-845F-4880-8BD4-602922999814}"/>
+    <hyperlink ref="C297" r:id="rId287" xr:uid="{F4F49C2B-54F6-46B9-A004-CE02C6C2DC60}"/>
+    <hyperlink ref="C298" r:id="rId288" xr:uid="{E5D8AC14-73B0-4E4A-8710-E274EEEE5956}"/>
+    <hyperlink ref="C299" r:id="rId289" xr:uid="{38271C68-FC8C-4837-BA73-91416B319AF9}"/>
+    <hyperlink ref="C300" r:id="rId290" xr:uid="{62CA2703-9255-4BCF-805C-4C9BB00AFDAA}"/>
+    <hyperlink ref="C301" r:id="rId291" xr:uid="{E62BE046-19B4-43CF-85EA-8A55733A0B5E}"/>
+    <hyperlink ref="C302" r:id="rId292" xr:uid="{8227C848-792C-4372-A0E6-D961746E9A5E}"/>
+    <hyperlink ref="C303" r:id="rId293" xr:uid="{12C766FF-895E-4719-A8DB-D7F796A1F9C6}"/>
+    <hyperlink ref="C304" r:id="rId294" xr:uid="{EDD5A27B-DB98-4E16-BF41-2A354A206717}"/>
+    <hyperlink ref="C305" r:id="rId295" xr:uid="{69096829-E63E-466A-939C-43B1C0C4FAD5}"/>
+    <hyperlink ref="C306" r:id="rId296" xr:uid="{21F96FC0-AED6-4137-963B-D2319424D033}"/>
+    <hyperlink ref="C307" r:id="rId297" xr:uid="{896C9C8F-F145-4084-87FC-1660D46D85CF}"/>
+    <hyperlink ref="C308" r:id="rId298" xr:uid="{7ABFA73A-CD32-408B-80B5-025C514755E2}"/>
+    <hyperlink ref="C309" r:id="rId299" xr:uid="{F05A1D46-9B06-475C-AF77-B4F8C1217B1A}"/>
+    <hyperlink ref="C310" r:id="rId300" xr:uid="{9436928D-6962-4F4F-999B-9CEED82BC19D}"/>
+    <hyperlink ref="C311" r:id="rId301" xr:uid="{EA9659AE-BAE2-46DB-801C-6D6A3D48EDAA}"/>
+    <hyperlink ref="C312" r:id="rId302" xr:uid="{4D274E24-667D-485A-A407-2227E50D3E7F}"/>
+    <hyperlink ref="C313" r:id="rId303" xr:uid="{6C1E3F28-C41E-44A9-AE18-281119AEE8EB}"/>
+    <hyperlink ref="C314" r:id="rId304" xr:uid="{92C85A7E-0EC5-41E2-B62E-B0743B0F409B}"/>
+    <hyperlink ref="C315" r:id="rId305" xr:uid="{B6D7FFFB-252C-4884-807B-802F34E5C45D}"/>
+    <hyperlink ref="C316" r:id="rId306" xr:uid="{84F5B183-AD12-4983-9A75-9C8556C7B556}"/>
+    <hyperlink ref="C317" r:id="rId307" xr:uid="{6C10F378-8F38-44F1-8FA3-52E3DB737B97}"/>
+    <hyperlink ref="C318" r:id="rId308" xr:uid="{540153FF-07D7-4153-925F-F43157A4A54D}"/>
+    <hyperlink ref="C319" r:id="rId309" xr:uid="{04A145E7-BAE0-435B-A72A-C16B76E313AC}"/>
+    <hyperlink ref="C320" r:id="rId310" xr:uid="{9B524DCC-CF90-4F1F-9867-B470AAB8191D}"/>
+    <hyperlink ref="C321" r:id="rId311" xr:uid="{F2B1805A-D21B-46A8-9695-45029B9E602F}"/>
+    <hyperlink ref="C322" r:id="rId312" xr:uid="{76BDF9F6-F1E4-42E9-9C30-3DCE15926969}"/>
+    <hyperlink ref="C323" r:id="rId313" xr:uid="{8C104D9D-ECB8-4AC0-8972-60D2E26E0987}"/>
+    <hyperlink ref="C324" r:id="rId314" xr:uid="{8279619A-C1EE-41C3-9068-56C54A1D84BC}"/>
+    <hyperlink ref="C325" r:id="rId315" xr:uid="{1C52A09A-A309-4C6A-8CC2-735E66550A9C}"/>
+    <hyperlink ref="C326" r:id="rId316" xr:uid="{892588C1-2794-490F-A0A4-1B2636D35EF1}"/>
+    <hyperlink ref="C327" r:id="rId317" xr:uid="{458C501B-7D84-4D32-989A-67A9FA4951CB}"/>
+    <hyperlink ref="C328" r:id="rId318" xr:uid="{F2853DDD-2005-4963-A33D-40311D3C0A8E}"/>
+    <hyperlink ref="C329" r:id="rId319" xr:uid="{9EEF6FAF-56F1-4804-B9CD-327E03FF0C9B}"/>
+    <hyperlink ref="C330" r:id="rId320" xr:uid="{9F200D3A-FE16-40D0-96E2-440C92210E93}"/>
+    <hyperlink ref="C331" r:id="rId321" xr:uid="{DD73A2AE-C329-4F4B-8D05-7B2D09A845BC}"/>
+    <hyperlink ref="C332" r:id="rId322" xr:uid="{D6B51B6C-E8EE-4A6F-B78A-E4281DA4A4AB}"/>
+    <hyperlink ref="C333" r:id="rId323" xr:uid="{24F72D5E-93AA-48A5-B6E0-9043B0D6DC72}"/>
+    <hyperlink ref="C334" r:id="rId324" xr:uid="{F6602CB3-B911-422E-BC19-C0A503109ACD}"/>
+    <hyperlink ref="C335" r:id="rId325" xr:uid="{F4B45CE5-F06C-4AA2-B1FE-708428E118F2}"/>
+    <hyperlink ref="C336" r:id="rId326" xr:uid="{A98C34CF-5548-4D15-85C5-98CE62C98D02}"/>
+    <hyperlink ref="C337" r:id="rId327" xr:uid="{CE3B0E36-3298-476B-8723-5FA364281584}"/>
+    <hyperlink ref="C338" r:id="rId328" xr:uid="{5DA1EBDF-104B-4764-B930-BCCB039E4F6A}"/>
+    <hyperlink ref="C339" r:id="rId329" xr:uid="{1A929758-78C2-48D1-BBA0-935651DAF7BE}"/>
+    <hyperlink ref="C340" r:id="rId330" xr:uid="{80678A10-4042-4BB8-B53A-AEF36D197463}"/>
+    <hyperlink ref="C341" r:id="rId331" xr:uid="{6FFB5E7B-F38B-471D-BA64-173E56F3B00B}"/>
+    <hyperlink ref="C342" r:id="rId332" xr:uid="{499B1F4A-1457-4B78-8356-905A66746DE5}"/>
+    <hyperlink ref="C343" r:id="rId333" xr:uid="{977F44E4-1432-4982-A4AD-EC2D6D43DEE3}"/>
+    <hyperlink ref="C344" r:id="rId334" xr:uid="{C4861E86-F155-4309-B865-263F72316B1F}"/>
+    <hyperlink ref="C345" r:id="rId335" xr:uid="{DEE8E32F-4DF6-49F8-A923-397543E5D9C8}"/>
+    <hyperlink ref="C346" r:id="rId336" xr:uid="{69297D6C-FAEC-4773-B9C4-671EE9B049AA}"/>
+    <hyperlink ref="C347" r:id="rId337" xr:uid="{5D11B3FD-91F1-4CE5-8DC8-B99D8E042746}"/>
+    <hyperlink ref="C348" r:id="rId338" xr:uid="{6131B237-5319-40D9-A024-5C5371090B73}"/>
+    <hyperlink ref="C349" r:id="rId339" xr:uid="{5CB1FB55-771D-44F9-A0E6-10582C0DA9B1}"/>
+    <hyperlink ref="C350" r:id="rId340" xr:uid="{9654B3F8-1CFD-4F66-955E-CB7147D614F6}"/>
+    <hyperlink ref="C351" r:id="rId341" xr:uid="{28AB327F-6EE7-40FE-A0C4-CEA48D4CDDAC}"/>
+    <hyperlink ref="C352" r:id="rId342" xr:uid="{EB37C7C4-93BE-489E-9272-E69237F8320E}"/>
+    <hyperlink ref="C353" r:id="rId343" xr:uid="{754E0750-B3F0-4C7D-84A1-833C3C6BC60F}"/>
+    <hyperlink ref="C354" r:id="rId344" xr:uid="{318345D4-FC74-4480-98AF-DA80C6067627}"/>
+    <hyperlink ref="C355" r:id="rId345" xr:uid="{B5F564D1-471C-42F1-8A17-AF04CADA4D03}"/>
+    <hyperlink ref="C356" r:id="rId346" xr:uid="{78B4B5F1-1507-4476-B83F-FEF5FB0D5E32}"/>
+    <hyperlink ref="C357" r:id="rId347" xr:uid="{7BF408EA-F329-46E4-95A1-EAFD5C213985}"/>
+    <hyperlink ref="C358" r:id="rId348" xr:uid="{7212EB6E-F4DB-4064-A988-E8322387DDF4}"/>
+    <hyperlink ref="C359" r:id="rId349" xr:uid="{99CA51E7-7E7B-4BD5-9F30-0FA961FC8612}"/>
+    <hyperlink ref="C360" r:id="rId350" xr:uid="{AB3E74C6-6119-4ED0-912E-34610A1EF9B6}"/>
+    <hyperlink ref="C361" r:id="rId351" xr:uid="{D174372D-A9A6-407F-A64D-458E25AC64C0}"/>
+    <hyperlink ref="C362" r:id="rId352" xr:uid="{4C4F331F-2619-487B-87F1-3BE4DFFE0FD4}"/>
+    <hyperlink ref="C363" r:id="rId353" xr:uid="{5C512F64-6253-43E6-A055-BE13D4417C7A}"/>
+    <hyperlink ref="C364" r:id="rId354" xr:uid="{2E795C6B-E529-4555-8B4D-4DB6141CBE48}"/>
+    <hyperlink ref="C365" r:id="rId355" xr:uid="{220DBEDB-3AA5-4C33-A372-C641494C06A1}"/>
+    <hyperlink ref="C366" r:id="rId356" xr:uid="{BC356FCE-4363-414A-AD96-8E6EDFA060ED}"/>
+    <hyperlink ref="C367" r:id="rId357" xr:uid="{A7030B73-F747-49F0-BD62-757C8E9F5743}"/>
+    <hyperlink ref="C368" r:id="rId358" xr:uid="{44B7BC89-33F2-420C-8389-390310773280}"/>
+    <hyperlink ref="C369" r:id="rId359" xr:uid="{B53F47BE-BC22-49E6-85A5-482CAABE7744}"/>
+    <hyperlink ref="C370" r:id="rId360" xr:uid="{6511C7FB-0381-4538-BD14-9A88B30E70D6}"/>
+    <hyperlink ref="C371" r:id="rId361" xr:uid="{E6332FF0-F6D4-4CA6-9C6C-7A4B3D603A9B}"/>
+    <hyperlink ref="C372" r:id="rId362" xr:uid="{7A73910B-668A-4B42-A938-2A12B00B1E51}"/>
+    <hyperlink ref="C373" r:id="rId363" xr:uid="{48EFBEA1-180F-4975-946C-FC31BBC98A27}"/>
+    <hyperlink ref="C374" r:id="rId364" xr:uid="{82AB5EC8-74ED-447D-BC61-6FCA9586B710}"/>
+    <hyperlink ref="C375" r:id="rId365" xr:uid="{186D3034-5857-469D-AE29-AB1557B793CA}"/>
+    <hyperlink ref="C376" r:id="rId366" xr:uid="{A135D253-150B-42F0-A662-2925FF6B2C9D}"/>
+    <hyperlink ref="C377" r:id="rId367" xr:uid="{287D302C-8F95-46CB-910B-D9F18FFCD944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId194"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId368"/>
 </worksheet>
 </file>
--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00160711\Downloads\CNN-Nokia-vs-iPhone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3DBC3-A34C-4A00-958C-EC37D7F790CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948671DF-F9F8-4093-A6BD-31AEB0051B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="428">
   <si>
     <t>nokia</t>
   </si>
@@ -1072,6 +1072,243 @@
   </si>
   <si>
     <t>brick nokia</t>
+  </si>
+  <si>
+    <t>https://i.etsystatic.com/23820094/r/il/93f951/2924308367/il_fullxfull.2924308367_iucn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.etsystatic.com/23820094/r/il/557209/2924308229/il_fullxfull.2924308229_km1z.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1pAEIRVXXXXaSapXXq6xXFXXXc.jpg?size=339003&amp;height=1333&amp;width=1000&amp;hash=9865fc8f95ac90507cd1e6c6e673f09e</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/90/6c/ab/906cab880a4bd70937e5a3aa10ab9199.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/575825662-1385752492_800x.jpg?v=1533835367</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/Nokia-2720-Fold_1024x1024.png?v=1533835372</t>
+  </si>
+  <si>
+    <t>https://images.flip-phone.biz/l-m/6060-rh-73-unlocked-old-flip-cell.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1MU2eXOzxK1RjSspjq6AS.pXak/3710f-Nokia-original-Nokia-Flip-Nokia-3710-unlocked-cell-phone-3G-3-2MP-Camera-bluetooth-One.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1ybbzk8DH8KJjy1zeq6xjepXac/6103-100-original-phone-Nokia-6103-Flip-cell-phone-with-Bluetooth-refurbished.jpg_640x640.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_U3N2Ivou5Ns/TUe8Ao1VjqI/AAAAAAAABCQ/mhft158YLFc/s1600/nokia%252B6101.jpg</t>
+  </si>
+  <si>
+    <t>https://auditechcdn.azureedge.net/public/images/0005880_nokia-2720-4glte-flip-phone-senior-phone-grey.jpeg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/rBVaEFfqKHqAH-s3AAdxXy8blr4954_grande.jpg?v=1539883337</t>
+  </si>
+  <si>
+    <t>https://gizmomaniacs.com/wp-content/uploads/2019/09/Nokia-2720-Flip.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/ImageUrl_Nokia_Symbian_2XXX_2760_800x.jpg?v=1539883337</t>
+  </si>
+  <si>
+    <t>https://cdn.eftm.com/wp-content/uploads/2019/09/Nokia-2720-Flip_Rationals_Black_Open_DS-LS_LHS-45-FRN_PNG.png</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/00/s/OTA4WDc4MA==/z/xz0AAOSwU21fM4dy/$_57.JPG?set_id=8800005007</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/00/s/MTAxM1g3NTA=/z/V0MAAOSwIvBcN8oN/$_86.JPG</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1ybbzk8DH8KJjy1zeq6xjepXac/6103-100-original-phone-Nokia-6103-Flip-cell-phone-with-Bluetooth-refurbished.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1bT_YdTtYBeNjy1Xdq6xXyVXaj/Refurbished-3710f-Nokia-original-Flip-Phone-Nokia-3710-unlocked-cell-phone-3G-3-2MP-Camera-bluetooth.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/71UpzjxWFHL._SL1024_1024x1024.jpg?v=1533835372</t>
+  </si>
+  <si>
+    <t>https://www.91-cdn.com/hub/wp-content/uploads/2019/09/Nokia-2720-FB.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/81JWP4WiluL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://preview.redd.it/zf2wo7fzn6841.jpg?auto=webp&amp;s=bab6271ab8b495f2b523a3fb1927960f2a071847</t>
+  </si>
+  <si>
+    <t>https://images.flip-phone.biz/l-m/original-6085-flip-black-2g-gsm-unlocked-v-3975286256.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/uC4AAOSwyJlfmMmr/s-l400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/11/23/ea/1123ea2ce5fe56ea1af69ad083f725a2.jpg</t>
+  </si>
+  <si>
+    <t>https://dealnews.a.ssl.fastly.net/files/uploads/old-nokia-flip-phone-again.jpg</t>
+  </si>
+  <si>
+    <t>https://images.yaoota.com/z2NzB0E09l1S-y8eDIZmhecyZNc=/trim/yaootaweb-production-sa/media/crawledproductimages/5ec121206bf29093b35f3d98ec0fa1dcc8ba8d40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/00/s/MTAyNFg3Njg=/z/0dMAAOSwpqVhD5UH/$_20.JPG</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/W90AAOSw14ZeBw0V/s-l640.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1Bkz_m29TBuNjy0Fcq6zeiFXaY/Original-unlocked-Nokia-3710-Flip-Refurbished-cell-phone-3G-3-2MP-Camera-bluetooth-free-shipping-1.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1Cne4bruWBuNjSszgq6z8jVXaB/Refurbished-Original-Nokia-6131-Mobile-Phone-2G-GSM-Unlocked-Flip-Phone-English-Arabic-Hebrew-Russian-Keyboard.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1HjANbDtYBeNjy1Xdq6xXyVXai/Refurbished-Original-Nokia-6131-Pink-Mobile-Phone-2G-GSM-Unlocked-Flip-Phone-English-Arabic-Hebrew-Russian.jpg</t>
+  </si>
+  <si>
+    <t>https://media.gqindia.com/wp-content/uploads/2017/02/GQ-India-Old-Nokia-phones-2.jpg</t>
+  </si>
+  <si>
+    <t>http://images.flip-phone.biz/l-m/original-6085-flip-black-2g-gsm-unlocked-v-918070271.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-HheFlIgPiL0/TWVhUBJy0aI/AAAAAAAAAJ0/Bx4XYhvsWPI/s1600/Nokia.jpg</t>
+  </si>
+  <si>
+    <t>https://images.indianexpress.com/2022/09/Nokia-2660-Flip-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/UWIAAOSw29JcJ6S~/s-l300.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/7c/b7/46/7cb746c0ffbacb3604f2231f16d9fff0.jpg</t>
+  </si>
+  <si>
+    <t>https://photos.offerup.com/FSM90mO_i4ps-iNFHlmrIEIiMFU=/600x800/6822/682228f3b08b430eb6a9641316f46ad3.jpg</t>
+  </si>
+  <si>
+    <t>https://image.pushauction.com/0/0/65062e4d-4c72-4495-9884-a290a4ef3bce/8332d102-6d47-47a8-a030-b3888dd1146e.jpg</t>
+  </si>
+  <si>
+    <t>https://mltupuqcect4.i.optimole.com/GmNVd8U-XaGFBtt6/w:1024/h:576/q:70/https://www.cosbom.com/wp-content/uploads/2021/05/nokia_2720-flip-1280x720-1.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.vox-cdn.com/thumbor/SBr29nIO5d2aU33H-QxUxVGRhnE=/0x0:2040x1360/1200x800/filters:focal(857x517:1183x843)/cdn.vox-cdn.com/uploads/chorus_image/image/65180557/cgartenberg_190821_3598_0015.0.jpg</t>
+  </si>
+  <si>
+    <t>http://images.flip-phone.biz/l-m/original-6085-flip-black-2g-gsm-unlocked.jpg</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/asr/ead6fe7a-b014-404a-b7a8-d3e410eeffab.9508455e27941753ff9c7b933f714c2f.jpeg</t>
+  </si>
+  <si>
+    <t>https://cdn.vox-cdn.com/thumbor/vIRTRtd3Scn_UX9zWvVLlTNYMGI=/0x0:2040x1360/1920x0/filters:focal(0x0:2040x1360):no_upscale()/cdn.vox-cdn.com/uploads/chorus_asset/file/19168604/adiaconis_151022_3598_0006.jpg</t>
+  </si>
+  <si>
+    <t>https://www.soyacincau.com/wp-content/uploads/2019/09/190906-original-nokia-2720-fold.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1hHELaijrK1RjSsplq6xHmVXaO/2650-100-Original-Unlocked-Nokia-2650-Flip-1-2-inch-GSM-mobile-phone-2G-phone-with.jpg</t>
+  </si>
+  <si>
+    <t>http://images.flip-phone.biz/l-m/6131-black-unlocked-flip-mobile-phone-v-2002403861.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/tGUhJoy5gM4/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/32/b7/75/32b77513c52e01f28da1af562084e745.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/thumbs/images/a/(KGrHqN,!hME5oerQdINBOi!ehN66!~~/s-l225.jpg</t>
+  </si>
+  <si>
+    <t>https://c8.alamy.com/comp/M3Y1F6/old-nokia-7110-mobile-phone-with-flip-keypad-pictured-against-a-white-M3Y1F6.jpg</t>
+  </si>
+  <si>
+    <t>https://newslibre.com/wp-content/uploads/2019/09/Nokia-flip-phone.png</t>
+  </si>
+  <si>
+    <t>https://image.pushauction.com/0/0/240b0305-abcb-4357-b1c8-ccb8b43832ef/f686c1a1-ef17-4b75-9dd3-c046d2378c41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/f7/35/1d/f7351d374bbbb01da3391bc79c2761f2.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1PW4hLXXXXXbOXXXXq6xXFXXXK/Refurbished-3710f-font-b-Nokia-b-font-original-font-b-Flip-b-font-font-b-Phone.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/0e/92/2d/0e922d092b2e3ed0233e22a2b9be8399.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/e0/ce/da/e0cedae5c6dea4eb75ec64bd82f7a4a2--phone-shop-unlocked-gsm-phones.jpg</t>
+  </si>
+  <si>
+    <t>https://images.askmen.com/entertainment/galleries/nokia-3310-2000-4-149314366705.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1JwowJXXXXXcXXFXXq6xXFXXXh/3710-original-font-b-Nokia-b-font-font-b-Flip-b-font-3710-unlocked-Refurbished-cell.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2286/5823/products/product-image-1348221156_grande.jpg?v=1587662577</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/b0/15/df/b015dfe1d62aabec7d9101b37c11edb6.png</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/51/cf/96/51cf9652202c72323143ee9342d2c619.jpg</t>
+  </si>
+  <si>
+    <t>http://media-cache-ak0.pinimg.com/736x/9b/22/36/9b2236b6c9039f9210d2d9d9c2dc00e5.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/urgeio-versus/00-blog-pics/00-post_width/B000SZOOR2-nokia-7370-gold.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/91/a1/38/91a1387b86a43732bb424fe248796672.jpg</t>
+  </si>
+  <si>
+    <t>https://asset.conrad.com/media10/isa/160267/c1/-/cs/002201183PI08/Nokia+2720+Flip+mobiln%C3%AD+telefon+-+v%C3%A9%C4%8Dko+%C4%8Derven%C3%A1.jpg?align=center&amp;x=1000&amp;ex=1000&amp;y=1000&amp;ey=1000</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/b8/5a/6c/b85a6c74114f68cfb14637b27da69a02.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-1QLGPTy0p88/UH0sHC-R06I/AAAAAAAAAhA/aJ8IZn7bU48/s1600/Nokia%2B7110.jpg</t>
+  </si>
+  <si>
+    <t>https://img.class.posot.com.br/pt_br/2019/11/20/Celular-Flip-Nokia-2660-20191120014001.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/_HB6j7hxvCkk/TRit4qrjWRI/AAAAAAAAAI4/YptNKUuOxhI/s400/4702___image.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-EHMq5o4BUNA/UDd0pzQPSFI/AAAAAAAAAU4/8fFeYwriRz8/s1600/Old+Phone+NOKIA+5165+Image.jpg</t>
+  </si>
+  <si>
+    <t>https://r3.whistleout.com.au/public/images/phones/Nokia-2720-Flip/Nokia-2720-Flip-5-xl.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mobiledokan.co/wp-content/uploads/2019/09/Nokia-2720-Flip-Gray.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/b9/8b/60/b98b603678e88445145050884dbacf77.jpg</t>
+  </si>
+  <si>
+    <t>https://gadgetsrealm.com/wp-content/uploads/2021/05/Nokia-2720-V-Flip-1535x1536.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/HTB1KDEjIpXXXXcoXVXXq6xXFXXXz/2720-Cheapest-font-b-phone-b-font-Original-font-b-Nokia-b-font-2720-fold-Unlocked.jpg</t>
+  </si>
+  <si>
+    <t>flip nokia old</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="B381" sqref="B381"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,74 +5820,822 @@
         <v>347</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>427</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>427</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>427</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>427</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>427</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>427</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>427</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>427</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>427</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>427</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>427</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>427</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>427</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>427</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>427</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>427</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>427</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>427</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>427</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>427</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>427</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>427</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>427</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>427</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>427</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>427</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>427</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>427</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>427</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>427</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>427</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>427</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>427</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>427</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>427</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>427</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>427</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>427</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>427</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>427</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>427</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>427</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>427</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>427</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>427</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>427</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>427</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>427</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>427</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>427</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>427</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>427</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>427</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>427</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>427</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>427</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>427</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>427</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>427</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>427</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>427</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>427</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>427</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>427</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>427</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>427</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>427</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>427</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>427</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>427</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>427</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>427</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>427</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>427</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>427</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>427</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>427</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>427</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>427</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>427</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>427</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>427</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>427</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>427</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>427</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>427</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>427</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>427</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>427</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>427</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>427</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>427</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>427</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>427</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>427</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6022,8 +7007,104 @@
     <hyperlink ref="C375" r:id="rId365" xr:uid="{186D3034-5857-469D-AE29-AB1557B793CA}"/>
     <hyperlink ref="C376" r:id="rId366" xr:uid="{A135D253-150B-42F0-A662-2925FF6B2C9D}"/>
     <hyperlink ref="C377" r:id="rId367" xr:uid="{287D302C-8F95-46CB-910B-D9F18FFCD944}"/>
+    <hyperlink ref="C378" r:id="rId368" xr:uid="{9AAD4A48-0213-4B5B-93B4-8539AB738954}"/>
+    <hyperlink ref="C379" r:id="rId369" xr:uid="{D6BCBE81-570C-431A-8434-3D59910252F8}"/>
+    <hyperlink ref="C380" r:id="rId370" xr:uid="{6D601EA1-268F-45EA-986A-4B4C6A6C44A0}"/>
+    <hyperlink ref="C381" r:id="rId371" xr:uid="{49ADD6AA-7536-4174-AC0D-365D9041B3E9}"/>
+    <hyperlink ref="C382" r:id="rId372" xr:uid="{16EC3B46-5CC2-4CD4-A17A-5082358C78FD}"/>
+    <hyperlink ref="C383" r:id="rId373" xr:uid="{0A5E5DEB-53E2-465F-B3CB-147A4FB9BA65}"/>
+    <hyperlink ref="C384" r:id="rId374" xr:uid="{1FE35B5F-B7F1-4CF4-AEF9-687E06B7D6A0}"/>
+    <hyperlink ref="C385" r:id="rId375" xr:uid="{9E42CCD0-67B7-4801-AD3B-0F9B3316F2FA}"/>
+    <hyperlink ref="C386" r:id="rId376" xr:uid="{983DEEC8-991B-4157-AC59-AFAD0BE6465D}"/>
+    <hyperlink ref="C387" r:id="rId377" xr:uid="{4B7366A0-4421-4C05-947D-EAB515676FE0}"/>
+    <hyperlink ref="C388" r:id="rId378" xr:uid="{0901C2E3-5101-468C-8C00-3D4C91F15950}"/>
+    <hyperlink ref="C389" r:id="rId379" xr:uid="{CB0EECE3-21CB-4BC8-9286-CB56F4FFC6FB}"/>
+    <hyperlink ref="C390" r:id="rId380" xr:uid="{64CDFB84-93BD-4296-B5C3-1A99FC35ADE6}"/>
+    <hyperlink ref="C391" r:id="rId381" xr:uid="{51044E60-8F97-4366-8763-90CB013B09DC}"/>
+    <hyperlink ref="C392" r:id="rId382" xr:uid="{D61FD66C-B017-4D95-9D4A-94F5C3D541BD}"/>
+    <hyperlink ref="C393" r:id="rId383" xr:uid="{D249B890-075C-41C4-A9C8-D1AFB69A261D}"/>
+    <hyperlink ref="C394" r:id="rId384" xr:uid="{4FD4F5C3-989D-448D-B8E1-E20A62443767}"/>
+    <hyperlink ref="C395" r:id="rId385" xr:uid="{A086B37A-E1B1-49EE-85F6-07613829438F}"/>
+    <hyperlink ref="C396" r:id="rId386" xr:uid="{14CF5947-7A34-4320-882B-6A8EE43F560B}"/>
+    <hyperlink ref="C397" r:id="rId387" xr:uid="{BC234BB6-64BB-4C45-BF67-3C57B11D11D0}"/>
+    <hyperlink ref="C398" r:id="rId388" xr:uid="{247AFCEF-72A7-4014-8305-D7193CEAFDE4}"/>
+    <hyperlink ref="C399" r:id="rId389" xr:uid="{01AE2E30-35E9-4AF5-BE7A-0CED1BA310C7}"/>
+    <hyperlink ref="C400" r:id="rId390" xr:uid="{3F35D22B-73F6-490B-B5E2-25788DA7401D}"/>
+    <hyperlink ref="C401" r:id="rId391" xr:uid="{A316FAB2-B09B-4DA9-B538-1738E143C0C6}"/>
+    <hyperlink ref="C402" r:id="rId392" xr:uid="{54F454A9-8BC9-40A0-AEEF-B6FA317E2354}"/>
+    <hyperlink ref="C403" r:id="rId393" xr:uid="{6F7159E0-DD63-4963-B301-F42393A865AE}"/>
+    <hyperlink ref="C404" r:id="rId394" xr:uid="{EFCA0A39-3288-4A20-837E-A0F55EC59FDA}"/>
+    <hyperlink ref="C405" r:id="rId395" xr:uid="{316D8A23-49CA-4843-848E-76EF0791DE71}"/>
+    <hyperlink ref="C406" r:id="rId396" xr:uid="{627128DC-8B95-4986-85A6-F1B6F8FD55CD}"/>
+    <hyperlink ref="C407" r:id="rId397" xr:uid="{D9423D94-5DA2-4282-B46F-DB6434DC95A6}"/>
+    <hyperlink ref="C408" r:id="rId398" xr:uid="{1F057B2E-307F-456A-A8EB-37941D1F9245}"/>
+    <hyperlink ref="C409" r:id="rId399" xr:uid="{CA56B0B7-3CB4-4CFD-B2AD-F9E521DF1FA1}"/>
+    <hyperlink ref="C410" r:id="rId400" xr:uid="{54F14DDE-8765-413D-8E7E-3969F1617A6D}"/>
+    <hyperlink ref="C411" r:id="rId401" xr:uid="{F7A91C1B-86F8-4B98-B868-378AE41FFFFC}"/>
+    <hyperlink ref="C412" r:id="rId402" xr:uid="{3E94C8C6-97D3-4971-9563-45FDACFDB566}"/>
+    <hyperlink ref="C413" r:id="rId403" xr:uid="{5AF56835-BAC6-4E42-9B45-05EDBEC76DF7}"/>
+    <hyperlink ref="C415" r:id="rId404" xr:uid="{5410EC44-88CB-452A-BA77-4F3949ED5916}"/>
+    <hyperlink ref="C416" r:id="rId405" xr:uid="{A1C4B1BF-E634-4C38-93EB-575830360702}"/>
+    <hyperlink ref="C417" r:id="rId406" xr:uid="{10FF2F18-79A9-4E6B-89B8-B10DE43F195A}"/>
+    <hyperlink ref="C418" r:id="rId407" xr:uid="{8C5FE66A-F725-406C-B1DE-EF2E794269D3}"/>
+    <hyperlink ref="C419" r:id="rId408" xr:uid="{69F3D219-0BF2-4178-BD37-6E5E76F5955B}"/>
+    <hyperlink ref="C420" r:id="rId409" xr:uid="{34E9B063-CACE-435C-BA2D-B610091AE6DA}"/>
+    <hyperlink ref="C421" r:id="rId410" xr:uid="{EAE1F465-1630-4041-887F-7948905C72E7}"/>
+    <hyperlink ref="C422" r:id="rId411" xr:uid="{81BC580E-D889-4348-AFCD-4C39C143944D}"/>
+    <hyperlink ref="C423" r:id="rId412" xr:uid="{B94D2CA0-8B1A-40D9-9FDE-7369FF026DAB}"/>
+    <hyperlink ref="C424" r:id="rId413" xr:uid="{1B2321F0-AD15-4E9A-BB4F-080ED955F994}"/>
+    <hyperlink ref="C425" r:id="rId414" xr:uid="{95350729-5A41-43A9-9610-19CE00364F74}"/>
+    <hyperlink ref="C426" r:id="rId415" xr:uid="{F60D70E1-569D-49E2-8374-2FAB9B12DAEA}"/>
+    <hyperlink ref="C427" r:id="rId416" xr:uid="{0A7351FC-A347-468B-9AE0-8037F58933BD}"/>
+    <hyperlink ref="C428" r:id="rId417" xr:uid="{CC0864B6-3C3F-4AD3-B133-BFD622614AAA}"/>
+    <hyperlink ref="C429" r:id="rId418" xr:uid="{9525EEE2-76CB-4D5B-8A0B-EB23B170E0B0}"/>
+    <hyperlink ref="C430" r:id="rId419" xr:uid="{693A0867-438A-475D-B097-D4B3154C4633}"/>
+    <hyperlink ref="C431" r:id="rId420" xr:uid="{46A599C2-7DF3-496C-A76F-318DA6105204}"/>
+    <hyperlink ref="C432" r:id="rId421" xr:uid="{D1AD9998-80E2-466A-AD8B-853288A22184}"/>
+    <hyperlink ref="C433" r:id="rId422" xr:uid="{453BE984-1E6C-44F4-8CB9-74DFC924D498}"/>
+    <hyperlink ref="C434" r:id="rId423" xr:uid="{2DD02DB1-7DA2-4F94-8567-E883C8FDD057}"/>
+    <hyperlink ref="C435" r:id="rId424" xr:uid="{8E077978-3FBC-41DE-9988-790D6134EE85}"/>
+    <hyperlink ref="C436" r:id="rId425" xr:uid="{442787A3-BA8D-4708-A04A-3F9094981522}"/>
+    <hyperlink ref="C437" r:id="rId426" xr:uid="{E88DD7DA-B5E1-4D22-91D1-88BAEAE68591}"/>
+    <hyperlink ref="C438" r:id="rId427" xr:uid="{76A377BA-9275-4A95-93F8-29CE3F791DCA}"/>
+    <hyperlink ref="C439" r:id="rId428" xr:uid="{4026A6BF-2A70-4261-A06C-CD15D5E81487}"/>
+    <hyperlink ref="C440" r:id="rId429" xr:uid="{1F250C3D-9C40-4ECA-B440-7D8ACA322BA9}"/>
+    <hyperlink ref="C441" r:id="rId430" xr:uid="{30D695F0-F5F6-4AB0-907B-2FABE2AFE2DF}"/>
+    <hyperlink ref="C442" r:id="rId431" xr:uid="{096CE4D4-2E5F-4AF0-8EF3-3F1566BFA0BC}"/>
+    <hyperlink ref="C443" r:id="rId432" xr:uid="{AC9A6408-D477-433E-8817-79AE572ABC26}"/>
+    <hyperlink ref="C444" r:id="rId433" xr:uid="{08B50C62-992C-4166-A301-1F8115EF0B3A}"/>
+    <hyperlink ref="C445" r:id="rId434" xr:uid="{1A6C8A5F-1B76-4070-84FF-B3EB926A7B55}"/>
+    <hyperlink ref="C446" r:id="rId435" xr:uid="{793D2E2C-9E7E-4D83-9757-60C79E5BF73D}"/>
+    <hyperlink ref="C447" r:id="rId436" xr:uid="{F5F1D47D-B5E0-486A-947D-D9232FE5FD21}"/>
+    <hyperlink ref="C448" r:id="rId437" xr:uid="{48DE68E4-44F5-4F7C-84F9-972E2A9712A5}"/>
+    <hyperlink ref="C449" r:id="rId438" xr:uid="{C2E36759-1F34-42B3-BBFD-8F28B696DF26}"/>
+    <hyperlink ref="C450" r:id="rId439" xr:uid="{DBC2D163-3606-47AA-8F86-515433370845}"/>
+    <hyperlink ref="C451" r:id="rId440" xr:uid="{EF660983-BED5-40E2-8682-FC5F511AFC94}"/>
+    <hyperlink ref="C452" r:id="rId441" xr:uid="{94A5D635-707B-4F79-ADF3-30D1FD68A28D}"/>
+    <hyperlink ref="C453" r:id="rId442" xr:uid="{FFD8FF1F-0CCA-443E-A0E0-BF1D365BC856}"/>
+    <hyperlink ref="C454" r:id="rId443" xr:uid="{E5273BCE-E52A-469F-96B5-A55810700C29}"/>
+    <hyperlink ref="C455" r:id="rId444" xr:uid="{C1B3896E-744C-4ABA-9BAB-4F38B04A88CD}"/>
+    <hyperlink ref="C456" r:id="rId445" xr:uid="{5C30207A-40DE-43AC-8C13-997DF15A4AD4}"/>
+    <hyperlink ref="C457" r:id="rId446" xr:uid="{1AD84F28-2F99-4858-B52E-9236DC2679F0}"/>
+    <hyperlink ref="C458" r:id="rId447" xr:uid="{3C7569DC-B05D-42DA-B09C-D3ED7D89AF3A}"/>
+    <hyperlink ref="C459" r:id="rId448" xr:uid="{AED7CBCA-1395-4377-A454-5341E2B7F38B}"/>
+    <hyperlink ref="C460" r:id="rId449" xr:uid="{F2A039A1-BED4-44DA-ADE7-BC6196EE4EA4}"/>
+    <hyperlink ref="C461" r:id="rId450" xr:uid="{A742AAF7-3BA3-4092-B25F-E314640BCB7C}"/>
+    <hyperlink ref="C462" r:id="rId451" xr:uid="{36463CF9-12D4-408D-8CAA-F8FCCC828A9D}"/>
+    <hyperlink ref="C463" r:id="rId452" xr:uid="{AF70C790-E1D6-4C76-AFF8-60C170A63D22}"/>
+    <hyperlink ref="C464" r:id="rId453" xr:uid="{B090C4FC-4F28-4A9B-A934-DDCAF6CC37C9}"/>
+    <hyperlink ref="C465" r:id="rId454" xr:uid="{E5C8E255-8587-432E-979F-9614D00406DB}"/>
+    <hyperlink ref="C466" r:id="rId455" xr:uid="{26CC3482-68FC-4B56-A3D1-4C42A38998DB}"/>
+    <hyperlink ref="C467" r:id="rId456" xr:uid="{4A85754D-8068-4E78-A269-2A6972CE1321}"/>
+    <hyperlink ref="C468" r:id="rId457" xr:uid="{2977D620-8DDB-4FF5-90B6-BF534C74991F}"/>
+    <hyperlink ref="C469" r:id="rId458" xr:uid="{885C9BF3-DDD8-48E9-8315-F0308B8C6013}"/>
+    <hyperlink ref="C470" r:id="rId459" xr:uid="{4DEFD714-B026-4755-AE42-60CD4A9A134A}"/>
+    <hyperlink ref="C471" r:id="rId460" xr:uid="{BE5766C2-84D7-4E7C-B129-C3D92777D08E}"/>
+    <hyperlink ref="C472" r:id="rId461" xr:uid="{83FA39EC-894D-4FEF-8371-90809F7D7F3F}"/>
+    <hyperlink ref="C473" r:id="rId462" xr:uid="{CF541790-155B-4B73-81A5-DB0B9B1C16BB}"/>
+    <hyperlink ref="C474" r:id="rId463" xr:uid="{CB5AC22E-9EE1-4A0E-AC11-62D31E81001E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId368"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId464"/>
 </worksheet>
 </file>
--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00160711\Downloads\CNN-Nokia-vs-iPhone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/x00160711_mytudublin_ie/Documents/CNN-Nokia-vs-iPhone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948671DF-F9F8-4093-A6BD-31AEB0051B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9C0437E2-1F12-49E6-B1B8-20126D4F9241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="705" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="457">
   <si>
     <t>nokia</t>
   </si>
@@ -1309,6 +1310,93 @@
   </si>
   <si>
     <t>flip nokia old</t>
+  </si>
+  <si>
+    <t>old nokia with antenna</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAGQAZAMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAFBgAEBwMCAf/EADkQAAEDAwIEBAQEBQMFAAAAAAECAwQABRESIQYxQVETYXGBFCKRoQcjMkIVscHR8DOy8RYkUlOC/8QAGgEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGAP/EACcRAAIBAwQBAwUBAAAAAAAAAAABAgMRIQQSMUFRE2FxFCIjMoEF/9oADAMBAAIRAxEAPwDJZSC3JXpOMHKTXiS+qSsOrVheOddZ5CkKUg5UKoBelvCqGQenHCp9GrmBzrwl9bRUlJ+VW+K8OHLie1EoHDd3uI1MQ1hv/wBjnyJ+9EjFvCPNpcg1hzBIJ512S5kHBpqjfhzOW0VyJ0ZsJ/UEZXii8X8MAtoLTOdKs/8AgE5Hfei/TzfQF6imuzPl7oOegzVyNClONhSWF4PI4xTbF4QjpuxZaWt5LB0qJxhTnb2/n6VaaS7cJrjFlZaWy0rQqS6CoLI56B28zmq+lbDL775QMh22BKaiNTCllTY/M1bZPbNXl2G0BbnhykacDbxBVmfBkRNIuSI5YUdIfZQUFs8sqGSCM88YIHflS1PYXEeUQlOpB3QoZGR0NT6SI3saf4jAsjgZYQlwqST8ihhKUjJJP0roi7RJsZi5MkpZUNCkq2I9fcUlzliWSYEMR1XBaIzDIVnGMBW/XKjj0rX4/wCHVhYhtMuRda0NhK3PEUMkDc86paxLYnxL2lDOlthTgBOVAgAnNSmB/gbh1DpSkOpHYPKNSrqDsBeognYxJT5UNXUjBFGuG+ErvxEoGIwUxycF9wYT7d6dOEeEUmFFRcbN4pUoKdLhAx2yf6VrkZhiNHbjx2kNoSAAlA2FVlFU0nIIqm9tQEbhn8LrZbND09RlSRvv+lPoKY5MK2x3QgRkqwMZOcUWuLwZQEg6VK/d286Eyba9KzpdKNXff60WlJ3u8IVrPpK7KjgZLfiRIp05ynSnIUe58qEcSX6VCgqCWEoUXPCSsq/eQSNvIDUR5UUekfCkKM3KgcJbSANR5BP3FZN+JM92ZfxamHXHxG+VW+dbyt1Y+w9jTNSahG7BUYOpMdOGltM+ElTm2rClE5Uc8z5nrVbhXTaWTapqvAksZQsp21DkFpPUc8HzrKgqXb16SHmF5/dlJpht95u0yIIsVIkLbyrDq/FPkEpcKk9zgJG2aUVVPJobMD5xFLZuTPwLR1g/6jg3CEdycc8ch1PvSnKZtv8AC5Rkx1/xhx5xYkZJG6vlweQSBjIoTJ4mu8cpYmNpwnkgt+Hj0A2+gqu7ekyW1AoUleCcdDjzr0nGfZMbx6DvAFmcvPES5AUsR4YU63j9qiohIAPoT7VtsKAhln83K1EfMVH7UmfhquHb7ZHtyipuY/pcWlSMasjoe233rRVoBFTK8IpeRfFSbl4wVvBbP7RtttUrqAkbE/SvlCuy+1eCq5DU+oashJPKqdwXLRIjx4ZGgnC1g/MnsAKJ3CczCjqdcUkdEjufKlCTLddUpxtamkL5kH5le/SvetHlkx00pS2wXPLDkqbBaktonTEFxBysZ1accs45USEuM80HIrrbqTjBQQd6Qfi2oz6EPaUh0lIHmP8AD9K7/G29keKG0lzn2oEq0pMfhoIpYZ64nXFZdnTZP5ibc0VqBPN0/pT9cfUVmXA8P4yfMuDygtxA0t6hkqcXnKvYZPvRj8QuI/i4AgxgAFL8R0jqByH1Of8A5r3wS0yiysqYCVOgqU6UkH5idsjphOKp/pamT0+PgQqUPp7pO7YbnQogjIRICVtgBOHRqHvSjcuHYQc1xFLYO5DjJykf2p48J5e2Ae4zXL4Xwsq8AJPcD/OwrF09SdKN8gY3jwZ48q7RUZfLVyiIHJ4asDOfXp59fOh1jhi5XRlhIDaZL6Uc9kIzlX0GPrTZxw8xFtxSlCQ89+U2ANwOaz/tHuaVIQ0R3FJBUQnSkY9z9/5Vuaaq5w3zGYuUo+5onHN7RAmx4UCTpVHCXFuJIyk4+UbeW59qbuFuJXH24bE58LLkfxC7pPUjArJ+D7E7eLqgO/ME/mOlR1Z8q1O0QmWGnS2NKEOeGjvhIx/PNacYqauxCUvRxAdkBC0hSFBST1FfaBMuSWGwhtYSnoFbmpQnRfQZalWyhZLb0hzxpC1uuH9Slq5DsOwqhcrkiGQlwkBQwM8lUUuQLbDmlatSE5GOVKt9sa50Zfw0lS3VYI8Q+feszadErWwLvEt7VIQlCDl1CwUKBqhOu10gvORJqA2+0dK06gcHtsa8zeG7tGw4pLb3zaR4at898Gg7bCl+IpfylB3B586NGEbCs6lRO6wHeG2UXa+xWbg88228o6ltEBf6TgJzyycD3o1feEbjbOJERrSZDrrjPjtOMBKV6MgHOCkZBxnHPIPelOO+ppwOMLAUg5BG+Kd+EOK/Evrsu+yFLcMcMMEHAbTqyceu3XPrRJKV1bgSbbdyqq/XOzulq7MOLXjdSkFl0DuRjCh6Z9aINcTwrg+Etyi2rAw26dJ/sfY0T/Ee8wnLEhkeHKfkLwxqA1M45q7jt70pjhmO5w6LkbgxjwC6UmKAgEbFGoHVnO1LVKFKrHwUcFJZAN+uBuNzW6lZWyz+Wye++6vc5PpirNrivvxj8Iyt7QN9Azigjik50oTpHQZ71pnCrzNotCGiE+K4Naz1yaLJKEVFDlCjvK3As523tXCQWXVHwugAGx33POmgXtyLDdSxH1KZSF61nZxR3OD6mg1wafk2kLjJT4bz5HLGskhJ+u/0oqvhuKUBCXHWQcfK0TgHO5HrWtp9rppsw9SttVpnNN1uxH/cOR468n8spK8DPfI/z6D7QpFhhvFxc6W6X/EUFEIXvgnvzqU1amBGF9aXQsDnnnQ1T6WvEQoY0pyDXoOaSogbd6D3WTpSo8siuabOw6BVznOOMr/MxgqP32oTbW5FzufgQbeqY4Xi8pCf3JHQ9APXvXi6veDDI/ctVMX4e2S8eF/EIHwS0uco0hZBdAOeYBCTnlnng9qJTVlcU1E+gxxXcrVMscqHdIrkW6tIyxHeY0OocPLCuRR9sUvv8CT0wDJiy4sp5CAtcZBIVjGflPJR+lGrteIfGF/tduvUV63phKdQ+VuAurONm9WNhqA789qt8SMT+FLYiXZppkQUKShUea3rXGUobaVbZHTl9aqqko2Tw35ExM4JdtR4gYRf46ZENxtbaEOqISFn9Od9txj3r1x83brdepUK0PPiMClRjhwlpkkAlPM5OcH3x0pi4bNoRbm4F3tcdiYdS1icwW1v5OQpK1DOwPcUl3q2NN8SLt8NSiy46nQVHJAVjO/XG+/XFSluq77u1uOvklK7ODFgusiEJ7MJ1cYb604Oe5A5mvaLi8oJ1KOkedbFb5cWHATGbCQhtASnHl0rNblYZNxvk523sYi69RXyQDgZ39anepPI3VpujG6Y9Wq9RL7GtkaK0lgsry430QEJzt3GSKPOytLRQ0nUobascqSuE7Z/DrmphSwSmL4jisd1dPpT6ymKEEHGQgac8/PP3rTj9sUjAqJzm2gWYSnfnWvc96lW3X20uKTnYHbnUo2BZigH9KCeQNAbtMCnUIAyQavXJ4IiI0HFCF48VDpCl5SQlPVSumKwTs2/ACuilSZ6WUjUSRgDucU+RrbeuErMbhGuMaTGQsJejONK0tqJxlOee/UY70gXKI/BuC2ZI/OCQVjtnerCbjJeaQxKfeeZSdm1uEp+lNKKcUjMqt7ncd+HV2y6SpMm+Q4r8ya94hU8SkFGkAJbOcA5HrVS7wLsOI0W6xuvz40cNSmmXXEqDRzslSid9x360zQ+JbHeLGuHcFNaQ3gNLAQpnA2KP+RyHnlP4UN9hNvX6BETLjjLchouZUsJwSUjOcA8iKFnPXzwDXuNHEPEsKfZ37Zf2XWJWgksTQNSF74UhfXflisgQ6pl1DjZwtJyMU48T3xrityBEipWJCnQlBcAJQFbEauo6+1ONw4Rsi7C3GS0lC204Q4NlZ6kmvQUaUbWD0qTnldGdDiCQGcEal42GafeDXkTuGkKd0+Ol1SVjPvn71nUezyjJWiK0X0g4yP608cKcP3CIy89IWGi6P0BWcAUWnSTknbAtq9RLa43yHbe21/1JJW4pOgRUJPkSVUYMmLGYSnxPmK9sny/5qhBtgU7qyFK6561CyGn9DrecbknYdht6VoJxk7GVumo3Z0beQVOEBShq2yMY/v61K5svpcbBb+RIykJIxjBx/SpRP4CshBnKKk4VviidmitfDsyCMuKITk/tGrGB2r5UrBO1jyWL7aIkyFJfeQfGGXQ4D8wO4x6YHKs7WkBttQ/cMmpUo1LgS1aW45KUobZ2pp4FukpElUIOHwd3wASCFDA6Hl5cqlSiT/UT7AVukLRxI0+gJSr4hRAA2GSeX1p7m3GSqOpBXsQRX2pQKvKNDTfpIEcNqKbyiMP9JaCVD0Ix/On6PtDGO1SpTcX+NGNVX52W4iiF5HU71YubLa4yninDiSACK+VK9B/eRUSdN3A2SnYE1KlSnrmQz//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAGQAZAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAACAAEDBgcEBQj/xAA+EAACAgIABAAJCAgHAQAAAAABAgADBBEFEiExBgcTIkFRcXKxFDIzNJGhwdEjJEJSYWKBohZjc4Oy4fEV/8QAGAEAAwEBAAAAAAAAAAAAAAAAAAECAwT/xAAbEQEBAAMBAQEAAAAAAAAAAAAAAQIRMSETEv/aAAwDAQACEQMRAD8A0YiCRDgkTBsAwSJJqCRAIyIJElIlI8MvDazgfEf/AJ+DiV22qgayy1jyrvsAB36RybFuluPSCwmQ5HjI4+z+YcZB6lp/Mwa/GXx1GHlBiWD0g0kfAy/lkn9xffCHwowuBZ+HiZdVzHJP0i65axvWz/X1T0sbLx8tS2NatgU6JX0TGfCvwos8JWxrLsZMezHUqSjkhtkEd+3Y/bLl4v8AMBzr6GOvKJvqe5ELhdHL6vBkbSYiAwma0OooRHWKILJG1C1G1GkOoxEPUbUAAiYZ4xcgf4p4kzfssqAexRN1bQGydAd583cauOZxTIsutZudyTY3Use/5SsepyebXXl5au1FTMqnTcutCBbj5dCs11Fiqp0xYdjJ8bHV1YVO65G9IB+0PbIDXkcvKXs0x1osdE/xmiNIvNcbA2JbOF2tTfW9bEMCNGVGsFLQN/OOpbMEatrH8wmmJxstRLUVse5UExmEOgfq9fuj4RmE5WqIiKORFEaxxRyI0aSjR4xgDHvPmfjNhu4xlsOzZFjf3GfSuQ4qotsPZEZvsE+Z82i9bvLLUzq4766b9MrC+lUCEqwYHqO07KLKyr1OSQwOm183QJ39081rbE7169oIgrksH5gp7EdJrUbFkUmrNqXfMp0ysOgYeuWbB+nr94fGVjyzZGTSxDDkCr19Q6CWjAG76gf3wPvlY8EbNQP1ev3RGaFSNUoD+6IzzlrVEYojFEayxjHjGUkMURiiDg4/b5HgXEbP3caz/iZg2PmV181WRQl9JHzS/KQfR5wm2eGtnkvBbiJ9dYX7WA/GYeRbShyBUXRiye066/8AscJ04tfBuT9de9bPKnkVDzLydNAk9/TPKzhwurJC42Rl20cnVmRecN6tdBr850ZuTZxZaDVjlPJjkJDbLbPSRMTUvyX5Ghvo2XK8rcxPrPplTcFcDovPTZWpWssAOc9W6yw8O+s0n/MX4yuPVZVkoLUKNseaR2lj4d9Zp99fjNceFG01/RJ7ogNCr+iT3RBeczRGYoj3igFkjRExiZSTHvGijRBWvGHYU8GLVHQvag+w7/CZBSuEbEazMurclucKvTuNdR1133NU8ZlnLwbHUem8sfYEb8SJkRyrak0Kq3rKuV5tbX1kddg9I5Ago8gyrVbkGl2s6vzeYB6yPR/3JEqx1yc5a+IBVAHk351IuOhsEn7J0YWU1nDMPDbD8rVVfzK4sILnR6djrofuEhysg5vFOIZAxFsVj5yCwaTWh0PToNd/4yvScXEzviKbyvlLDk2+gP6dO89nh31mn31+Mr9rizNUpUtQ5l81TsT3+H/WavfX4zTHhTraq/ok90QHMeo/oU90QHM52gSYoBMaAWYmMTEYMpJyY0YmDEFH8aVusTGr9auf7kH5zJrV3vpNe8Y3BuIcTxse/htPyhqtrZSrAMQdHa77612ma5nBuLofO4NnoP8AS38JU0VeE5K6ClgFOwAe05yzDnAdgHBDdfnb9c7cjBzkJ8pgZa+2hvynDYjofPrsX3kIlzRGpGrqx/MJZMDpkU++PjK7iI1uQgQb02yfVLJw6p3yqURSWLjoB/GVvQjZKz+hT2CA5ir2KlB7hRBcznaAJigmKAWgxooo0haC0UUABpC3XcUUiqR630M57Kqm3zVI3tURRQDlbhuBaTz4WOf9oQauG4OPZz0YlNbetUAiijgdB7SF4opQRxRRQD//2Q==</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRcSbASl2X3FodycF3gcXtXzACjwCw-34fudB6KWVvJ4OpRAomg&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhIQEhAVEBUSFRYVEBUXFRUVFhUVFhUXFhUXFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGBAPGi0fHR0rLS0tKystLS0rLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0rLS0tLS0tLSsrLSstLS0tLf/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgECAwQFCAf/xABDEAACAQIDBAUIBQsEAwAAAAAAAQIDEQQSIQUxQVEGYXGRsQcTIjJSgaHBJEJystEUFSMzNGJzgpKi8GPS4fFDU7P/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EAB8RAQEBAAIDAAMBAAAAAAAAAAABEQISITFBA1FxIv/aAAwDAQACEQMRAD8A+4gAAAAAAAAAAAAAAAAAADhdIelFHCSjCd5TksyitLR3Xb4ap9xodH+ndDE1lh8kqU5XyXeaLsrtXsrO3UBLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfJPKZUvjkvZpRXi/mRjoziMm0MLK/wD5Yp9jdn4nd8pVS20Kn2IL+1EOwNa2KoPlUi/7kKj0sCylO6uXhQAAAAAAAAAAAAAAAAAAADV2njY0aU6st0Fe3N7kve7L3gYdp7UjS9FLPNq6je1lzk/qr4vgiL4nbNed81Zw5RppRS/md5Pt0OVitqNt5pXk9ZtcZPf7luXUkcbaW3IUo5pPsXFvkdJJPbleVvp28VJy9arVfbVqf7jS83Fa6vtlJ+LIPiulWIm/QtTXUrvvZr09v4pb55lxTS8UO8/R1qb1cU0/RnKFvZnKPxTNzB7drwayYqouqVqse6d38SCU9rec/dkt8fmuozrGW1vbnyNbKmWO50rr1alX8pcIScoqLcUrPKrX9Ld2EShiZefptx3STtaPB/ukhwW0ozi4KaldcGnZo5Nankr0mvrTT7LPVJ9vyOfKT46cb+3obBS0Nk0sA9EbpK0AAgAAAAAAAAAAAAAAAAEJ8pe0skKVFP1m6kuyOkU/fK/8pNj475Tsfmxs43/Vwpw+Dm//AKLuLErjVMVxIxj6zq1W36sdI/Nm7UrmPDYbe+bbXv1Knpip0S/zRsqmZPMrgml1u769WMNc2rh2rSW9aopShCrWUarappLLG9k27b37/gdung7nEr04ybTukm7NWv8A5vJYsrPj8NShKEqF4S5XfBJ8W+du/kdBLNOKe+nKFT3N+bn8fN/E4+DpxhLPeU5L1c1rL3cTo7Gq3xNKPt5oPtkrx/uUST15XlZb4eg8BuRvHP2fuR0C0AAQAAAAAAAAAAAAAAAADz30wxHnMdipf600v5XlXwiehDzVjK+epUn7U5vvk38yxK1qrNzZtaF8s9N+SXK+9Pq6zQrVYre0vea8sZHheXYn47hqYmUdnX3am7Q2RxdkQOjtarD1Lx7Wrd2pfW21iZJp1mk96St4Wua7xnrUo6RYqlTtTp2lUs1m09BP1tebstO8izZouUvbfuSRY0/al3mLy1uccdDMVw1XLVpTX1KkX3SRzHHrfezLGV09NUlbvGrj09supmjGXNJ96udNHD6O1c1ClLnCL+CO5E1RUAGQAAAAAAAAAAAAAAABjxErQk+UW/geWKsm7ek0rbk7c99j1FtJ2pVXypz+6zy29y7F4AYci5fj3g28NgZVFeJnWxahjY1jm3NvZs6KlJ1oucVB5YptNyzR4rd6ObfpexsfmSpz+H/Jjq7Gqf5/2O0MrftgVkUZRnaS87KpHEJuN9cqhopW56GJvBXjbNa8fOX85e3mlfJb/Uve/VbQ1Kexqn+f9mR7Eqf4v+R2hlWY+OG83FUpSdSNlNuMkql4+k1f1bSvppdNcUc+nul2fgbeK2ZOEXJ7kalLj2PwLLqV6K6F1L4PDPnSh4EnpshnQGpfBYb+HHwJdSkdPjLYBRFTKgAAAAAAAAAAAAAAANTa36it/Dn91nlye5diPUe1/wBRW/hT+4zy1PcuxCiSdGIXg/tM73mTidEvUf2mSNI8vP26T01nRNedPU36m4wLeY1dYXS0LoxL6k9SxzBrndIoLzE/d95EQpcexkp6R1P0E/d95EToS0l1L5o9H4vTHJ958njvgqH2V4ImNFkK8nMvoND7K8ETOiz0RluRZcWQLzNAAEAAAAAAAAAAAAABqbV/U1v4c/us8ty9Vdh6m2iv0VX+HP7rPLMl6KAkfRCXoyX73yRJrkQ6KV1HOm0tU9XYk/5VD2o96PL+SeW56Zar0NeYqYmPtLvRhqYuPtLvRjK0ukkMprzxMFvmu9FqxcP/AGR70XKmtDpQv0L7Y+JFcPukSXpNiYOklGcZNyV0mm7JPkR6kvRb5/I9H4vTHJ9v8nD+hUez5ImlBkJ8m/7FR7PwJrQO8RvQZkMNMyozRUAEAAAAAAAAAAAAABgxq/Rz+xLwZ5Zp2sr7uJ6oxXqS+y/A8rRfz8QLnRhf1mv5V/uKfkd/V9Lq49zJLsDzCoNypQnJNqeaEZNtv0VeS3arqLNsbFhkdWlHzbWs6ad4tcXHk+rd2GdgjbwPtSiupek/hp8SjwtPdmd+xfiSfothaFSM5Tpqcov63pLLZNWg9OfC5IM1JKypJLkqSS7spdP6+ZT2fF7ppdqa+KLqezWtZSilws1JvssTPpDhKCoyqKlGEtMrjHI7t8UrJ+8jezKUKlVQqSyw4u9s0tLRvwT5jRpunTX1n77L8S+ra2isrdpOKdGNN2jRhTp7tIrM2le7e9rhd6kHqu6k1pe779Sy6Ps3k3/YqPYTSiQrybfsNHsZNKTNQb1JmZGCkZ0SioAIAAAAAAAAAAAAADHWWj7H4HlW2/tfieq5nlWovSmuUpfeYGXD13B3TtwfG65NPejpS21PI4J04q1rpNadUbHHaKEshrsdGcdGlOed2i4xs+F03v5ElW16G/zke9EDjJrc2i9Vpc/giXhqzljv9JNpQqwjGnLNaScrbra8SNw3Lr8WZpTb3yb7Xc7/AESxdOLlBqMZt3pzaV2rL0U963XsuZc6xN1wq0682qV5rKrWd0+q6fUY3FpNPek0+0k3SSSdNVXHJUuoKSbTe/N2x00v/wBxrg+xjilfYPJs/oVH3+JNKLIT5N39Co+/xJpRZuK36TNiJq0TZiKLwAZAAAAAAAAAAAAABZI8s4pWqVeqpNf3M9TM8w4qinia0ZblXqXXNKo7pddiizB7OrVtaVGdRe0ovL/U9LlmLwdWi15ynOnfdmi0n2PcfQaVe7g6UkoKnJJJ+jmbjl9HhZJ8OJg2piF5ucazi4yTSje7k/q2Vl6XWc+69Xz260693G/YdGGwsU1mWGqW60ov+ltP4G30bVKlWzyadk1F8Iy01vw0ur9ZI8POr6clJwzP0VKXnElrqnd2butNErLtd5csSTUDqwlGThOMoSW+Mk4vuZfhsPOpLJThKpLfaKbt1trd2skPSWrCcYxlKLnF3zLgrbu1vh7zL0cr040JUl68m27NRcr7mndblwv4jt40zy5eL2bjci85SnKMdd8JPui22clS3++/V2onsZ1YwgnVStC0m9deLu+RE+kE6cqkqkHvVvtNLWQ48tWx9O8m/wCxUff4k0oohfk3/YqXv8SaUGdIjepGzE1KRtRAyAoipkAAAAAAAAAAAAKMC2R5h208uJxPVXq/fkenJHm7a8Usbic31cRVa5aVG9VyKNnZnRzFVEpZ40MyvFTnJTkueWKbXvMe1uj+JopzlarFetKEm2lzakk7HZo7Qozm6rxDhJwlBRllWXNl9WXJWvv4l1fa1GnCSjUdWTVtZZld723uOXa61nhDsPSlUkqdKLnOW5LTTi23uR3qHRWtJNLE0br1oRnOVuqVlpx7jW2Lj4UKueztZxfOzad13bjtYfHUbTviIpTtorwSs228sm3md9X8DXK2JIi209m1cPJRqx0fqyi80Xz14PtLtmbKq4jM4ZYQj69ScssF4tvidXbO06U4KlG80ndt727NLf27zFs7aFNUlQnJwUZ5k7Nq/KaTT36p9S5DbieNbNfodWy3VenN8nnS9z1IzjKMqblCcXGS3r8HxRNZbTw8Yq+InJqKWk5Nuytey46EW21jI1LtXelk3q7K+98Xqxxtq2Y+o+TtfQqPY/EmdAh3k/X0Kh9l+LJhQOkRv0jZiatJmzFgZEVLUXEFQUKkAFLgCoAAAAAUZUtkwLJM82dKU1jsWkrt4iokuty0PSMzzv0plk2jjHa/6eb61qmmjVStzBdGaayxxNacZSTdoRShFJXd5yTvbnZLUptToxCMXLD1/ONXeSWVt232cba6citLpHSetWnJtpRutU0nf1W9Nd9r3sizFdIYWcaNLK39ZpXWlvRS42Zy/wBa34xxdl4GeIqKlC0eM5S3RS3uy370SHD9H8G3ODr1c0HaT/Rxjmu47rO2qe99ZyNnbRlSnnjDq3PVcn3LU6dDbNGOb9BO8tGnaS3t2WZ6K8pcOJeWszHO27sV0LTp1PO027N6ZovrtoyzY+yVVj52rN06ebJFRSc5ytffLSK62bG0tsOosqpZIrVK3G1ru3JcDDgdr+bg6U6eenJ3lG9uV/c+KZfOHjXal0bwUoKUK9RZknFudPirq8XFd2hE9q4KVGUoNqateM1ua1XuejJHW6TUWtKLb4XUUtN2qbZHtqY91L6JcEkrJJborqJx36tx9a6Ar6Fh/s/NktooinQZfQ8P9heJLKB0iN2kbETXpmeBRlRUsTLrkFwKIqQALlALkVKIXIKgoAAYuWyZRZM879O4W2ljf4t++KZ6Hkzz95QlbaeL65QffTiWjX2PsWNSMalasqFObtDTNOfYt0epvuM+1tjRoJzpVXUipKMlKGV68YtaNamKG2oZIQlTzebtk1atbRcDX2htidayfoxW6K+b4mPOnjGTZOCliKqhKbhBJyla2ZpWVk3u3kgwNHBSvH8lg45b3vOc16WVKevrO17LdZkVw+NlCzi9VufJ/wCcDfXSaovqRfXqu9DlLSYz7e2TTglVw+aCcssoPNbde8c2pzNmYJ15yjKfm4Qi5TaipSaXCKdlfrKYvbFWerduCtwvvt+O81MLjJU5KcHZrua4p80WS4n13MbsCgsqp4mWeV8sJxTUrO3rR3bt+u4jOLpuOaMlZq6aZ2vz+nJTdBZ0rKWbTjuVutnG2linUbk971ZJv1bj7N0L/ZMP/DiSmiyL9EtMNQX+nHwJNRNwb9I2Is1aRsxZRkTLrliKoC8XLbi5BUFLlQL0CiYuQVBS5RsYKtlkmGyyTLgtmz4P5ToW2lX/AHo05f2JfI+6TZ8a8sOClDFU8Rb0KlNQzcFODejfY0KIPme5LtLlB8ZW7F82WwkuaXaXNfvR/qj+JlDKubfv/AtlGPX3srk/ej/VH8S2a61/VH8QKOK6+9lmXrfw/Ausvaj/AFIt09qPegLWn2/D4GKq9DM5xWuZN8EvmWYSjKtVhSgsznJLTlfV9gH2/o6rUKK5U4+CJJh2cPZ1PLGMfZSXcjt4dmlbtM2Is1qTM8WUZky5MxouQFyZUtuLhFblTHcFVlTKtllxcguuUuUKXANlkmXFsgMUmcvbOAp16cqVWnGpCW+LV/euT6zpSNeuhR8o2v0FwsG3CM11Z5WI7iOjdKO6L/qZ9Y2rRvci+MwvUcOWxuSIK9h0/Zfeyj2JS9l97JRWw3Ua8sOZ7VrrEe/MtL2X3sfmWn7PxZ3vNBUidqvSOLT2HSb9X4smXRfZFOjrCCTe9217zTweG13Em2dSska422pZI6+FR0qDOfh0dCgdo5t2BsQZr0jPE0jKmXXMdytyoyXKXLbhsCtwW+4BWVMAEFGUbAKKlsgCDDIwVQCVXIxxHsXHUA5cm45laKNacUAcq3GCUStOKAMNOjhYo7eFWhUHbgxydGgb9EA7RzrbpvQzRYBqMrkX3AKjLSjc2owXIoDNVeADI//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUSFRYVFRYWGRgYGhocGhocGhwaHBoaGhkcHBgaHhgcIy4lIR8sJBoaJzgmKzAxNTY1HCQ7TjszQC40NTEBDAwMEA8QHhISGjQhJSs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTE0MTQ0NDQxMTQ0NDQxNDQ0ND8/PzQ0NP/AABEIAPIA0QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcBAgj/xAA5EAACAQIEBAQEAwgDAAMAAAABAgADEQQSITEFQVFhBiJxgRMykaEUQlIHI2JyscHR8IKS4aLC8f/EABgBAQEBAQEAAAAAAAAAAAAAAAACAQME/8QAIBEBAQACAgMAAwEAAAAAAAAAAAECESExAxJBMlFhIv/aAAwDAQACEQMRAD8A7NERAREQEREBERAREQEREBETDiK6opZmCqNyYGWeSAxPFar6UgEH6nBLH+WmDp6sfaQPEMDiKlz+MxAPY5F/6paZam5Sd1fbz2ca4hxTimCBZarVANgxzg/9tb+8lfDH7VErEJiFyvsQBla/ZSbN7WPaJdq4dRiamCxtOsoam6sp5jkehHI9jrNuaEREBMVSoFBLEAAXJJsABuSZkJlN49xRarsga1Cib1G5PUG1Puq8+4A5QLThcZTqi9N0cc8rBrfQzan57wfFFfGO9C9Elrq1PQA87qNLGdo8McUbE0czgB1bK+XYkAEMOxBGnW8M2nIiIaREQEREBERAREQEREBETTx2LWkuY6k6Ko3Y9B/nkIHmNxy0hrcsdFUbse3bqeUhCWqNmc3I2A+VOyjmf4jr6bTEHZ2LE3J0JG1v0L/CPvMrPaHDLPfTISBNfEEMJhq15hatG3P2aeIJW4PmX7+/WVDxH4Sp4gF6Xlfe45+olzqNeadRLajSRVY5WOc8H8TYvhtUJVZlI2a2YFejD8y/cTtvhjxVSxqgaLUtfLe4YfqRvzD7iUTivDaWJQq6g/1B6g8jKrhOFYjBP5GDUwbrqVZTyZTa1/fWbK7TLb9FRKf4M8WDF/uapArKL9A4G5A/UOY95aMTiVpqzuQFQEsegEpaG8UcWNJFp0zarVuFP6UHz1PYHTuROTeM+MrTQYaltsbHU9Tr/WS/HeMsvxcTV0appT1+RBoqdjbW43JM59wxXxVXO19/9EJtT3hrhppqGylnYgAcyzaAD6zuXAuHfhqKU92GrHq51Y/e3oBKf4D4Tnf4zDyUvKn8VQjzH0UG3qe06GJpj+yJ7ExRERAREQEREBERARE8MDDiK601ZmNlUXJlTr4lqzljpyt+hdwv8x5n/Ey8bx/xWCIbqp9iw0Lei7Dv7TXSyCw/9vzmRw8mfyNrMFE08RiO8xYjFSKxmKKqW37Ra5Tm6b3xLwzSpvxaqGFyBmNgOp6faS2C4iX0beTtVwsSjPNXEVLT3NNbEtpFMWEYgXsZsYZRULI3qJC1KmskeEVM1ZLd/sJk7XlNRA+IKL4SolemSrIwYEfqU35cjsR0lj4x4tq4vDU/ItME5nXMWz5LHLsMqm9xvsJl8VYUPSbsR/W395zbj+IanV+GDoEQ29R/5OmlYZbj58RcYfFVAi3CC10PqNxtLL4c4KWZKdI2dyNDqFG7sewFzv0kLwXhYqDM4PUHUEehnafBPh4YWmKj5mquu7WuqE3VLAAX2ue3aavtYOHYJaFNaaDyoAB1PUnuTcn1m5ETFEREBERAREQEREBERA8kL4g4j8Jcimztz/Sv5m/sO/pJTE11pqzsbKoJJ9Jx39oPiVqaNY2q1rhR+hB/gaepJmJt+RWfFPi2oMQBh3yrRNrg6MdiLA6qNvW8nuB+O0rjJWsj9fyn/B/3ScwXDOULqrFFNi1tAe814jLhjZp3Rq2bUGfNRAwtOYcC8QV8Kqlld6BOXUGwI1IVjpcA3y/0nReGcSp4hA9Nrjn1U9CORmWONwuNa+FNOpdgud1qGnSB2z5SHI62DW7azLhcKUdcPdqr2dqjqvkQXuqk7jRlA5zNiqAazrlWsiuKTNfKrPoWyjQm19e5k1wpkoUkQvmIHma1i7n5nI6mZw25NOqmXTtIvidfKpN7AAknooF2Mk8bXDMW5cpA44ipmpscoqIyZuhYeU/W0MwiFrGoWXzAfKzILEgHKQrkjzN5kuFNhnA13lv4El6zEbILSp8G4RXpOz4hlshNgCCWZTdbm18oIvYm9wNLS6+HqeWmXO7m/tymycunmuPrwyccbyW6so+9/wC05txbBmrjX00AVfoJf+MVbtTX+It9Bb/7SF4Xw5q9chR56jmx5Ac2PYDX6TonxzUWLwRwMVWDsP3dIg9mfdR3A0J9p02afDcCmHprTQeVR7k7lj3JuZuyXaTRERDSJ5ED2IiAiIgIiICeGeyP4vjhQps+52UdWOw/uewMCu+LuLKt1LAJTGZzfmBcL7DzHvbpOAcQxT4/EEjdzlUfpUHT/Jlu/aHxghFohrtUJZzzK3N/qfsJqeAeFjzYh7AAGxOwUDzN/vSTllqbct6m6smFw1PCU6NAJnaocuUWuR+dz21le8TeC7EvQFuZTkf5eh7bS8cOw7MzVn3Y/ux+hLWFr7FtzN90BFjPPMrLuOczsrmfhjitKon4HGjKgKCmLBVDg1czOSRZj8QG+xNNAbCaXEOGV+HFMTRFWmjHKUq2DowLDI6iwdTkYhgBcC9hzt3ibwqmIBYeVxswH2YcxKpgeNYjBscNiGqrSYBSUNmVc6ZmRt2BRClr7N7TvjlMnbHKZLHwLxCmKFtFcboTv3XqJNh5z/xJw2lSRMbhqotUquoWmCqU7KGyqxOe6iwOZRe9xpJfw74lWuMj2FQewfuO/abYjLD9LHiq9hK7j61zN7GV5CMS7gcyZFX48dcpuhXeqiIfmdgt+ZAFiT9hLgLIiqOQtKxwRFUvVY2SihF+XlGZ2+x+k2qPHPi0mqZCoBtYm9yALj2Y5fUGXi45z2y1Oo18fic1ZjyUZR7an7m3tOg+C+Cfh6fxHFqlQDQ7omhC+vM97DlKf4C4T+IxBdxdKQDHo1Qm63HS4LewnWRLrtjjqPYiJiyIiAiIgIiICIiAiIgeSg+KOJfEqlQfJTuoPVvzt7fL7GWfxHxH8PRJU+dvKn8x5+wBPt3nK+MYr4dCo19kIB53bT66zLUZX45/xB2xmMYLrncKvZBz+ms6bgcEqqmHUAoFBqa8hbItgeZAPSwMpHgakimtiG1yCwXnrrYDqdFHvOj4EU6hNZCGJ8ubpYDyg9v6zj5Mt3Tl5LzpvTS4rizSQsqlj2F7AAlibdAD6mw5zcnlr6Hac3ONTA45aw2IPNT6kaHY2tY9DpNHjvAqeJUqy35g8weoM+MZw34biohcqoPlBAIOVgtmtoov00zMbzb4LjmrISw1WwLWsGNtTY7emu47xP2dcxyPjvB62EORiTTJJU65b2tqNg1tJDIxUgg2I1HYjad7x/DkrIyOoIO4M5P4o8LvhGLLdqR5817N/md8c98V3w8ky4r64fxs1AFqHzcj+r/2S+ETd+fyr/MdPsJSsDhGquqLuxtfpzJ9gCfadJ4ThgXFvkp7d2tuZVx5Xll6xN4agtOiKZAII8wPP2kJxKoq5aaWCr5iB1Oo/ufpJPH4sKCx5f15D6z48FcIOMxILi6Ic9TodfInoSPopmxywl+ujeCeFfhsMgYWep5363Pyj2W33ljiJruREQEREBERAREQEREBPDPZEeJOI/h6DMD528qfzNz9hc+0Cl+KuJ/GrsAfJTui9C1/O310/wCMq/EmpuBQqZrVQwuAfLlsQ1xtZitupsOc2mMh+K1AtemW+UU6gYdQ700I/wDlf2kzly7y2qIatw3EEA6qR6VFvdTbobeoPpLvwTjAK56JJGmemTmKgDUi+/5jm6ixAJkNxGiMXTNMm9Wlqj/rQ7X9ef8AEL85UcHi3oPmQlWU+hB2N/6WmZYzJVx9ndsLiBURXW9m6+tj6jvz3maVbwr4oTEqEayONMuwNv0j+0sz1ALXIFyAO5Ow9Zwss7ebKWXVfc8RAugAGpOnUm5P1gGfUxL5rVAilmICqCSToLDuZznxXxeoKDLUPnrsSqaEU0G+o3vpLbx7EIwKPfIgD1DewsNUU33BsSR2HWctxFZuIYknUAn/AKIu/wBvuZ0wx3duvix3Uj4awmRDVI8z+RB2v5m9zp6A9ZdMNTFJAvM6n1OsjeF0QzZgLIgyoPTSZuI4vKCeewHc/wC39p1nbpl/qtPiNcuwQXIB9SWOwtz327zsHgzgn4PDqrD94/mqdmI0T0UafU85Rf2ccC+PW/EOLpSPlv8AmqaEey3zepWdalLkfUREKIiICIiAiIgIiICIiB5Od+MMf8WuUB8tK6joXNs59tB7NLjx3H/h6LMLZj5UHVjt7Df2nNmX1PU8yeZ9ZNqMstTTTfpzle8TUXIVkQsArK9tSoLIwNhqR5CPeMOqOa6uP3xdyhyjMSrNoH3UgAZRse95m4VjzWp3J86GzW0uRs1uVxr9Y65TjFb4DUd8QpUEqobMeQQjW/uBN3xJwjOTUp2L/mUbsP1AdRzHObnHOMvrTRjYfO19j+lR178ryJyKtH4wVVs2XOtRmdXIJXOhbQGxsSLGbrd26K7SqMhDKSCNRLzwnxIuIVaWIYhl+V7210+a3O1xm5ZjNQYGljKa1T5KjDzOouCwNjmTbluLH1kFjuC1aHmsGUfnXUDpcbr7iZZMmZYzLt1vhnE7kU3TI35barbXKLj+G1jsbHoZuY/GfCAsLsxsBe3/AOntz7amco4N4hyAU64zpyO7J1t2PMdztLNxTxGtLD+V1qFrimAQcq2spOgOgte/P7crhZdOF8dl4RPjLixA/DqxYk5qjdSTfL2HbkLCY+C4A00C2/eVbX6qvJf7n1HSafB8CWPx6utySAfzNfVj2v8AU+8tXC6Vgarbnb0nSTU1Hb8cW2QKaBByEi6FJsTWVEGZmbKg6k7n00JPZTPeI4j8o3b7DmZ0L9mfh/IhxVQeZxlpj9KbM3/Kw9h3mwk1wuXBuGphaKUU2UWJ5s27Me5NzJCIlLIiICIiAiIgIiICIiB5E9kR4h4h8Ckcp87+VOxI1b0UXPsIFZ8SY741YqD5Kd1Hd/zt7Wyj0MpFPH1XpDEBkAZjlplbZgAGID5r5rEa2y3Nu8nKuJSmQhdQ3IFgCfY6mV3Gh8KHVkZ8KwOXLmJpXJaxVSDluTrppaxBElxl3lyw1qAqsmKoAM4IZqbHLnKaWvycWsbnWw94vw3hqqPXZ6boGtoVIF7na+9gTNjwniGJr+VhTNQshPU6Zb9bAXk44mW64V1VJfCuanwrFnLEAD8xNyLev3vaQ9e9jYmx310Nuo9ZdMdgmrVkCMVdRdWG6sGup9jKtx2hiEqv+ILMxOrk5g3fNsf6ysbuKbuDrlMOguQGLXI3ALNqL6XsPvPpuIqvyVXJ6Pa/s62+4haINJVP6R9bb/WaOG4eyk/ui7A6EkCnbqSbAnsSJk1e219PSp1zpZHPS1j3sND7WmfhvBQGzVCpsdFU3vbmdNvv/WfeF4cA2apldr3yj5Qe5Fs3oNPWSeew/wB3i3XTWzTpmo4QbDfoANhJLF1go6Ko+wmPB0vhpc/M2pkdinNRwi3Oo0HNj8qj6g+pESOfd38S/hLgbY/EAMP3Y81Q9EB0Qdzt7seU7lSphQAAAAAABsANgJA+DuBjBYdVI/ePZqh/iI+W/RdvqecsUpcIiIaREQEREBERAREQERED5MoHGcf8eqzjVUuqdwD5m9yPoBLJ4n4gadPIps9S6r1C/nb2BA9WE55Vxbl3p0kQimgZizEaWBsAqk2AK3PK/aTXPO28RqUMMj/iads9d6h8jZQjUzYqxzC5GWyjUakd7R3h7iDE1KDFs1I+W5ObIdLEnW6nT0tNnEU6eNW93p1aZykixZDuARsy8wQRvuNRNfgvhk0qj1mxAdypAXKy57m7XYk66RbNJ3PXVTTYtspRjmQ7qdfp0lXwjPVp1HVqifDXO7E3UAm2UKVy6bWLKTbmdJJ1+JIhYNmXKbMcjFVNr2LgFRuNzIam9U1HbCgVaYdarU7Z1Z1BBYIdDuTpr66RFYzTJwTHm7oxvVOucbMnVehudRNjEVQisxNgBc+0q2I4or4kPSTIpYeQG/zWDgdjc2HYS0YhVdSp1BFj6TLNK+o1sUbXyJ6Z0zX6WOl+154mIVxpy0KnQg9wdpqLi3woam4z0GuQLKVLm1s1xcaDkQeYmlRKDEEUWLIdib3y5b2N+hsLzNOupqWVL3m5w2j8R7n5U195pBuntJpE+FTC/mOpmRzzvyfWPiGKtrp0A6/+S0/sw8PfEf8AFVAStMkU7/mqfmb/AI6+57So8G4c2PxC0k0B/N+hBqzn/f0zvvD8GlCmlKmuVEUKo7D+86SMkbcRE1RERAREQEREBERAREQPJ8swGpn1K54v4hkpikp81W4PZB8599F9zMrLdcq5xLHfHqPUv5flS/JBsf8Akbn3HSVziVZ8M5qhc9J8vxlGjeUW1cAsEIy3GguoB3nuMoJUxKU6rIqfDZlzi6ZhfNddidEA9e8iuD8Vy1vg3ORwWp3JORh8yAnXKRcjpqJLjJfyaOGx1JMavwHL06qEG/zLYsVDW3It9GEs7mZKKpTYsKVK7aMciAkd2ABkJWxLtWalSYgggKmTOS2TOb2YHLY8tdCYvJv2rWo1FpVa4quScrtTTM6F2qM2SzKCN/LZtNb62sYoV3wWIykhMxAcIQV8w8rqRt3tNigyYivkxdl0IVlv5v5S2zA/lPSaOJ8L1GewrIVvYO+ZWAGnmUA6jseU3+V0WhapVs4tm/VZSfqReRnEqmaogGdS9yQi5ibWucpB0AuTYE2E2cWwoAB2FhYB7jK3e/eaFXEBrPSqZXQ3R1Oqm1tx9JE7bI1eI4k4eq9JnDlGKMQNiN+zD6EdN4BFvLlsf0qq39co1mjxHF1qlNKVSipenotVVYuVvcgkGxuee/1M2MHSYKqEeba3Tsfa03Ljp0n9SvCcPncuflT7mY+K4ou2Qbnf+Xp7/wBAZvYxxh6QTnz7k8pK/sv8PnFV2xNQXpUW5jSpWFiAL/lTT3tNxjn3dr7+z7w3+DoZ3FqtUBm6qu6p7Xue57S4TwT2WoiIgIiICIiAiIgIiICIiB8tOZ8Tx/x6z1Py3yJ/IpNj7m7f8pf+MsRh6xX5hTe3rlM5dSNgAOkmuXlvGnzxPApXTKxKkaq41KnbbmDzErqeGsU9eizVqVqWUK2ZgcqG4UKRpzGpO+8tBaY2eNuOOVnDVxWKWmctRgh2sxA+hO8icTjKmHrrWw2RnemyEb9LMLEG+g9bW1mXE5mxSKz5UdCA3kv5FdmQF/KCxygZiB5u0r1bFLhcS1SjlKqxHy2V6d9HVdgSLG40N784k+u2OLR4ziaV0aizhtCysDmSotsxzn5rm566m9thaMLiA6I/6lB+u/3n1i6FLEt8V0Ry1mzWy5gRpfIRefHFK6qoZAqHRcuuT101AtMyu1MGOqBTTZmYIlRTUKjzBL2Zl7gSO8RKXLYjDlGoZiqst86BbAZw3mN9Try1su02uKVHw7ZKyrqAfKTcKbi5RgDa4INr2IIOoIkWmFClmo1GQOpVgtmDK243Gk2XXFXJ+mTC1zUUNqDsfaTXB8OBeq2y/L3PWRnD8HcrTS511J37k9Jvcdxa01FJDYAanoBuZGt0yvxjo4apxDEJRpnzO1lO9h+epboo/wB1nf8AgnCkwdCnQpiyooHcn8zHqSdZUP2XeFzhaP4iqtq1cLZTvTpDVE7E/MfYcp0CdYEREBERAREQEREBERAREQERED4Zbix2M5r4g4O2EbS5pMfI36T+hu/Q8/WdMmHE4daqsjqGVhYg7ETLE5Y7jkheY3aSviHgTYRswu1InyvzS+yv/ZufrvCM0iuHrZWvj8MlVCjjTqNweoPWVHiXBMRoqhaijZgQGA6EMQbDXmQLnaXB2mB2iXS8a0sJhXw9KmtUWOXqCLXNhmGlxtvymHHqtRCvW1vUbeo7TJxKofhuBqN7f1+15GcRwZpYajiQ1ENVLZUpeVlC82VfK3K9wLXGtzNk3y6T+seMxYxZKYphTrg+SsflansEZRoFXllA3bc6HU4WSEPQMbHrtew9f6zNgsV8RdbXG4sCPUAyV4XhfiPmb5E3/wATMst8L/HltYe2HpGo3zMNOwkh+znw8cdiDWqi9OmQzX2Z90T+5/8AZB18+OxKUaQvmYKo5XvuegA1M734e4OmCoU6CbKPM3NnPzMfU/2lYxEl7qVAnsRKUREQEREBERAREQEREBERAREQEREDDWpK6lWAKkEEEXBB3BE5t4n8NthSalO7UefNqfr1Xo3Ln1nTp8soIsQDeZZtlm3C3aa7vLr4s8IGlmrYZSU1L0xqU6snVf4eXLpKHUfS4MixMx0x13kDWwBD56bKp5q18pHTTl2Mk6rzXZpMtjpJwwYDBFPLcMzH8t7AdNQOsmeK1xh6YoofO3zH+s+uGoKSNiH0sCF/zNrwN4fbieKNSqCaKHM/Rt8lO/fc9r9RLnN2i3d/kXf9lHhb4FP8XVX95UFqYO6UzufVrX9LdZ0ifCCw0Fu0+5aiIiAiIgIiICIiAiIgIiICIiAiIgIiICIiB4RKD4x8ECtmrYYBampdNlqHmV/S/wBj66y/T2ZYPzPiFZWZXUqykhlIsVI3BB2M94fhTVcL+UaseQE7d4p8G0OIedrpVAsKigZiBsrA6MNee0heHfs1VAUqVyyHcIhRm7FyzED017yfW7Lbrhzj8JV4niFw2GW6JbM35EANizHp9ydOtu5+HeC08DQShT2UeZubOfmY9z/iZeD8GoYRMlCmtNdzlGrHqzHVj3MkZUmmSaexETWkREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERED//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgWFhYZGBgaHB4eHBwcGhocGhocGhwaHBocHBocIS4lIR4rHxocJzgmKy8xNTU1HSQ7QDszPy40NTEBDAwMEA8QGhISGjQhISExMTE0NDE0NDQ0NDQ0NDExNDQ0NDY0NDQ0NDQxMTQxMTE2ND08NDE0ND8xND80MTExNP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EAEEQAAIABAMECQIDBwMCBwAAAAECAAMR8BIhMQRBUWEFBiJxgZGhscHR4RMy8RQjQlJicoKSssIHohUWM0NTc9L/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBQT/xAAmEQEBAAICAQQCAgMBAAAAAAAAAQIRAwQhIjFBYRJRFDIjcYET/9oADAMBAAIRAxEAPwDWUZXxiRagz37vLfw0ENStAON3zENNoTfte/hGLiEh1vK/nhFdlrqe6x3eh4wV3AFm/sYChJN3u9OcATQbgKXxvdB1NK1gCkLme6ntfdA2qd+o1779TDAyNXO7+kJjd3pA1oNLv374kbvhARmPC7+sWkTCsQly4sOcruzDKggQQZQgBS74RKmd3ZhpIRKnPOGxQxJu7ygBwbvvhAjje43ziDNGP0p07+G6y1QMxFTU0UDPPSudIch44ZZ3WMbRfUQ40G+MToTptJ2IEFGU5jUEGtCDTlT6xsSXDCovzhWDLG4XVTYXffA2BOt8oMb5QPWAkFHK+cTwZ35xEncL43yggHE1PCAEVpdYSt4eeXlDGH5X4wA6HffCH3RFcvOCUPOAqiGu84n4U0hUy/WIuxF5X9YRC0PP0hQCh4X5Q0Clcudb8r15QG7vjDK1Td0z9RBS2Xf63l6xDQFru9OcNLIA5m78IWMHff2/4iGCmvdfv8QwdUrmdPS/rDNMG43fzBKbr3X4xWGou/1hgZeV3T0goUVu/wBYgqUu7pDs3D9b+YZDo+6mnnf0ggYxWQkXfDzEEx3pAQitDtMu70gDnOHDV1EBaFF8BCZ4jjv5EQcm7vKGNBTXyyu6ekcXt82u0uf5BTyWvuTHZTWy4XflHBY6tPfiWp50HpFYvZ1J6rVvqs3bc/2+5juejzlfhHDdVtXPMD0judnywjiPvrCrLs/3q2Vy771iIHhxiRPPugDvCecUEQib3QJWyukFHpfpACxU4Qyi78odVhXd7oAkIlSGWJ05QJLFTTM3vhFfPjDkRGsASy5+f2hRGvO/KFAGSnvfnqPARGY1Dle75/7oavheft6c4fATrpf19ohuZFu/DLvg3E77vxEQUXd5xM3fp4QEDOenlv33X15RKSgAG+vgRevnEZwqa5eO+6+sSRNM743zhg9aHO7+kSD8dL9PrA3yyrd1HlEHffd517jDLQpe73/SMDbusrBispVIB/M1SD/aAdNc6xZ6S2iktqE1bsjx19AfFY54SqRUj2dfhxylyyWW6f2k/wASj/AfMOnT20j+JT3oPiBIg4QR5ijLsf5GnsDF6j1f+GH6g8vrHOH5kRvBgfeLcvrOp/PLZf7WDDyIEZ8qhpVQQd6tUDvqB3Q8/ZU3QfinLr8d+Gy/TMpkYq+YBNGyOQ4HUxxygfhk1z3c66xd2fYHmlhKlvMwfmKLUDkTx5RS2l6KUK0zrwPcQfGF4h8fDOPevlq9V07Df3V8qbo7VxQoe674RxfV9aSx3k8tecdWm1BgAcjSJrm8/nKrs560gWR35et74G20qqYzoOHfSIptSOKg0A45ZjfTPKFpnMbrevC4o7+XLn3xLEdK58/aK6zBvYaDfFhCKZQFYQBu7yggEJWu7yhww+8CacROtcogTE0gImOg4wqE3nDLmb03fEGC0gAeE8oUWM+Hp94UBObrnyvO+USxZXfd4QBTd9/twiWK9L+4iW6wj58fpdPOEXu7ygIN3eZ4RMDKpu/rBoGfh9/C+IiIDUy8Pj6+cFUXd6RGYx3XfyYAAykHXllly9vYRF2qM7v5gjLl6VgEzLff0z8jDhxmbecTIvAFvYCvmfKKjJFmZm70zphUU5Cune0Q6TR5IBdKMaUXEuOhrnhrUDLfSLjq8GOsIrEQiGrUNTwEUV6RLZ4Kcic/aJLt43ikPbVZQENU4TrQhaNesTebFT9uTn5QvxQdDWHsOn6q9PSZEp5UwMKuXDKuINiCihHEYdeccn1j2wTZ8yYowhjUA6+NN51PMmJxR2kVenKI152WeV/HX6dF0OKIo5Rqy3EZuxiiKOUXA3DzEVHIz81T2/ajTBXKunHefiK7yZhOINTkGy8BT5iO0CswDurXnrF4iKkdDgwkwn2GJhAFQ9cqkkNVqUJFDUDLSEm0uMwCO5s/WkSaGJimup7CnpWYB+Zx3jF7VgqdPuKVwHkQQfeKJMRYxNkReLDL3xjoNm6wBjR1Cjjiy7qERrStvRlJDCgFSdABxr3RwUyTiGZPp8UjPmTWwIMOQm8u1Uqo5imEn/KFcWGfUxt3jdPWNnmI4DKa1FRThxoYIw5333rGB1cfsIP6PpG8GruidOZnj+OVhZ8/WHh6nj6mFAlzIHHy08+H3PCGrZvLX1PCHQG/m/5oFWzeX3aIegZXu7zPCDo13eRimHs7tfvX/KLEo6cfix6GAlsJ+l3pAnNBfte+DA7rvdAZ60v1vnAA6873+3mIqvd7hn68oIxp32L5gQDbXCozA6KTw3VvkYqHjN1yzdJOXdE0JOJqZ0Y6DvFPKLX7KpqWJJOZJOcU+hNmq1d7N9hHpuzdX5TKCye8LLLTtYTUjiujugkn4grIjAqqqxIxlsRNDXKioT5DUiLE7qTMoxXCwWlc3UZ4TUF1AYANWqkjIx1E/qtKOgIik/VjD+R2WhqKZUINQcjrXOF+UU4zaur8xELkEICoxZEVdVddD/KynlUA5mMqZsjjMZ92segbT0PtJUp+O7IQAVZmKkAhhkTTUDOMaf0BOGgB8YrcJzEnaCDhbz3jvhNnMp3Ra6U2RlBDrhYCvhFTZc5oPd7VgjLm8Y11Ug0Aiwz4RftekAkrwh9qOVN2+LcllyXrOGu+L5EZmxn94SMhQ5enyI0y9IcdbCaxk+jExAmHZocUpDWCxiBaExiJMAOXjN/gl/3gn/uaLs56Kx4A+0UnNBLF5KR7mBNd51fyVRTRB7CN5TGN0MvoAPa/CNaM64fJ/apefnCiFRxHnCgSwGG/hx9a3uaBX+vrX/KCuu6/vp6HjECvpefl6HjEPQCDd+v+UWZJ+3G8vQxXcev6Cvl6HjBZBu7y5wFWkp9YhPzHd3d8Sl6XdiFNXygSz3Iv2vlGd0zMIlPzoPM/T35RozEpd3SMPrDM7Cji1fIff1htuGbzkS6syKzZY4Zn3j1bZ1oo7o8y6rTESarOwUYcichu3x6ZJnqwBVgRTcQfaJrsJvAWESdoGTEhBkEDaWOEELRBjATzjr3QTWp/IvuY5nowVmDl9I3uuczFPmcsK+QBjH6DWswk7qxriw57rGuj2eB7c1F52b8YnLFIq9JnK73+sW52M3lIqdH6k8vc/aLpaKmwfkrvNPYH5MWCYqezrHJiBMImBs0AOTEawiYjWEENrPYbup55QBTWYB/LhA/zJr/tHnBNr/LTiy+4PxENizmn+9R/pUH5gTl4leidFLRSbv6xoKBFLoxaIPGLcZ1w8vcag4CFA/CFDSwmvfenpEXSl3Y5wRkN3dIG/C8r9Izbqr692V3uMFkrS7sc4Exobv8ATnBpKXrf2hir+znK9+kGmCo5+t/SAI+l58IMDWBLNntd+/MRzHWBu0o4L7n7esdRt60Nfbj5c/URy+27O07aElpQM5CAnQZBmY7zQVNOVIb1dXHeahs21MopqOcW5e30zoVPEGOi6V6kJLlF5M53Zfzq6qAcwGwFdKFhkSe+KnQfVgTpJnzZ34SYygATExI1JzFBWopTdA6itK6xTV0nOO8lvesW5fW2eP8A3Eb+5V+KQLpjqkZcltolTlmotK9hkYA0FRUkNSuem+MfozoLadoBaVLxKDQsWRBUAEgYiKmhGnGDUDpU65Tt6yj4MP8AnEz1yen/AKaf6jHI9J9D7Rs9PxpLoCaBjQqTwxKSK8qxnEjPlryrpXhD1CaHSu1F2JJBZmxNTS/pBOri5s3d8mMs/EbXV5KITz9hDjzdm+ltYBwu/aMvpM0U+XzffGmzUEY/SJNBxJ9v1inj4JvODShRVHKHLRCI4obppFoG5yhyYi0APihliOHnD1hAHam/IP6vYGJ9DrimV/rb/tUD3AgW0Htr3MfYfMG6up+9c/1Od/8ASMvWBny3WOX+noXR7HAB3iLNecV9kFEFcoOX4Z84lxalW8oUDr/VChBnzBx/S/jnAJl03XT0EWpl3ekVnXXLPlzpfhziI0VnF63p6c4NKpT58r8oZJe85Uvd3eg4wVRnd2IYoiXd6wcHK7r3cIrM2d3+ogyHLL70v2MAC2hKikYezAqn4qVLrMZ1IyaqEUoc9cOmh0ORMbu0PhVidACfIeX6xm9D7G8xZctCFogd3KlqB2oAqA5szNQZgZGsD39LHzaq9Kdbpu0SHRsEp8SVVEb94oqW7X8BBA7JG/WKPRXWPadnBEtxhY4ijDEtTqeI8DGt1m6BZCuJlbEpKPhKN2aVV1Nf5h9qZ8tKwh1xglQwxrvKgjEPEVhvc3OmOse2T5BDy8Ep6VdZbqr5inbNRQkDTWKvQfWNZCCXMkrNQMXU4iroWpioaUIOEax6TtnSUj8OZNecj7M6UVMqUwqMIXjkezur5ef9R9glTXnM8tZzy0Qy5T0Ktich2IOTYQBrpXugCPT3WaXNkNJlynQMysxd8QGE4uyOZAj0Pqn0T+FsOzquFcaiZNBUH8QzFrhJPAMB/iBpHnHX3o6VJeW0tFlPMlszyk/KhBGEgDIVqRll2e+PX5e1oiIldJatocOAACuLTdpWCiPA+mJKpOnogoqTJiqOAVyoA5AZRrdCCiDnW74xh7dOxs7/APyOz/62Z/mN/o5aIo5CKxeLt32i+Rl4xldIntovC/iNVENRpxMY+1n98d9PpDY9aesQwNokWiJinQNWGrCMWNm6OnOrOkqY6qcJZEZgDQGhKjWhB8YRq9YVYaYpU0YFTwYEHyMRrAAZh7fcvuftF3qwCSxy3+rn6CKjS+0WruA8q/WNLq3LwhhwIFcuZ398DDnusK7jZslHdBCanl6QNFyEOX4axLkCfhjgvkYUDxHib8YUBK1eXnd0iDyzpvvTll40EER/C9fmHc+HxfxGTRVdtfCv6+HoIiSb+L4RKYaX334CAtd3oIoCS2rd8fWLKGmQgEpb3X9RBwd93v8AAwBS6ZmUlPTUrT/UcP8Ay38RE5M15TK6BahMDKwxJMXI0NDlQioI9Yr9K5qifzTFHgDiNPL2guPM18jCrp9LH0W/ug9LbdNnuoKMxVeykqW7hFO8hQdaAVNB2coxNq2CYfzSJ45/gzB64Y6TovpkbM82qMwmBBiUriTBi3MQCO1XWNvZusOxNQtNdGGZLhxXvNCtPGKenK3fiPKZ0gA0Jwngwwn1pAfwnBDo+Fx+V0Yhh4iOn6Z6QSft5AdWRpiKDXslewpz0prHc7f0dKcmuzSHXKjYe0ajPNBUQWyTa8MLldR5C8t2OJ2LsdWZqse8mNT/AMf2syP2czf3eHDouLBphxUrSmXHnHRdZer8iXI/FRHlPjC4C5ZWrrTFnpnlwjjzDmrNlljcbqqW1KBhAjo9lIAA5Rz8wVmIO73EdGksaCHHP7V9UW0GsYDmswnmfkfMdFhola6+nE+npHNSjmTef6Qx1J5tWDDViNYVYb2pht2WdNwrlwOoj0vqPJnDY5TSRm06YzHRSoIShJByODcCagbqx5kDHq3Vtz+w7MslwSEfEqMMYZyzCuZp2tag67tYQjelzmYn8bAy1clGQAhVRcsJxVoxbtVzBFKiMmf0Vss5Gf8AYpZaoNEGFitUDkFcJLAFiOOGOh2p2WQxciuE1rpUilCQeeZjG2WVXCCSjdhkZcwGWq/kbOhBAIyybKhzgN5z1u6NkyllPKkTJAmVqkxnJyCE0V+0AGYrnrSoFKE0uryVGW9vgeMbv/VBGWbLV3LsVZ2JGFQWIWirU4VpLGVTnU51jI6tCgTmSfU5wPL27rB1K5aaw4yEQVvAQ9Ihyj1MKHpzhQBRR87rzyvXlBpp03Wb8DFVFv1pfODoa373xhLBde+79IdZfK9PP6CLDU4XftzhKtM/C74QAkSgunD59YaZuvxvhEzpl43wp7wBzld/oYApzUxz5KcMbHlQUHqY0ujdh2Z5Tl2xbTifsGZMSgDkS6IrjIrhNRrUmsZuyzANod9BLkmvKpJb0HpFzaehtpdUZ5UpcY7KvMGI1q1CMBFabgTB8ux18dcUdE/UvZCKj8Qd02Yf9zGOR6E6tJtH47GbMVJblUw4CaCrZ4lNTQrwhm6H2yUjOiuqKCSZW0AAAVJyV14Hduih0P8AtiSj+BLmmU5aoMtHRj+VqggmmVIcbNCZ1SltTBtZXFWivJroWX8yNTMqaEa+MY+2dWZ0vaV2dDLd2XECtUFO0c6jL8p8xGunWzbJK4XkKqjQGTMQD1AjMl9aW/bP2pkRuxgCBiKaCoNDz84CA2jq7ti5mS7gVFUKuOY7JJ9Iyp0tlOF1ZTwZSp8jnHWbP1pkCuOTMYl8dQ4BBwotBhCilEHrFPrT1hTagipLKBCTVqVzAFBTd9uEBOUlis4Dh946XZiT4axzmwCs0nhX4EdFsa9qnIRcc3sX1LPSDhZZ/tPmf18iY5zZhlXjfzG/03M7B7wPX9fMRhIMhCb9Sem37ShQoUN6jg6mJdH7H+K+HcKFqa4cSqcOWvaiB0MdiuzqkqQQKOUo2HGS2H8N1VmwgBaEmmXCrUhU4N1WE6XtaKkya6DJkJfA37uprUkZMwypurlSO36PAaYBmKtio1RQ9l6AVIGROv68l1Y2fHtDvXCVWa5BRcQ/DeWidsZtUA0zIGdI6mTVACKVTNKrVWYAplQ10YZjM51ghuB/6qzq7aR/JLQeeJv+UVur6dlO6vnn55wH/qHMxbdtB4FR/pRB7gxe6GSgX+2nkB8w3h7l9MbAEPDqN0PSIc0+DnflDQ13nCgDMQWdNft6GDK+t39jEVFO/wA7pT05wjd949DxhLWFa77vTnCrd3pEFOXDhyunmOcTC3d6QAztld/rAWNbpf6wd1qdNfa/flACt3eZhnAuilU/tRcDCzBDU7lUKRl3mCv01NBSrpOCDslwVelCKFkIByP8vOK3RElTIR3UujTi7oBUumI5Yf4hUKSN4BEdH+PsMxiF/ZwCFCpNRFNd5wlVfgKca8on5dzCawxn0xdu60k7PMlrs4R3TCCjgrpTOoB0rD9H9YZK7Ikku8pwBU4XPaqWPaQNliPiMsqxLrh0dJTZwyyZKO7qFaWKVyYkeYEWtu6t7AjS5ZSYWcEVWY9ciq1oxIqS3oeQNQ2tsPT+zZk7WjV0V2CBeQD0PnzjlOiHlTpu3zCkqacRCK4Uhs3pTLMGi6RemdR9mZWZJu0JhFSHCEaV3qCdOMcv0Z1aedJ/GM2Wi4yoDgitACTiz57v4SYITrv/ACzs8xA37MqkipwTHlmv/wBZNB4590cb1n6LTZpuBGLAoGIYgspJbskjI6V8YsT+p+1pUqiPT+R1PoaGMHaVZMSsCrCoIIoQeYgKhdDDtObzMdF0bXFzAJB8DfhGF0InZJ5/EdR0RIxMTuwkee70i/hyua+q1Q6anDDTj8D708Iy4udZy2JVAoFxGnfhzPHKnrFMmsD29af44asIGGMKBud27MeibclHRexhwIqKhAVkxTBLJYZk4HFQDQ1Oseds1Kca1+kaq9YtoxM7YHZjViUUVPYzODDnRBnCOO66kTC6ziUCAooQrRiyzpk04itFpTBofTSOkk7IeyxChWdaCqktVlauLvDGg1yjlv8Ap9t6NJdXmy5ThkVVLKrFJaZEBiTmzNUjnpHbts5KyApBWWQSQRoqECnHMjhDgeG9aJuLa9oaus5x4YmA+I6LoRaAjhT7xyc5y84n+ZyfNq/Mdj0SMj4UhPB3b7RoVh4e/vCwxLnllxhofDDQBScU8L+OO4cYiRd66c/y84LgOp8Dv7+76DjDgDdrfnp6CE0MBn3elP09BxguG7vSGRdOF35Q5NPH1v5EBIO2WXOtO7j4+sUttfAjngp9r9YtvU3rdfXlGb0ylJTU/iKqOeJhX0J8zDXxzeUi70LsUyYsqRKwA/h42dwSEAIyABFWJY79xizP6szHD0n7OwQ0aquoU5a1ZuMBmMUwsjsroKKymhCmlQQQQRkNQcxEZPWSdLqKS3VjVgUwljlmSuVchnh3RMd1i9L9W50l5csojNMPYCORnUCuaimuvIxonZOl0phExqadqW/+4kwPbOsrPtcme8uiSwQVRsRJIbMYgo3jLlG1svWzZvxzNaa6ggjAUc0qJYzKlhQYCRzdopLC6Q6f6SRHWajKpUgs0oigIpXEtBXOMfYOsBSQuzsiOgLHMsrHEWrWh4MR3R2nXLrPs77I6ypodmwAKK4qY1JyIroDE9h2mUZeyygdndAiiYXKMRRRlQtqTi3QE55uuQOZ2SXrUkOy1rqTRM45jpvbGmu81gAzmpA0GVAPICPUukOgejmUtglplUsjBKc+yaR5HtlMOtRXLuhxOXstdEr2B4x1/QiUVjzGfdrfdHLdHp2F7qx2HRSfuxzJPlYh32cjlvmsTrTJoyuNM6+Ot90YKGhpu3d0d7t2zY0IGozB5xyc7owHtL2W4X48RlCmT0dfnmOP41Z6DGzmaonhMCo7nGQAxCEKteJLVH9sZfTHR34DhROE3sI2JaUBZfyatWnHnpDPImg6VHhuy5QB6j8yDxFPeFrzvf8Ax7pnjZ4pxLbAGxZ1pSnI8IHjbgD4/UQT8UUAoaeghjhOQbzEUY8mQ7oXCNgDhC24ORiC0rWtOUSlTnSuB2SuRwkrXkaUjX6S6xvPR0KKpaYj1VjQBJYQLhP9ta13xhO9AOJp5mFjbZ5mjuvg6PR0P9Q9SPpHabBMAOeQOWccdsOz1da5mteQAzoPrzjsNg2dia7hnFfDndyzca1YcQ0TiHgRobEKJ4hdPrCgCg7c8qXTuI9BEpJ3+nvfJYgV7vpT9PQQdMhy+nC9whNCN3e6IOT35d11+REpudKC+PL7iBo3Dtc9x7uOutd4gB1SufPflf3jM6VpikrnQzVr3ANfnGmi157xW7ryih07szMgZPzqwZa6Glcj319+ENrw5THOW/toTkUjXQ/UajWMPbEzOdYhs3WCXTC9UYZMpHzD7TtaMKgrnzETI7W5Z4Zs5YousXp8wUigzGuo09d/hFxNBIiJEEYxGGRlUcIBtp0iwIE64nUc4EZ3WNbciXRVHACOw2BKS0B4COa2aWWYAb7vujr0WgppQfb6eUKuPnUHpzu/WKczZFNTTI5+OQ+nmYvG78ojMWvufb5hM96ZjdHCmR3ZX5cNIozujs6X99/HSOgOl+PzAcGZ779feDS5nlHPP0Yu9Ae8fO701iu/Q6fy+p+sdciDfd5eUM8sZ1AhaXOfKONfoJf6vT5EOnRCcK5j6ih3R167Op3el2YZtlXhBq/tX8nL9snono8K1cIEbyIBYhLLppDk1vyvnDjDPO5XZLqaQ584RHfDqcoEo/4+v2hRLLh7/SFAFNRXIa8eHL09BERMG7MnyFeHEaDLlEXB35Dh3d96RJV3637faJaBvVte4Dd3/T/GCylAFbvP1EMi39PL0EGUZe/nQC+UMGVbu84hOFRxrfz6mDYePj83zEBmtXx0538wBhbZ0Sj/AJ1BO46EeI8/OMXaOrZGaOQODbu8j6bo7bBl3+vh4+sCfZxX2PMm/WBtjzZY+1cBN6L2hN4Pj9YC2zTxqjeGftHoD7L5Wb10MBfYqbrvu0g3W+Pay+Xn5dxqjeRhl2o/ymO7fY7vu48IgdiI87yvdB+X0r+V9OQl42/KjeIoPMxp9F9EOzhmoPWOgl7ETfONTZtlCjnBu1ly9i5TQew7CEz38Y0sMRlj0H03xNq3fdDeO3aAG++cICJBYZRfh+kCQ3y+Pb6QKntfx5Qd17Pd7b4io4XZrACQXd5wTdEFWCgeUAQApd8ocLd3lE2hZCAI4edN8NS7vKHakRLXfj5wA4W7vKHApd2YYObu6wS79IAFi5i/CFBcY/l9vrDQGoDXwP8AuWILf+lIaFErH/jPh7rE5Ol/0woUME+l8YG/x8mFCgIpui9w+YkPzXweFCgCbaHx9zEZn8HhChQHAh+Y9wgR08R7iFCgMZPzeXsIOdL5QoUCanJ+Ikm/xhQoaTjTy9jEJmt8TChQEnL0P+XsYDJ0PhDQoAmPy+f+2H3/AOJhQoAId8O3xDQoAC3z8iJLp4//AJhQoAjL0Pf8CJtp4fWFChGJChQoA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFRUYGBgaGhwaGhocGBwcHRoaHBwcGiQaGhojIS4lHB8rHxoaJjgmKy8xNTU2GiQ7QDs0Py40NTEBDAwMEA8QHhISGjEhISQxMTQ0MTExMTQ0MTExNDE0MTExMTQxNjQxNDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDE0NDQxMf/AABEIAMIBBAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECAwj/xABOEAACAQIDBAYFBQsLAgcAAAABAgADEQQSIQUxQVEGBxMiYXEygZGhsRQjUsLRJDRCYnJzgpKissElMzVDZHST0uHi8GOzFRZlg6PD8f/EABoBAQEBAQEBAQAAAAAAAAAAAAABAgMEBQb/xAAnEQEBAAIBAwMEAgMAAAAAAAAAAQIRMQMSISIyQQQFUWGB8BMUcf/aAAwDAQACEQMRAD8AuaIiAiIgV/066UV8LjMFRpFQlVx2gZb3BqIlr8NGJ04yfiVJ1s/0js78pf8Av05bkBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAqLrX/AKS2d+Un/fpy3ZRfXBtC20adv6ikjfpZy/wVZd9GqGVWG5gCPIi8D1iIgIiICR3/AM24b5b8gu/b8sjZfRz+lu3cd3CSKRlwBtZeZwbe6sn2wJNERAREQEREBERAREQEREBERAREQEREBERAREQEROLwOZwYnTOL2uL8r6wPmvp9iu02limvcByg8kAT4qZenV/jDV2dhXJueyVT5p3Pqz5321VzYvEtzrVT7XaXl1PVCdmUwfwalUerOT/GETqIiFIiICRjEm21qPjg63uq0vtknkYxf9LYf+6Yj/uUIEniIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIHlWqWUnkCfYLygMX0ox9d2IxdVEZiQqkKEUk2UFQDoNN8+gXFxbnPmRsTkd15MR7CRLGaysR2tS4fFYhz+NVdgfaxmgxuGCEd2xv/AMN5s6dSrUa9NCwBt3Vze0jjMPapO5gQymxBFiL62Ijwnlgq3PWSvoz02xODTs6TJ2eYtkdARc77EWYe2RJd09Uhp9EdCOmSY5WBUJUQAsga4KnTMvHfpbykvlH9Sf35U/MH99JeEhCIiFJGccv8q4U/2XE/v0Ptkmmgxifyjhm/s+JH7eHMDfxEQEREBERAREQEREBERAREQEREBERAREQEREDgz5V2+uTE115VX9mdp9Vz5r6YbOviq9tCKr+vvkyxKzcB04xVKglOniMioiooFOn6KiwuSpJNuMi20ca9dqlaoxZmYEsQASfUAJ4ps9ybWt4zKxOHyU7W9fjDLXgT1WeQnqu6GlkdSX33V/MfXSXfKR6kB91VvzH11l3SEIiIVxIPtTpNhl2th6DMwqKj0j3TlD1jSKC/jl94k5nz304fJt7N9Gthm9mQwPoMTmcCcwEREBERAREQEREBERAREQEREBERAREQEREDiVb0jQ069fKq3NQNqL6OoPxlpSu+nKWrt+NSVv1XI+BEx1O7svbdXTHUl14aJadYgkGmoAudBcfo3vMTpHgXbAs73YnvDuBQBe2h433zW4Pa6s93psllsxViFLLpdQb6nje8l2M2kMTgmXLaybvJG/0nzsOp1serjMruW+XTHpY9vdLuyKWUT0ScZbEjkSJyvGfVZWX1Jj7qr/mR++ssTbXTnA4ZmSriUzrvRbuwPIhQbHwMqzqzcqMewJDLg3IINiCLm4PPSVjck3J13343MhF94nrlwQNkpYh/EKg+LTxHXVheOHxA/UP1pRoWdjT8R7YV9B4Xrb2c3pPUT8qmx963lT9MNqU8RtRq9Bs6M9HK1iL5QgNgfESJlZ74c98FbrbUHxGoPtgfXJYAXJsALknlzMx8HtClVBNKolQA2JVg1jyNjoZoemDl9k4hjvbCljb8nMZEOpQAdsByX3H/AFgWzERAREQEREBERARE4gcxOLxeBzERAREQEREBERASC9PafztI/Sp1U89A0nMh3WA4UYd2ICioykncMyHf6xHLOXCtMSQ6g6aDdfU33AeuZ2yaTg2J7rWvqLEWItbhv5TcI2GIFnQnTcEI9t5kGnT3owJv9ED13vOH+v6tszKyaim8StnceJnmp3zL2qtqz2+kfiZhOdDPQ2n/AFaehtH+5v8ABpWVMSzurMdzaP8AdH+DytcHhnqOERczHcJB7KR4QbCSnZew8VTBBwtGpfW75WK6W7pzabyfPWe+K2ViCrD5BhhmUi6gArf8Je9ow5+Em03EOuJ3o7/b8DPbE7DxCAl6TAAEk3U2A46GYtFvg3uUyq+ndq0c+y6ifSwjD/4pTnQTpI+CDlKIqFwBdnKqLeABJll9YGPajsrumzOtOlfkGAzfshh65UeAcZFtyE64Yyy2s5Wy6ThusjGbylBRe1gjsfL0/wCEkWxunLVNKlIXtfu5lNueVt48bypMfeykXtu9dwfgJIujVVsjZ7kXQpc3s5dFNhv9Avfyvwi4xN38rrweLWouZb+IIsR5zJJkd6M1t6nkJrusfb7YejTpUririagpIw3qDYM48QDb1znZq6axu5tu9p9JcJh9K2JpIR+CXGb9UazRv1nbMB++CfJHI9tpD8N0aoIAVppc65mGZj4lm1vMk7NTkPYI8G0ywnWBs6pouKQHk11+Ikjw+IR1DIysp3FSCPaJT+I2FSf0kRvNB8ZjbBU4DH4YUmZaVdjTdMxKm9gCAeNyD6jGobXXVcKCSQAASSdwA1JMpbpP1k4mpUZcG5pUhorBFLP+MSwOUHgAL24yc9am0TSwDKDZqzLS/RN3f9hGHrlKUKOlzvOsxa0y26XY+9/leIv+Xp7MtvdNhszrC2hSqBmrmqvFKiqVP6SqGXzHsM0FSmfDjbw5TxYRtLX0r0e2wmLw9PEJoHGqnerDRlPiCCJtZVXUttAkYjDk6ArUXzPdb4J7Zas0pE4nMBE4nMBERA4kK60kvhFOg+dQXOgGYMLk8BrJrId1pfeLaX76fxliXhT1bDkZVujE8VcEH9K2nHhPA0hmyhBcb7WNrcjoPXO9bDZcqZ6bZhmutQFRv0Lm1mFrW4QmAZ2yIuYqpc5WU90bzckA29srGmo2mtqh8hMKp/z3TO2kO/6vgZgvI1Fh9WX83tH+6N+68h/QSnfFp4AmTLqyX5raX90P7tSRHq+P3Wv5J/hJS8LhoUdN0V6MzMMmk64pZhyRXaeFurjmrD2gyoMOdD5N+6Zdu0dEc8lY+4yj6JtfyP7pljpivvrVf+T8OL+lUT1/NsZWmIQU6aNuGQMePG272Swutl7YTBpuOYN+qgX60rwrnNJG9EoAfEFiJ6cPbWcr6nls3HPWYpSRnNrkWWxG7UHzmccXXwwzNh8iAjUppr4qfhO67CpjVGdDzU2+E6YnZBdcrV6jLe+VnJF+djM98Zu7f0mnQPpklautJlys2gINwdNBrqD7Zz1jVc+1MFT3ilSqVT4aMQfbTEr3oxahj6RGoWqlzzGdR/GTnpOS+2arW9DAi36RC/FzM5cumPCSLh+6vkPhNPUwDDP8zTN9RldkDXYnvALo3EtrebentAuLomlyBmbU5Ta9sp5Th8a/0E9p/wAs57TujWYfD5EAyIlie6noi5J00G+9928yO9J3yvhX+hiE9npfVknxGLY70Hqb/bIl0vYFEbUWrU9DwJzj+E1jd1Un64nd2wlBAWzdq2UAklh2aC36Lv7ZoNndCMW6B+zVARcZ3UaeQuZJunr2x+Eb6GHrH1kf7ZlJtvEBFAYABQAMi6C27dymKty0gtfolW4VMK3K1Yn6k1mJ6N4lO9kDjfdGVtPAXuZNsXjnNzkp63/qk4/ozVptioAVCoANAAlh7BIndK56qqbU9pOjKynsH0IINs9IjQ+Akm6xesFsDUShQpo1QqHZnvlVSSAAAbkmx8p5bDxHabWosd/yNgfZSP1jIp0z2b8r2xiKbv2apTQ3AB7oVABqQBdqnHlN4y26i26m2Hi+tjaLkBOxTXQJTLE+HeJv6hPV+nm2lBZgLKCWvQXugbybai0xqnQekN2KP6qf5xMevsTQg46sQd4KE3HI/OT0Y/S9W8Y7ZnVx/LabO60dpnvGnSrID3u4VtbW11bT2GWr0J6Trj8P2wTIysUdb3swAOh4gggym8BsjJTdUxKZWzXzUe9fKLhfnOW7yMnPU1hjR+W4djm7Osuo0BupFwP0ROWfS6vTt75r8OndjlPTf+rQiImAkO6zz9wP+WnxkxkN60mtgHP46fGEqkaaAkLfKGa1yTpe2pOpA115T2r4UBmQkNlZhmBzA5CQSCRqO7obbp2bANnCAqSc/MDub9fLUbp5JhX1ABJCqxtckAkDda+hIEt4S+eGtx/pi3I/GYlSZe0EyvlO8XB87++YjQixurIfM7S/un1asrnYmLalVR0IzKeO4gyx+rIfMbTP9l+rVlXYcgEMbEX1W9jbj5ecjXwtfDdL6yrc00P6RHutMbEdNqpNuyT1Mfskc/8AGmp0zTqUVU5Q3eDK4JFwQWXUHT2zXV8YwbXKt1B7xI3+oyaZ7W+2n0oqujJkRQwKk3JIBFjwHCQdzvI4k/AiZ2IxOYFRzGouARx3i/KYVbdbTQ203HyjSyaXR1t1My4Mc0drf4cguGa9SioFyVUftsZNetYa4QDhRP1fslfZCXRV9IqgHmfPznow9rll7krYm2k8nuDr8JqlwlYcUOgPpgGxF9xI4Tk06ufIVIf6Nrmx46Ei0lxlaa+mpGMX8tD+2ssbb9K20cQ3/p9FvZXQH3KZDqeAdKiM65CSLXQgtY8+IBI90sPpHhv5TRBa9fA1KS30u6E1Br5rM5TXhrH5ZGxqF6S+v4melajaa/CdIqFBezqs6OrMCGRx+ETy8p1rdLcKd1T9lvsnGxjVd69OQbpvUtQc8RVp29XaGSbEdJcMdz/st9kjHSxc6YdLH57EAgbiU9Ae0uZceVxnlMenn3zQe974VvVdahv651chgLMRoN1pm9OqIfFUKQtmamEB8X7VF95Ej2K7WiQKqGmL2OYEX5kE2B574rWUe+Ip7jnblbmZpWa2bwMysZizbud/iNwN/CxtaYStcZcpLG17FfthjVSboixO10H0cK1/ZSX4zWPWY7ax7CxKplHDc2HG8C/AzZ9X65tq4hr3y0GX2vS/ykSOY5SNpbT57/bVoGduhN9ST9xvL21LWxVTkP8AEb/JO5xVUj+aQ/8Auf7ZB+05n/nsnV6w5z9NPo/3P7/L5txTLEYiplN6KgW1IcG3jbLrM/qyN8VtQ/8AXT4PK9oV7ugDXu6i1/xhJ91W64jaZ4dug9gefL+59H/HMfPL1fTTW1kxET5D1khHWsfuELuLVUA1tY6m9/VJvK763GzUsNSBINTEDUakBVa5A8L3hKrI0K61VRaod17TIWAA7t78NcwHG/Abp40MTUUs+QMOzUNlOVVQkEX0IA/5uhKdbOQr3amjvZxuUE5rA8Tv8ZxhqtZe0KoHVgtNrEqPR0Atu05/xmmWq2q5aqxYZTc3XfY31F+PnMJt8yMfVz1He1sxJsOFze0xm3yNLL6sx9zbTP8AZ7fsVZVeHW+7f7rS1+rIfcu0/wAx9SrKzwtK29gug1yk3NwDu5C59UgzcFjaqAuldqZsVsruCQPwWCm1uQOkxnd2Or30vqW4+udigzhS6EXUZ8ugB3mx10nWsijc6NrawUg2vv1098Dxvv3aHeNR7Zj1l32N9dCL6+V5m9mMqkVEuQSQb3Ug2tpe9xrPBVzMg5sB7SIFx9bS2eh4UW/eErR/SuOAX3AbpZ/W+neo/m3HrDL9srrDUczBVtc2Ov5N/hed8Pa5ZT1MyjQqOCc6N3Q3eQG99dWtfjv5zpgcNUqFu+gJ175e+hI0yjQbxMuvs6tSACsrK97FW07pBN72ta9+W+ew2LUQL2nd3gAMDcg8919TGi8eGPRFRsQiO2Yiqg0YsLl1uQTrrv1k961KjUa2DxKkqaZcAgXPpU20HE5Q4t4yOYDZxpV6RcEfOKRx3OL7tNJLOuKmDhKTH8Gtv8DTqX+EzfdGseG1q412p9yqtUOpNJyqgscnaDQ3BBH4W64tYb5rjg6bDM+KTN+Fmo0EynkyMQwtIHsbG4vZ4LPhnFJtWz02W3itS3d8jp4X1m/PTvDMuYrVW34l7eGYG3wmLjY1tsqeHLFlRablbsanZBFFMbqjbytyGAUAk5bjTUQ3GnttrYSjnDinVQXVSoupzsLEndYC/hu0nvjOmNWohpYOlVzMzs7hS5OZu6QiA6hAgBO6xsOM03QdGTauFV1ZWDuCGBVgSjbwRe+t9ecTGyW0+U36zXIxakbxSpEeYesfiBJbgdpJURKlJu4wvUUsWRBbvKwJOVgdwX1iQ/rXYCupzBfmk1Jt+HV4yvcHtCojfNVHVTdalquZSCN++9/C1pyVcOOwNxmNJAurlSiWtvyZcu+34V738JpNp4inTQtcAAG6qAgAB0tYXYnTcQNZEcR0mxDXzVsxta5CbvZaRrH4+tUbvM5t6O4r6/8ASBZHU+5bF4hjxpAnjvfn/wA3TU7Y/pPaY/FX97DzadSiE18STwpUgfMs5/hNTtradLD7YxprqWR7KbLm1y0XF15d0+6duhnMM5lfixMvbWC1M2uJ5vRPP4/bN0ekmz7ZrWB0BNEgeVwhnat0k2bb0FHI5aw/+u0/RY/dOjOY8Nwz/DS4Gn87T/OLz5jxlg9U2r7RbniiPZm+2Q9OkezlKtbvAhlIWoLW42y6yWdTNYPTxtRdz4pmHOxAI+M+d9y+qw69nZ8PR0Mcpvc0syIifLeglR9cDdpiMLh84SyM+YtlCszIgJPAWDS3J8+dYva4raVc0VJFELSzXyqCouRcn6THTwhKj+EpVmDVVYnIMrFhm7pANiOVj7tZzhcfURG7oZWbMbMym4UrvBsRa+hvx0M8Pk2JRWUXKt6QVgb+djrunnT2q60+xK90NmtcgZspQEr4BvdKyw81yTOCNROEGk9EGsNLM6r/AL12l+Z+pUlb0iovnBIIFrNly95STyNwCNecsnqyH3JtL8z9SpK4w7uA5RSQFHaaAjLmFrg8L2geQqJnBs2TMLrnucvEZrjfOtV0J7gcane4Ol9APVbfPYO/aKQgz5ksoVbFt4FgbETzxNVixDIAwY3soGt9xsecg4zUyq6PmAOYh1sTfQi99MtvXOmG/nKf5xP3hPZ6rBKeamuWxyFkHeAY31vc6m3qnTZ2tajbjVT94QLu63FGWifBx70lYYWgLpmYqCqtmG8HLp5a8ZbHWxQzUaJ/6hHtW/8ACVQtdQUzDMFRVI8sy7uNtDY8p2w9rnl7m22hh0zoaNdibsO/YkAbmBGhuOE77Sw5DJ90hmuw1HHiclyNQSPG9p4bQxFF8nzRQ3NyAVBTh3bbweX2TjaL4Y5Mita9r5iQVtvvqb3lRusuSrTL1hU+cF7HUd4X01tffJh1uqPkIJ3CqpPlke/ukFotR7WiKGb+cQd7UEZlsb8eMnvW194EgXIqKbfosN3rmLzG8eGg2o+1kw1RX+S1E7NxUKMxfJlsxKkqpYC+oXhOmwtr7TTD0lp4LtEVECMKiJnTXKWQ3LX5i17Tyx+xHXBu1HadV6Ypk5Ga6OgW+QOH7oO4Lry5znYOydoNQpGnjqdNSiNTVqQbIrFrKKhQ2IN9NbQvywOiWL2haqtDD0zerUZyz9jaoxXMmjd4KQultL79Zr9ltWO3qBxIUVe1OYIbqPmzYKbm4tbjM3orsjGVFqZMb2SCpUViKQrBnUrnYXHdubG/G1+Ewej2HKbdoI1Xtirvepa2Y9ix3XNrbreEX5IknWz98JoTemlrECxz1NbnQf6ytkKh3zBg9jrdN1+GXS8snraDHEUwpt82l9ATbPUvYHSVzSpsM9hdeF0VSTysN85KwKoGZRmy+PeBbU8zbw1vujFoCSbaaAnLmsdTob6b4rP30BGfd3QzHLqdCp003+uMYmuqg66DKTfTfppv0gWj1GgZsXbdkw9jxtetNVtTZ9Grt+vTxCM9NgSVUsGuKCsCMpBuMpNpt+o8HNiyRbuYceAPzxtNF0vcpt5mGIGGN0IrFQwS9Ii5U6EH0dfpSjXU8Pg0BpPgq1TJWqBnV6lmTXKEAcAMLoCSNQOZjEYfAkaYLFDldqhF+F9TNm2Aqd409q4Z89QsQadhmewLDeNco3GYb4DEAErjMISLn0LE2/Q1kGAuAwz9o7UqiJRpKVR2qd93fKAL6hAA50tex5Sx+oqnbA1DzxDe5EErfFPURKwfFUjnQKwCMTZGYhV3AXZ290tPqUp22Yp+lVqH3hfqyqsGIiAnzltA4nD4rEMhV1qVXdlbcSWYg81YXtcET6NlfdKOgLV6rV8PUVGbVke+UtzUj0b8RbfLEqpa+3nLXqULEG9wFPtJW9vXNHj8UHIstrC173J85YWO6I46lfNhy6/SSzD2DX3SI43YlVqgSnSqOxtdRTa4PiLaeuVlqkE96VMncJNtjdVuMqWNQLRXjnN2/VX+JEsro71f4bDWZh2tQG+ZhoDzVd3tvI0jvQjYVTD7OxlWoCprUmKqRYhVptqfMsfUJT6qLT6o2jhu0pVKd7Z0ZL8sylb++fOOO6JYyixV8PUJGmZKbsptpdWUEWMiaaZVA3XB5hjp4jWdCAdTc+s75nNseuN9GqPOlUH1Z4Ns6qP6qp/hv/lhWz2bsJKtJXd3B7wABFgAxGl926a7CYfLjKVMHQYhFBO/0wJlYXH42koWn2yqLkDsjoTqd6nnNl0O6L4vFYunUNJ1RKqVKlR1Kr3WBIFwLsbWsJywxzmVuV3Ph2zywuMmM1fla3WmLYek3Bawv5FHHxtKcAKtmXmWHqc/ZL96Y7FbF4ZqSMFe4ZS2644HzBIvKir9X+0V/qg1voOhHPiQePKenGzTzZS7a3E7Sd8quAwBDWtyULYHfawE9sdtIvl+bWwIO4A2AAtytpf1zir0X2im/DVPUmb928w32bjV34ar/hv9k1uI2R2hnemwREyupAUW3EaHW3Dhzlldbd/kHd39olvMhh8ZV2y9jY2rVRBhaguy3ZkZVVb6sxIAsBrLq6ZbFbF4R6KEB+6y33FlN7HkDqL+MxbO6NY8Kv2lh9ivh2elmp1wpyDNWZi49EMr3XU7yPbxjY2x9nNQUvtGpSLIpqKtamgVzfMpp5L2Ghub3vNNX6JY1CQcNVNuSMw9oBEy8NsaotEh8PWz2ew+TOddbd7L5eUdS9s9Pny1hj3XzdOOjWztmsKjYjEFSHKonailmphgFYjLc3UsbA8LWuZ26H0aH/jlEYYk0VNQoTrcdkwvuBtcm1/CaHE7FrpYrSrtrYj5PVW3tGuptLA6rOhtanW+W4hWp2UrTRhZjm3sw3qLaAHWaykkvlJTrcohsRTDAEdkCAdRcM+8cd8rmngwuazAX3ADQeNjLi6ydgVa5p1aSl8qsrKou2pBBtxHpe6ZOw8BToYamr4di+UM/wBzszZzqQTl1te1vCcWlFNSfMLEgaZiWBBtvsP/AMnTEUGJ0NvHMwtpawA08ZbFOharUZ8MShzZB8ly73Ftcn0b75G+mez0VUdKXZksVYKhF7i4JAHgR65mW2b0XHV52k/UhSsmKY6nPTW/PKhP1pHusxmpbZpVFKKSlFg1QXQd5kJccVA3yf8AVbslqGCDOpV6ztUIYWIBsq3B1HdUG3jMHrT6HVMatOthwGrUrgoSBnQkNYE6XBGgOhzGbEVxyu+rUdmVjmFiMitqw50gbes6TXvhWKt9xYA79VamCO9bgBu3bpiYunWXu1tjFW0uadKoguCpNsmliAee/fpMJyhFjs3EA+eI58s3KQeO1yRSY9lhEBFu6FL6n8Gy7/ZLu6r8Nk2Zhhb0lL/rszfAymMF0YxONdKdLBNRTMM1RlcBF3G7OdeJsNd0+i8BhVpU0pLoqKqL5KLfwiDKiIlCIiBxOsRA7CcxEDgziIgcxEQE44xEDmcRElWOYiIQMREBODESUJyIiWcDiIiW8AJw0RFWuwnMRCOBERAGcxEBERA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFhYYGRgZGh0cGBoaGhweGhwYHR4aGhkcGRofIS4lHB4rIRwaJjgoKy8xNTU2HCQ7QDs0Py40NjEBDAwMEA8QHhISGjEhGiExMTQxNDE0NDQ0NDQ0NDQ0NDQ0NDQxNDQ0ND80ND80NDExMTQxMT80ND8xNDs0NDE0NP/AABEIASwAqAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQcEBgECAwj/xABKEAACAQIDBAUIBgcFBwUAAAABAgADEQQSIQUxQVEGImFxkQcTMlKBobHBI0JikqLwFCRygrLC0UNj0uHxFSUzNERTZBZUc4PD/8QAFwEBAQEBAAAAAAAAAAAAAAAAAAECA//EAB0RAQEAAwEBAQEBAAAAAAAAAAABAhEhMUESYVH/2gAMAwEAAhEDEQA/ALmiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAnjWrKilmYKo1LEgADtJntKw8s+M+jw9AHRnZ2XgQgst+5mv7BA3nCdIsJVbJTxNF29Vaik+F5K3nzB5tct8ouNQbcRxEv3oDXZ9n4ZnYsxSxYm5NmZRc8dAIGxxEQEREBERAREQEREBERAROJD4/pLhKBK1MTSVhoVzgsD2qLkQJiJrbdOdnj/qU8G/wzunTXAHdiqftuPiI1RsUSNw228NU9DEUmvuAdb+F7yRBgcyk/K7ic+OSnwp0Qfa7MT/CJdk+ePKBiC21MSTchWRRu0C004d5bxgRVTRJfHk+p5dm4Qc6Sn712+coDGVrU72Nt+627v1n0d0apZMHhl9WhSHgiiBKxEQEREBERAREQEREBMPH4xKNN6tRgqKCWJ5Ds4nhbjMuVT5SNtmrX/RUbqUbGpyaqQGC9yqQe9uyWTYiukvS/EYwlUZqNHgimzuObsN37IPHjNWTBKOAt2SQVP8/nOFR2JyWQcyLse0Aiyi86ySMMH9FU8J1/QgeEl/0V11zt7QpHhaeRGtmsCdAw9FuzsPxl2IpsAOBMzsBjcTQsaVd17Axy+G73TI832TgU+7wgbXsPykVaZC4pC6XsXUddR6xUeku/dryvuldY+uauLxLoQyvWqupv9VnZlOvCxEnvMg/n5yLq4YK2fdrlbsPP885yyxWViY/DuVVAvWfqjjct1Ru759OItgByEoHAUc+Owqf3lMm32WD/AMs+gJnTTmIiAiIgIiICIiAiIgYO18eMPQqVm3U0Ld9hoPGUXQdnLO+ruS7nmzks3vJlkeVLGEYenQG+tU63/wAdMZ2/H5se2V7Sp2/PKbxSsjC0RlZt9vh+bThADu9nZ3z2SoAjLuvu8PzpI+izKArEM1rE5QLnsUaKZplmKbzBxNIkPqTe2UWHUsBoDx6wveZLPfd3aTDxFVT11N7ggWa41O6wNr3FuY3StMmiM4U+sLn/AC98wnxVV2VMPRNQt6J1sxX0iigXK7usbDxF5TA4bNlQ7rWP7I3/ADk70a2jT89XpkqjkJ5pSwQPRUtnRGJAzZjcgbxb2Zyy1OJjN5aapTq1UcUcTRai76pe9m9n9L8J64+hd3Xg6Bh37j77TYOn2KptTw+GBVq/nxUCqwY0qSrZyzAnKGN7C/HTdIXaDDPSPNXXwN5JdzdXKauodAqRqbSoc0Dsf3VI/mEveVD5MsJfaFV/UpX++wHyMt6ZqkREgREQEREBERAREQKo8oeJz45V4UqQHMXdizd2ipNfQfnlynfa+I87jMU+utVlHcn0ZA9qkzra06ScQdcwtf2iQ2KLo2ZkJKiwdQSMtwSDbde2slnxCKQCwDHhvY9yjrH2CZuF2diagBp4WsV9dwKKW5/SFSRx0Bl3ImmtU8YWJyhze1hl0Bsb27/lJDCYVrhnFuKry7T23mz4fojizfO2HQcOu7n2gKoHsaZlHoS9uviVv9ijb+JzJ+ofmoLCPZr7rgj22PH2iR2JwiOoDqDY6dh7Dwm5r0IA/wCsrDup0dPwTWcfQelVam46yneBYOp9F0B+qRr2G44RMpSxg4PBpTvkUC+88Tu3k6zttD+yP2mH4TPa/wCeftmJtaqRSS3pB2IPblJ05y1I33yYYbr4mpbetJAe4OzfxLLDmm+TJP1QtxaoSfYqL8vfNynKtkREBERAREQEREBPKrUCqzHQKCT3AXM9ZB9MsRkwGLYGxGHq2PJijBfeRApzo/hK+IW9Omajt1nYnIiM93OdzoDrewBOo01m67O6FrvxNUuf+3SulMdhf03Pb1R2TI6BUcmBTS13dj3Bso9yiT/n/sP9y/wi5EjrgNn0qAtRpInaigH2tvPjMotzmN+lLxDjvR/6TkYtPWA77j4iRXvecXnRHU7iCOOsgKlXHpeyGrnqVHUAUz5tFNXJTaxGZXUUrHUgkgmBsB7pF7c2OmJQKWyOvoOBcqeTLpmQ8RfuIOsjTtfEqerh3qrZPSoPQfPkqs6LnOVrZE1HrW1JnpW6SKi3yo7FaZQIXUMWDO+YMMyKigAlhfMbEA7iNO2lhqmHbJWTJf0XGtNv2X+RseyYeLGlL9sn8Jlp0a6VqauoV0qIGANmVlYXsym4PLUSs9u0UTEtTRQqJWfKi6KoCDRRwGYnThNzLbNiyvJv/wAp/wDa/wApts1XydpbBqfWdz+Ij5TaploiIgIiICIiAiIgJq3lHqAbPrA/XyKP3nUfC82maT5U2/U1W+rV6Vv3WzfKIO3RRP1TDjml/vMT85B7O69Sq9z1qjneeLMR7rTYNg9XCUOygh/DeQGwh1L8zeZyollLDczD94zv55/Xb2m/xnURMjv+kvzB71H9JyMYw+qngR8DPOcGXY9/9pW3ofY/9ROw2wnHOvsv7wZhuJjVF+MbTafCjQADuGm/slT7Tq58U54GriT7BUKj4S2g1iCdw13ctflKYpPmfNzTMe93LmdMSrq6CpbA0u3MfvOx+c2GRHRdMuEw4/u1+F5LyKREQEREBERAREQOJX3lbqWp4VedY39lN5YMrTys1b1MJT5+cf7uRf5onomMC1sEh5YYH8Eh9i/8Jfb8ZJ4R74BT/wCKP4JGbGP0Sd3zMzkJO8XnS85vMI7XnF5xecXgcMZ5qLuo5sPjPRjOMIL1F7LnwBlGXtnEZMPWf1abka8SpA+MqbDjrOBwVF8FljdN8Rlwjrexd0Qb918zadymaBstMzketUVf4R852niX1fezqeWlTXkij3CZU6qLC3KdploiIgIiICIiAiIgcSqvKnW/XMMo3rSc/eZP8MtWU55Tz/vEdmGp+Jetf3AS4+pWzbFBfAIoFyaLIBzazKJHbPR6aKro6kDW6kjxFxMvoZUvhEHqs6/iJ+BEngx4TFioFMUh0DL3XF/CewaS1QA+mFP7QB+MxzgaJ/s0B+z1f4SJNGmFmnGaZbbMThnH75PxvOjbNXg7j7p+UmqmmKzT12aLux5C3j/pOX2aeFQ+1B8jPbBYYoCC2Yk3uBbTda1zLINW6f4nr0KXIPUYd5CJ/wDpILodTz4iiODYgH2K5P8ALO3SvGZ8XUItZSqLyIQa2/eZ/CZfk1pZsVhewVHP3XA97CdfMU+rtiImWiIiAiIgIiICIiAlI+UCpm2nX+wlFfwl/wCeXdKJ6aa7SxhHrUx92hSlx9Spfobj3NN6FNWZ1YMSAAqq4sCWY2XVTpYnsk5XwtWzNUOZVF3VKrM6La9ymUXAGthrbdeV5RqujB6blHAtcagi98rj6w+HAyf2D0sFEla3UJdmL2BQszF2zOBe1yfTtpYbpMsbLtZWwY7ZFNEDi+XMpZ1ILBGuMyFgRvINyDpeDsugPr4odvVI9yWkjsatTdKiIVemjWWxuoR1z5Lj1esLcAVkPitl4pDloPTdPq+ccoyjgDoQ1uY7Jma+mmQmDC/8PGODyqJcfhyGZmy8aXD5nputM5WqL6FwLuMxsOrx5XtImh0dqv8A8ziCy/8AbpFgD2NUPWI7gJBdIMea9RMBhVUU1fzSqtlR3W5csB/ZpZieZUnXSXUt4dS+1OmqIwSghrO2i+lZv2EUF37xYdsxMRtPayo9ZsOKdNFZ2Jp01si63yvUZ725i8nMBhKOz6bZQCxH0tZx1353P1U5KNJpfSHbtGsrpQRF85kWqyJlulNy/WawDXbKO2UQWJrE5mJuTmYn7RuST3m83zyUUPp83qYcD2uyf4TK8xraNrwO7t/1lr+Smjbz79lNfAMfnN5eMz1Y0REw0REQEREBERAREQEoDpFUzY7GMf8A3DKP3VRB/DL/AJ897VRqmKrLTy56uLdEzEhQzVCgLEcB2S4pXhe3L89kA/nnz0mdtHoztDDjM1JK6C92oMWt3qwDDwkTRxSuOqSCN6neLTe5U0zMJjHokmk7ISbnJoCftLuJ7xJzB9NMQvpolQc7FH+8t1P3Zrjf6fnwhSLWk/MOt2rdMkNN8qOtTI2S+UrnIspLA6WPZwmB5OcOv6RUc6mnSVEJ5uxLnvsg1+0ZrDVOXukhsLaZoO7ZkVm82yZ8+QlGfOjFFZhmR2todVi46nFlbp5RKbPgiV0VaiGoQL2p6jMfshipPZKxbZApNmWsXIOov1StvfN/rdP0VGWknnXYEXKutFdLHMXAZ9+4LNACgaabybAWAJJNgOC3NgOAAkxMnjiRoBrqQPEiXR5MaNsPUb1qpt+6AJTDC7KPtrfxvL38n1HLgqZ9cs3ixHylySetmiImGiIiAiIgIiICIiAnztRLZ2cGzrXeohO7OtZnW/ZcWPeZ9B4h8qseSk+Anz1gw75FpU2qPUJKottd7EknQC15YlWFsnpOrs5D5XOT6N21QKDmsO1jvFwcokd032Lh6tJsUjJTxCKWexVRVCjUa6CoANDx3G807auDr0x+s4GqFG5iqsB2hgdPGYmCGHYhlUEjUBrkjtAY6eyJO8q2pHoz0dp4iqaeKr11zIGpZMq5j9dTmBAIUoQLa9blNqbycYAsVFfFqwUPcuhGU6A6pzB8Dymq1KmmrEWIIOazAjcVPAielPb1VCwBpVC7AkuXUsyrlDNluua2mgAsJcpfiSpbank/qUVapQxiMiKWK1wF0Av6a3E0uhtJyFUUnLvYIFucxb0QttSewC8ncRialUBarJkBv5tC2S++7E6tMrZm2DhqxrU6aOxXIQxsyre5NNrWUnQEHfYa80/Uic29Nn9AMdWGarVp4cep6bi4+sqk5T3tO3SLoOMLhnxAxj1GTJ1WQBWzMqWBBuD1tO6e79LCzO7JWVqgQdVVFlTOVGYOc2r39gkZtbbD4hVR7rTVs+RmzVHe5KlzcgBb7r30klyta4gwPpEvwYnwUmfQfRejkweGX+6QnvKhj7yZ8/KpZwOJV7d5so+M+k6FMKqqNygAdwFprJmPWIiYaIiICIiAiIgIiIGFtZwtCqx4U3P4TKI6PYk0DQqgE5AuYDeyFSjgczlJIHMAS6OmlYpgMUw3rQqH8JlHJXyqqBWZiNFRC7mw1NhwmolWbsnpA7pfzlF8zOTlPVVQUCIF9IEjMTmubzWOnWz8AymrTdExOn0abqp0B6q+g/HMLDTWafjXT0quGqjT0nolfE6T1wFSh9QIt+yx98THvpanuifRzBO7UsUjO7WakxqsFKgWdBlYdYGzdobTdJ6n0R2XUDXoGnZ2QFK7sTYAhr5mXVSDxtfXW80mriqY0ZlU3BBDZWVhuIINwRzEyKXSSuOomJSwG9qaE2J11UgX47oyl+LLGd0s6L08GqvQxLszsAlCqAzNzIItoo1JPKQuzcDjMSzJQoZmHptfqKftMbAHja5NjumWrsWLs7O50zvYm3JeAHYJnYbbtWnTeitnpVMxKaKyliC+RtxDa3BI3mxEvZP6nNvej5PsewBOIw633WJceIUAyN23sLEYNkFY03WoWCPTJvmUXIZTqNOM2BOl6ZQCuKVgoWwHIWG5is1/bW03xLh3BUKmREJuwU+kzkaF2sN260mNytLJp49HKOfGUltcZqenYXBPuWfQ8ozyd0M+PQ29Eg/dRj/MJecZekcxETKkREBERAREQEREDWvKC+XZ2J+1TK/fIX5ysOj20Rhqi1rErkZHtvCmxBBtfRgL24MTwlieVI/7uq9r0R41qd/dKtUnw/Pzm8ZuJVh4PbaebS2JpOthmLOHBubtYsSco9EAm9ppHSn/AGfiGUYen9MXHnmpC1ApfrZhuD23FbG410kJiRhw13NHN9oLf26TLwVWm4Ko6Gw9FLbt24cJJjq+m090SoYBVejVw1F6ihnps6XaolrlVv8AWU6WA3EHnJqlsfZ1akjVcFSRnBP0asv1mUEMpHAX4jUGaHiMbh/RastwdNbFWG4qw1VhzE7jHvUGUYyo6nevnANP2rZvfFn+Uld+kWyaVKsUwNVyqKTVDkOiNoQita7aXLcurrO2D6LY+oquxpUVewTzzKrNmsVyr1mF7jRrHWcUqeRQqqAo4DUdpPfMvA7cemEQrnp0zmSmXystrFVVjo6AgEIxFso3gC1u5OJyvet0G2mmoFCr2K+Vj94ATXqqOrtTqI1N0OV0YdZWtfhvBBBBGhB7ZtlTpaluphq2b1SVVdb+k2c6XJOnPsE1nF13qO9So2apUbM7D0eQReSKoCjsEY2/SyNr8klDNiaj+qrnxKL8jLglY+Ruj1K7/sAe0ux+Us6ZvqzxzERIpERAREQEREBERA0bytVbYJF9fEUl8Mz/AMkrzC4ak1SmuIcpRLWezZb6HIrPvRCdCdOAuJvfleYfo+GH/lKfClW/qJXoYWsRv3jeCNx7xN4+JVi7HXD06IcYalhAGOdXRL5FJGbPvNwAbkmabtTaqYzFecpqq0KKsiMFCmo7HrubDVdAB/nIJ8DTOhUkDchZig7lvb3TPR7WAFhuAH50iY6LW2dHsbTNA4daafpFPSwRC70yTaqmcWcgaNe9jqRbfKbV2bgfN5sZh6ICr16llTULqUKEOCTuAle4mmrgZ1uRqpBIZTzVhqPZMb9HQkM5dyu41KjPbtAY6HfJcem3vRprZzSz0qT1B5nOczJTJRS7ZteJaxvYScxnQbFqSEq4fEFRc09adS27Q6i57bcJBPWBuGFwRZgdAQdCPAzYdm9LyqFambPkyU8SEL3AGVTURdQ40uQLNlBuN0ZbniTVapVVkc06iPTqL6SOLNbmPWXkRpPDENYHf1QxPgd82bpBt6niaFKkFepUpsGOJdSmUa5lTN1mzaC27Qm81bEnqHtyqO3MwHwmpdwq3fJPh8mCJt6VQ+Cqi/ENN6mu9BcPkwNEcwW+8xb5zYpirCIiRSIiAiIgIiICIiBXXlfH0WFPAVzflc0qlvgZWlVjlNja28jlxtfdpLz6W7AGNw5ok5WDB6b2vlqLextxBBKnsYynMZsDHUCfOYSoQu9qdnUjhlt1jy3TWNSocrzue9m+F7e6PNry95/rOK5VNHFSlyDoVHsDjX2GdUrK3oujd91PuuJ1mWLNld1Udo7mb+s5zNwdu4kMPxCADyHsZT8xOrHsPhLxOu3nn5g+7+s7Jibcx+ddRpeeLNbgfA/0niX10BJ5AG/+UmoJQVCdb3+Y7uMxa29F4l7+xQT/AEnNHqqAdTvPIHfYdmsztgYQ4jG0KQ1uwLc7XBcnuRXmasX1seh5uhST1UUe4TOnAnM5NkREBERAREQEREBERATi05iB5tTB3gHvAMiMX0WwVW5fCYdid7Gmmb7wF/fJuIGk1/Jhs1gctJ6ZPGnWqD3MxHukdifJNhzbzeIxCd7K/wARLHiNiqK/kprA/R43T7dO5/CwkdX8m20FPUqYdxzLOvuyt8Zc8S/qppRP/oPaZfL5imB65qgoN3ADNw9WWH0C6FLgVapUYVMRU0ZwOqq78ichfeeNhNziLbTTmIiRSIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUYGBgaGhoaGhwaGhoaGhoaHBgaHBoaHBgcIS4lISQrIRoaJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHhISHjQhISE0NDQ0NDQ0NDQxNDQ0NDU2NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NP/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAQIEBQYAB//EAEIQAAIBAgQDBAcGAwcDBQAAAAECEQADBBIhMQVBUQYiYXETMoGRobHBFCNCUnLRYqLwBzNDgpKy4RUkwhZTc9Lx/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EAC0RAAICAQMDAgQGAwAAAAAAAAABAhEDEiExBAVRE0EyYXGBFSIjJDSRFLHh/9oADAMBAAIRAxEAPwANu7UhblQEqQhrmR91RKV6eLlRwaIGq7E4okK9PFyogaiq1OzOUSUtyiLdqKGpymqszcETkxBo6Yqq0NRFanZjLFFlvaxho642qRXoyvSowlgiXa4zxp32uqhXp4eijF4EWZxVDfFVBz0hegFhRKbE1wxPjVbfxCqJdgomJJjWmW8ajEBXUk8hNUgagmot7su0xNGXE1Uo9HV6sUsKLMYinC/VaHpwei2ZPEiw+0Un2ioOams9Fh6SJ5xFCbF1BZ6j3HoNI4EywfGVGfHeNV73KA70HRHp4k98cetAfFmq9nobPSs6I9PEmNijUG5xe0GNtnIeQAoUmZ8eQ8aE96gMe+hjXK30pORWTC1FNbbosftFd9oqNNJS1G/pokm9TDdoDUwmpcmUoIkM9CmhZqXNUORShRDQ0ZWqKpoymoQ0HWnqaEppy1RdBg1OVqEKetBDQZWp4agg05TTIaDg09WoIanA00yGgwanq9ADU8GqszcSQr0QPUYGnh6DNxJAauLUIPTi1BGkq+0Qm0P1r9RUDhulxD4kfympvaM/cnwZP9wqtwJ76H+IfOmjzeq2zxf0NahoytUZWoytVne0SA1OmghqXNTM3EJmpjPQ2ahu9BSiOd6j3HpHegO9BvGBzvQWaudqGTUtm8YnMaGxNKRQnFS2axQG5Q29dPJh8BT7hp2ExHecQpgaSATqNdTULdmXWZVixptXuha4tSmkpnSmmrEDUmbrSzTCallUPrqaKdUNgyAtFQ0NaeopEIKpp80NafNM0Q9CaIKEoooanZLHqKcpoc0oNFkNBQ1PDUAGnKaZLiGDU7PQAacDTsloMGp6tQA1PD07IaDhqjPxBApPe0cpsORiZnanZqzmKxA9G5n8be/MapHD1mV4lFx92W/HjNkjxX/cKr7Rgp+pfmKsMUpe3IR3BK+qJjWdaU4I937t5zLqFI5+6K0hDUm7SPM7jl09RBU3suCzV6Oj0JMK/wCVvdRVsP8Alb3Gkj2W4+UFVq4vQyp5gj2GmF6ZNJhGegs9NZ6Cz0WaxiOuPUEY5WEiT3svxiaZxG9CnyqnwF37r/PPxFRdujHq8ksMYuPuzQF6YWpEE7kAdTVzgOGWWbI1xnbmqAQvmx0o3Zvl6rFh+J7+CkJprGtqeDYRN9/FiT7gQKY2AwfT+vfRpZy/i+BezMDfuRQMK0u/kPlW5xPDsEfwz7WHyNVN/hmGUlreYFhtpcgAanvax7aSi09zm63uOLPi0xTTv3KlH0HlSzQ3UCIII5EafDlShqhnu4GpYote6Q+KTLXFqSaVmxxFOps11SxMiLTwaEpoqikQh4NOBmmAU8GmaIcKWaQGuFIKCU8U1RTwKolnTUjB2s1xF6sq+wkA1HAqz7OpOJtD+KfcCfpQuTDO9OOUvCf+jSdreGItkOqKCpX1VA0PdjTxIrNcHwPpWOYwi7nmfAVu+0yThb3gjH2qMw+VedYDiORABz1Pt2+ECttNs+dx9bLH0zin+Zul9DYu2GtLJVFA3L/uajWuK4W4YT0LH+GJ+Feb4/PiHLuSVHqryA8utA/6eo1TusDoV3B/etVFI855cj3cn/Z6few1l9CgHiuhFYntBwv0KsoeVJLAwNQT08KHZ4xff0dpXW2xzB7jLmjKNIWRJPn1qLxfG3GRkuOrm2+UOgKhww/LOhmNKJRj7clRyZJUpNtWO4RxF0JyuR6oMEjx5eVWrcXcCS7AD+J/3rMcMfU+Y+RqddM+IHKQJPt0qI8FdRJyyNstP+v3j6uaP4nb5A0VO0V8bkx1DsfgTVIuI65U/Uczf6VMfzUn2kfnRvJgp9zGPjVGNmmt8duEAhyR7D8waaOIvcaHIIAMaAfl3geJrP4Z9ZGx31B18wSKceI+jcnctCjzOWk+Dp6TJpypt7Grw+FLak5V2nqegA1J8BSXcThk0Yhj5lj7VUhR/qqrxnEXK5UOkFZ5x+L3mZ6wOlZnEI5Onl4UJeToz9dkm/yul8jXXsZg7gKlY5SAy/EO3yqsxHCVS25tOXBkqNCdpgEb+UA+FUNuy+8kg84II08RVrhLrL5cx/XOnpRzSz5JUpNtLyygbHs9wAsYkCK3nDcd6G0QujPuecdP661juK4dVupcURmaG6Zhz9u9WDYmRvoPgKlKhdTl9WWryWl7HMx3NQsRxHLu4G+/l5iqDF8TZu6mg6j1m8unzqqaw51ysepgnXxMVVmCibezjQ4MOD5dPfQcU7MAVYBlMqW9WejRyrIWrbrrDCNZgiJ2NWmB4kT3HOvI9fOldjSadl7aBA1Ik6nLtJGsTTwajYZ5FGFc8viPsu279LEKDSk0yaQmkdtDy1JmpjNTfSVJLGLTwaYDT1NBmh4pwNMp1BaH0XD22ZgqgknQACSfIUEGtp2Hw4Aa4QJ9UE8hzqoq2c3WdQsGJyq/ZfUrR2ZxI/w/5l/enDszif8A2/5l/evQcJeziYI23jWQDOlHrXQjwPxfP4X9f9POv/S+I/IP9Q/ep/BOAX7d9HZQFUme8CdVYTp4kVtqrLl5iWUHI0DKTrMMQTt5T5inpRnPueacXFpU1XADtZjFt4a6CQCyMAOsqRXkPpa0fazjLNntM2bL6ra6g6MIPSsI/FByB9unymtI7Hmvwb3h/Cxeth0gxAIG4MCQw859lG/6A51YQANztAGled2eP3rbZrb5G6qT+4mpt7jPEsUhCvcuKCAQoUCSCRI9h3qnJCUWWOLyFiCqsukgyVkc1Oh9ulVnFrv3RCqFVRoqiANZnxM8zVVdwmP0Po7hDeqVysGnbKVJB2O1Q0vXM7pdLBlzKysTIMHQii1Q42mXHDn0Pn9DVvhDmBXnuB161nsDfyop01/apmGxRZ1CB2cnuhUkk8oysWJ8lqUi8j1NstmY8i6+TH5NI90UqsTuzn/OQP5I+JNOW/dI7+Gdjpr6O6h1EiSUA212pPtbiAmGKFiApKXHJJMALCkST4GijOx2JIQAHc6wSSQPMkmqLiNzvp+v/wAak8RuOlxkuhg4jMIJIJAOubLyIqox92Wtn+PmAD6vQE/OmUjWYK9BIPmPbv8AGatsNbtucrCBEyIHP586xOL4jcBCogIhSTuSYnUz8BUzhXanFWAQllGDEE51zbAgDfxpakVTNne4bYtqWDs51OpB8YAqqv3EWdIquXt3ixthrW4J7hMwQebabDas/d4pf1Y2/H+taepBTLbjLxbB/iDe0mfrVVxfFEIqLu2p8uldxTEFrCk6TkMbxJO3uqPhhnxNtT+dB8qmTCg+Ea5bdLioQ6MrjumMykESPMVfjthjQAMqyARPozOurEiYJJ1JI5mr/wCwqeVNPDk6Vl6tEtpmaxPaHFujoyIVuKQ/cEsCWbc6iGYkRsTVALTLqwI6SDXoy4FOlUvajCqqSBzp+omOLRE4XczJNT5qn4C3cYfxfMTVuGrKXJ9l2x/to/cWuNJNdSO85hQCaO1RzSJY8URaEKcpoRigk0ao608GmWg4cVuOy+HZ7QDaJzA3uH+I8l8Nz4DfAbV6b2WMWU/SKqB43eZfppfM0Noae2iVAxeJAMFwiiJYkAkkTAnwqG3EMKN76k/rn5VrZ84XdQsXhwwMyNyCNGB6g/0KiJjrE9zEID0zgg+YNWFxpSduvyNF2B4l2vtst9gWzet3oifMToay+EwvpCQDEDpPwrWdtm+/f+ulUfZhZdvIfOnJ0gQFuCHWH/l+s0C3grqTkvMhP5GZfD8J6aVt/sgg6xUJ8Ck71l6hW1GQxIxSmftN0+PpHnSY1zeJ95qssu7XGLszNBlmJYnuwJJ1OkCt2+DUDrWLxgAxDgbAH/YPrWkJ6iaXsHw4JtIOs/Kj4WxeR1dGKOplWXQg9QabgSAlqen7VepiEj1194pyk1wJsjrxniA2xNzTaTMaRpI6aVz8fx5KZr7sEdXUNBGdfVMRrFSxeT86+8Uj3kP4194qfUYjP8QuXrjvduEu7GWaAJMRsBGwFAxW1n/5DV9jHQoYZduorP4z/B/UatS1DRsuD4ZWSSJ2/wBoqxGATpVdwfGKiQyFvJo5Dwqa3HEH+D/Of/rWMscm7RTbCfYE6VGx2BXI2nI/Kp+Ax3pnCJhiSZibhA031y0HHcQthmQ2s0CCVuGJjUAxrG09QaXpzFuYbip+6QfoH+6hcLb/ALq2f41+dSe0AEQoyrmWFEmBJgSdedRcBpftt/En+4A1u+Bs9VSlY0xG0pSa5SDhVJ2oSbRq5mqDtY/3Rqo8guSm4L6rfq+lWgqo4J6ref0q1FEuT7Ptn8aP3CAUpoc0tSd9nMaDNEc0It4UMljxRNaEtPBoMwgpwNDBpQaGOxWevS+zzxYT9NeYMa9H4G//AG6fpq8fJ4nefgj9WR+1xzX0U8kLDzZiPkgqmyDoK1XG+FvfyXbcHuZWBMc509s1THg18fgPvX96mV2fPlc1tTpFbyzf+5tk/iUT7UH1rM2uAXmMZQvmR8hV9jCFKWh+BRPugfSrxXYPg8r7dN9839dKz3Zm7F5l8Pkau+3T/fHy/aonZ3sw+LDsgRckBme46kkyQBAI5bkCtpK0JGgD67ih3FHWs9a7IXjiThocXIzZS6qMg/Fn1DDyFXd/+zLEhZBQnoL7T/MkVh6bKoHeiN6wl8zdvH9Q+n0q44V2ae/ee0gd2QnPmcIluCQS7yZEgxG8U3tHwU4NjbbJLWw823ZwQcwGrAa6H4VpCDiySHl+5T9I+OUfWpWH4LfdQypKmQpAcgkGDBCkH2Guw9nNaQc8oj4H6CrXAcTe2mRrSORmyMxYm2TGqEerqJ05mtiWzPX7LI2VokbwZ5wQeYPgRR+F2WZzlRLkAyrZjpzbKhzaddqbiFZmJMSerLJ1kkknWalcIxD2nzBQwggjMYYGZVshkidfZSoQziuFdcpa0lsAfh9IC2oExcMn/L1NQcUO9a82q84riHvsO4qIogKC2VRJYwG6k8umuutVHEVh7Y6ZvpRRUSxwzuVOVWKjfQEeQMifZJq1ftTdZQM1vKABEMvqgr00OvWqXh/EiisjW1dCZBLhGUjNs28d4yOcCgYDCPdL5FzlA7ttlCqM7uQ28TpPzihO9ir3NKO2F5oh7XdJaANJggggLqNdvAdKi4nG3cS2eA2UBe4AABJaO8V11PWoGJwXpVZrSuUtohus5QlXZspZYiFJIAXXxoXBeNXLMhYIblmCQwO5ncb6eNJuty4pSdN0iHxW5mUaHRhM76GI8KHcwjs8IAY11ZV0OoILEc5rse5YMSZJYEkbTImKu1wLlUvZGKIRJA3HMdPpNDJewy39oW2QS5czBDZumzK//jURruJG5vfz1b3eKo4yraiNScmQrvoSvdI21NTsNiXVFy4ZbqxJYHvCTqIOlKWl1twQo1fzM0r4ltIun/XHvo/EsK75dAsDWSgnbkGJ99TsXfc957ItidANzofZy+NJh8W1+UFiCRlACAEeOdtZjWSacaSa8g1un4BcMt5Vj5bVPBoC2mQ5WUqRGmh+IMH2Gig1zS5Pse2fxo/cJNOoYNKXqTvYrGglqKWoZFJiHA0oNMDUoNBmh4NLNNmkpjOZq9F7NPNhPKK83Zq3fZK/NpR0kVcOTyO8R/ST+ZeYPiJssUcShOnhVzbx1lhIYe2RVXcsK4htDyP71DbgrzoTFa0fNlvjOMogOTvN8KqMMWYs7bnWn2+FZdW+NFuwFPlT4A8o7dP99HgKquCcXfDuSjEAxI5NBBGngdeXnU7ty84iPD6U/gPY7E4pBctqioZCs7Zc0GDlGpOuk1VJrcaZMXtez4yzfuQFtqynKMshlOmrHmRzjStPe7d4YKSoOaDGqbx4MT8K8+4h2exNrEJhmtk3H/uwpDBxrqrbRoZnaNascb/Z9jLds3MqOqgkqjhnAG+kax0BNS4ryUn8heyHBse5bE4ZlUSwYswC3DElCus8txHjWb7SXrpuP6d89wDK2mXKRIyRA28K13YTA44qXw+T0LNBF1sqOw/KBrI2keVZntnwjEYe432hRmuFrgZWzI0tJynzOxprkT4H2LGe2gBiAp12Onjp7+lTsTgkuZFRETKAGLujBzMliYGXyAqudHNtAnLLI3kR0O/lXMrlkIUoFCAzzIHeaSOZkwPKrM2XGEw6WXbMqODEZLgUc5nry93iajXeFB/SPmtLmYlVa4uYCfVHy1oeAtj0rNcJyZTlhZliIWTlJgHWNNvGoaI4RwSZPq6AHx0G1Ar3J+Lw6siIqIjKO8/3ZLHr3QMoHhr41U8V9dP0t9KnYtCbNtUzZ+8XJUKNYygd0ABY8Zk+AqBxP+8T9J+YoY4sLhMZaW3dR1JdgMhygjcTJ3Gm3jOmxEbBYkoTM5WGuXcGIOnMEcqs+Frhms3S4TOtvQvcKNnzAkKsiRlDgQNyvWqq26KwLglJPUdYmNY8qDQvONcaS6QbVlLXdVcqKVQsJl2kCSSTp0AHjUHg2PsWs4vW7j5goUoUEDXMGzK2+m0ePhI7QNhptDD5J9GhfI+Zc8HODqQOVO7OvhMzjEhRFu4ZZiDnjuBO8BuQecwaA9ilxDAq0CATIB3AzaCfKr7B4y6qlJXI0Tp3hpqBVDiCpVivqzp8OvjWl4PhkuEK75NN4nlO0gbA86TFItrXB0uWszXCAdYUcx5sASJ6VAfh+IRgLeMt5VgqHaI/ykR86m3OFW0LgXXzAMJAygkSOT7Eij8L7OJeQO9xs2zQWPMxEtt51P1EQcPwcsv3+JV1B2tnMJPiYFJj7PosptPqNRIEiDpIBOhqRxLhiWSiJcYoxl9TIIE6Q0GpD8GthGIu6gTrGugMamedA1wU7Yl3OZyC0Aabc6eKj2tz7KOtYT+I+u7W/wBtH7hJpKSaUmoPQOps04mhUiGKDTgaZNLNMlD5pM1NBrjQUIxrQ9lsdklT1ms2xo2Dv5XBmBsacXTOLr8Ty4GlzyvseqJiwaIuMjZiPbWOsY0xvR/tp610JHyBp2xMnUjnzk7TOmgHmZ8Nai4nGDK2saaftVM/EtIE+0yJiPVAA981BxmLhGLGABM06CzBdpsVnxZjYE/ARW/7GjiD2FNpLPogHFs3SykjN38oXUjMNyK8vds1wv1Jr1LsZbx72EKLY9HDLbN0sGZc0tlC6lcw51Mt0a6XFq9il4u3EVx9pXVftEfchIKFTmnKSdvWmfbWj4rheKLh2IXDkBGzG2zM+XUtBY685iTVFxRuIrxC0rBftEfdBAMmTvTlP5fWmdd5rRcZscTXDsyjDlQj5/RMzOFM58ubTaZjXpSa42EnzuUvYexj7lkeiFn0OZinpSQC2zZQmp3PhWb/ALSLeLVwmKCerKZPUyzrl577zr8K1HYaxj3tI1s2Bbl/R+mmTr38irrEjWeYNZX+0i3i1uBcUVJIlCnqZZ/Dz851ppb8Cb25K267hEy+E79OccqlcQVVuILTZkyrmJgnNrm9XSOnOo73GVUyjUwOm40EnapGOV0dU3BCyZ0JjvQN4B56TG1argxb3EwhzXHDkKoRiJ3LR3QJMRJ3gnQ+yKjvkYxryGvhMc6ncOUu9wE5AiMV1PebTKseO8kwKgDEuUZiNQfhpzj6UBe5Px6KLVo23Vrn+IB1JlQukwBMkk1UY/8AvV/SfnVrxDOiWyNWb+8EzlMkBRDGdATMDcVUYvW8B/D9aGOBccK4Vhrti9cdnz20VhG2YtBGikCAD625qqt5JAf1CTJAAJicoBMxNWfD+AWrtq5dLsGRQ4VUDKZYLBMzIBLHwB86gJaViFc5VJIJGsx0B0k+NBoWHaHBYe06LhydURnDHN3mWXgkSIP1FF7N8Kw98XfSk5ktuy94KM4/u0jTfUzt5U3jvA7eFZFtuWDorGQAe8sx3YmCIP8AxS8A7PWsUXLu6lUdhkTOAVByq2hMtBjbpqaA9iixYGVsuqzofDSrnh6W2yrcJCmIiAZO2p0A8ap8emVGXoY6cxyq0wT2xl9KCUOmhj2kwdKliZeYjBWEkq7sQxA+9UyQYByZNRRcBg0dSXuuraAxcFtWJnZQIEadedQ3+yQTbVCc0JDtnmYUwNJ504Lhgp9OAXXLJdnzNmOvdBEQscqi9grcHjbKI2RWYrPf74fMPByvd51NPDcKuYlwIHdl1JkidFy1H4jbwwCnDElNDcALxHR5O3jTlfBd/Lvl7sZ9TlBiZPOR+9MCGsSY8KIpoFnc+yjisZ/EfW9r/jL7jhTjTRSg1B6FnGmkVzUw/wBbUmSxa6KbNOBpolC0jGuJps0xiNQ2p7Uxqlgwlvibppow6H96MO0gG6H2EVW3RUK4laRyNHkdT0WKUtVf0XlztR+W3/qb6CqnH8UuXdHaF/Kug9vWouWuy1Tm2c8ekxxdpAor0DslxbiDIEsWFvIgKgspAWTJXNmA3gxWCcRWv4B21bDWVtLaVsrOwOZlEtvmUetVRVo4+sWma+gYY3Hvj0EAYlZRVCABBBJEE6LBJJnma0/G8PxJcM5UYcIFbObWZnC65ozHaCZjXesHZ7S31xLYmVa40zI7sEZcsdI08qucf2/xD2jbVEthgVYjMSQfWAzHSZPXeqcd1scKlyO7IYjiJt5cMlu6iEgekUAKW7xCksup3jx8ayHbPGYm5cIxIKupC5coUJ4ADlrM671d8C7V3sMjIqq6OSSrSCCRBIZdRIAqg7U8WfE3fSOFBOVQF2CqIA112qtNNugu1Q572RVkTMcp5dDUjH23suiOFzOiP3SrQHEgErsfDxpmGthlUNtA16eNTcQMNEW7bqw/G7hg3Xu5Rl95poza3ImDdXL5mVcise9lGYiO6szJ8KjnFysxziI+m1TcNhc7hAFlzEnQe33Vap2Xclkz2BlMGbgidD0+etMWxT4+0bS2WJQm4oeFZWKqTADgAZT4a1UYk/8Acf5B8zV1j8ALTlCUZlgyhzLqoO/tqixoi7m5QAaTZcVfBecK4Ybi3suJNkKju6BmCuFAkEBgCTO0axUNMKHyoYEkiSdBE66a+VBtMh1O5ESCRI6GNxUt0RhGaI2IMR4imUS+L8BfDMmd/SF0V1JLEhGnKO8T0I0ofDeFLcW8/wBoNk20LsASubKwUAwRJJYQPjQS5JBe4XKqFXMRoo0AEVGxGQknQk6f/pnX/igK2IuPACQI5fPerjht1FKlxKxrIZgNNyqkE/8ANZ7HXwYUdR7KvLCaCkwZNfiVssVSymphCFYHUxJJOhjodKlYfE2EV0uIpcZYJT0jGTJljMwDprURMMY10orWgB1qdIrDXr1lgrIiwhzGFySCIylPxbeO9FxOPw2WEtFiQBqmUAwJIIA5z8Kh+hFBuIRRQWdYO9Sai4bc1JFYT+I+q7W/26+4+a6abSxUnpHE0ynGm5qlksaDTs1dXU0A2lJpK6mAjUwiurqkBjio7pXV1Bnkihno6aUrq6mczigT2yQaEGjeQfKurq3xSZ5XccadS9xwvr1pDiF611dW54+ncQ4lY3NAuHMfKurqmUnR04ccXJBEvMugOlEbFP4V1dWWpna+nx+Bv2l/zfAUhvN1+Arq6lrZX+Li8Hekb8xoZE+NdXUnJl+hCHCGG2KT0Yrq6i2L04eDvRjpThZHSurqHJlRxQ8ArmH1kb1Z4XiIAhpBHhXV1VGTOHqsUU9iavGEA3PuNOPGLfU+411dWhyaENPF08f9JprcQVtlc+ylrqlyZviwRlyFwwO50nl4VJmlrqwlyfU9LjUMajHgcBXE11dUm4lJFdXUmJn/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxQUExYUFBMYGBYZGx0bGhoaGiEcHxofHxwaIRogGR8bHysiGh8oHxocIzQjKCwuMTExGiE3PDcwOyswMS4BCwsLDw4PHRERHTYoIikwMDAyMDAuMjAwMDAwMjAyMDAwMDIwMDIyMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIAQMAwgMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAEBQMGAAIHAf/EAEsQAAEDAgMEBwQHBAgFAwUAAAECAxEAIQQSMQVBUWEGEyJxgZGhMkKxwQcUUmKS0fAjouHxFRZDU3KCssIkM1Rj0hej4jRzg5PT/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMBBAUABv/EADERAAICAQMDAgQFBAMBAAAAAAECABEDBBIhMUFRYaEFExQiMnGBkbEjM0JSwfDxFf/aAAwDAQACEQMRAD8A5h9ec/vV/iP51snaTw/tnPxmrR9UR9geQrU4Bv8Au0+Qqp9QPEtHT+srR2o7vcUe8z8az+kV/amrIdnNfYT5VKjBtD+zQe9IPxFSNQviCdOZVVY1W+PKtPrX3U+VXNDGH34Zo9wI+BqVODwZ9rCjwWqjGZDBOFxKN9Z+6K8Lw+yKvqNlbOOrK0+JPwVUg6P7NPEeKxRjIp7wCjDtOedaPs1qpSfs10pHRHAK0V/7n51L/UDCnTP4Kn5UVwSKnLiRwrUgcK6er6OsOfecHiPmmo1/RuzucX4gVMicyIHCsy10g/Rw3/eK8x/41Gfo6T9tfP2TflcV1TpzrLXhTXQf/TxNpdWLX7ExpwP6iox9Hybft4kTdMRpa551065QctZlq+J+jyYh8Xv7P/y5itf/AE6Vb9sL/c3efd511TrlFKRXhRV3V9Hjlv2ybn7J58+XrS09EHOs6sLTqRMEaT+VQSBwYQBPSVrLXmWrDtHok60gqKkmCOO/wpYrZLnL9eFQWA6yQpPSAlNZlow7OXy8/wCFa/0evl5/wrty+Z2w+INlrKI+or5frwrK7cvmdtM6AEV7kFSAV6RyrKuaMh6usLdGbLcYLhL3ZQEwJBAKiRw13+lDs47D/WVoUFKZJAQoTKbCTa6gTPdFOC8XYi2cKakPVis6un+0Nk4cDsLIVqL5gRre1hG+gn9n9WAVCM2gOvlu8ataXRvqG2rXHftKmq1+PAttf5CLerrzJTBDAO+OcflULzGUwf591X2+CZQOGEoJ8dwk0VIgL7qUXWpKRp2iB8amRI0Pl/Cq303CgtsEQAFesfl60fsPFktISB7KQCTWdl07YuG6zWwZRnI2cg9I9ax7ydHF+Z+dFNbfxA98HvSD8qSpCybHwqZxTqUhRR2T727zBilD5g6GXz8Pc9VEeo6UO722z4EfOp2+lH2mR4K/hVL23jVllWQEKtdO5M3jfpUXRDGLW2UGVqzHLJ3QN5PGdTTAcm27lPLhVH2MtToDfSNk6oWO6D86nRtnDH+0UnvQflXNcR0hUD2UJ7ybeEa+daN7XxKj2Utk8N/qqpD5O9SPpQegM6icbhj/AGqD3iPjXrRYV7KmzFuyoeVjXKMTt50Bba2wlUFNpSUkjWDNCdHcV1RcEXUkQOJBPypgZtpJES+HaanZDhk7ptp2ifiYoBGzUpXnkk31jfrumufP7adZGZQN/ZAVqeNjpzFLz0uxs2fKeUAj96alfv5I6RbLs4BnQOlKf2PeoD4n5VU3CkQCQCdJIv3Upd2/jHQEl4rvITlTrcbk86VYrEKWoqX7WmkRHwqHxFmu4SZAq1LSpocKjLQqFnHlcECxo0MKOiFH/KaqkESwCDIOpFZU/Ur+wr8JrKizCsS4/wBDpOi/hXqdhEkAL1MacfGh22wm6QAeIEfCmfR/MvEIGYwJUb8AY9YpNQiY/ff7biQBkbSns67jr3iKk2cgKQFrSLgAT3WPedaWus58Q4ouHIrL2Un2oAEToEyNd+W2k00SpWvkBoO6ligxPX9J2QAKAPT+Iq6UkJSlCUgFR3C8D+MVXtrvFxSXFJIMAW0tvvurPpA6RHDuoSEFSsuk5YvebTeR5VTsV0xxK9AgeBPxNes0GbDp8K31PJoeZ5XV6fPnzMw6dBZ8S1IofaezS/lgwUz3XjW/IVV8NtTFuk5XW0kRZRQiZn2ZF4gk1N120gQEkrkSMuQ8N1iNRYgGrb6/C4KkGjEY/hudGDAix/3xJemOAWjDthaitSD7R3gzz0Gg5CpdiYTKwjiRmPjp6RS4bSdxLCg4QT1jaEkCPbzA/KnGJ25h2+zmki0JBOnpWTriruCnSh7T1nwADErNlIsGv35nuFNuc0el8hKkk2IgjjVcf6TNapbX5gfnWK267Gb6s5lABntRBEgzliCCDPA1RCNN467Td2/mF4dSwcq0hSSFSTFtcpTvmYtpE1XsMlbbjiUmE9pJ5j+Ro49JhJCmiI1hV/UVFiMqXXVKMDNvqeR2lTKcOWirXR5vsKgz7cRXqF16/tBvgpXhA9TNQNOFZIbbUogEwJUYGpgDQca4Ixim1OJGsNC8U/nKCb5bcyNwvWqsQnOhWQJIBFhrrBMb737hUD3Wp9phae9KhprqKgOIJBtBF/UCi2kRGXPjeyDyZO64VAAmQkZR3ST8SaGIgmpeuCUidSJ871CvET7tPoAVMskk3CGXYM165i+2tcCVGZ4c49a22bs15+eqCTBAIKgk3B0CjcW3cRxqZ7YGKTqyo/4YVoCfdMiw392tqg9JwkeBxXbvbtSOV5+NWXG7e6kpW2pKwScyJF7agi4Ij1pB0ZIKlykE5SRIBFo499XXZmz2nEZsiQogDLlBBKh2Tp9q3jVLNl2NVS3jQuoqQjpdh+C/w1lWZHQdEDtJ/CKylbz/AK+8javmclbeWNFqHcoj51d/ose/aPuO5nAlKQkKUSlMkqWsyfdSjTfIG+qOkV0z6MsDlwxWdXXco45UlObw7JHias5TSwMQtuZcV4BpfaW0kqNzIBjkO4W8K1VgWxo2kf5RUq3ZOtak31rIdhu4lj7q6zlnT5IOMygWCUiPFU/KpNn9G86ZhH4azpYicb3/AJrq07MahAr0GQFDXih7TJxncoPnmVl3on91B/EPgaBe6HE+4O8KP+6avik0JtFeRpxf2UKPkCaXvaHU59sFodWjm+D+BAVQuztjl4nWZ3c++nOyMPDeHEa9cv8AdUkegFF9CWZJP3h8KfmFED0HvzGYz/R3eSfbiLV9DVDcv0qVOy8WgAIfeSAISNcoiOzfs2MW3Vf8lRqRSeYO/wBJyvpA1iAlIeXmSCcsoCYMRqEjcAIncOArTbLZJXH2/gn+NWzp4gE4dv7Sz/sH+6q9jUyhauLq/gmhPUS9h/sO35SBvow4rSY3W8qla6OPoOZJWlW4pJB1B1B4gHwFX/ZrAyaUQtkcKKzKG6c3Xh8akgh10wZEqKoN7iSb3PmeNJ3isqcKySuCVE6kyJJ511pxkVzTbiB1j54Ej94D5VF3GYzZgpwilrSkD3R/pmmI6KO8RReymf8AiUp5fBFXMsUTHmBc5450YdHCoHNiOIvYRwtpXQ3GKX7XZAbUeVDunbpV+h6R1t9Mqvij86unQVg9aAv2GyvvUoZYSO4ieVU/oykBcleQZTcCSSVJACZ31e+jOy5dC0vLTOYCMpsJi5SddTzJqlqfxS/p2pDLn1q+A8qyhvqJ/v3fNP8A41lVbPkwtqeZwxD6PtDzrrPQrDp+qMqDq0lIMQE9mTmOUFJm6jrXIMJspSwAlSSVWAvqbDdXdsLgg2S2mIBt3fzFN+J5iiAL1P8AxA0y7iSZB9SXMJxLn+ZDZ+CRWm0McUPBP1gN6dhbRUTukKCoMnlvim6GAO/jSXbuMbeKEJhRQqcwHoDvHGLWHhQ0Id3px7RmcqEtYk2jspDrmYlYWEz2YsAdYN9Vx41C3hsSDlRijGoAaSTAIBnNAEFQ376eP4ZJMh2FCYsRrYg7iN0GxoJx1TawowpMKzKkDWJkDQdlOojidK9vqMLEllUEVx1u55bT5gF2sxBv0IqCP/W0+y8hR4LbA9Uk0JiVYp1tTa1MjMIMBciY1MkA/nTXF4kELIGXKD55Z+BmonEhOVJhKb3Oqd8c8xOn8IRiwkoGyKAxNAXXHmNyZ6YqjEgC7q+fEX4bDBL7Le5DK/TIn50PssPYYqytpdi5AcEi0aQTR+BObEk7gz8Vp/Khdr4F64aSmSrMlycqk3JhVjmAKj6ClawgZyB04/ibfw/AcuiQkEmyePU8w1HSN3fhFD/8gHopIqF3pYEkBeGdBOmhnu40h21kS6vM3mJVvCxbWxFovziKm2M24WlBJKcyiUzNkjLAG8SSq/KqxNC45NIruUoir581Jdo4g4jENL6pxCEJPtpi9+BP3fWliMMV4cxH/MWbmLaU0wWHdSFrWIEZQMxVcZpJkkAxGh41HsUwyyoQSFlYnQkOEieXZFLLc3L+PThcOyjzfXr2heH6SrQkf8PmB3pckeiTFSHpbxw6h3OAnyijtr7ZYeSFFpQcCgohUEQJ7JPvJ5RpOkmrM/iMOU2caKOEpiPOK7fMx9OFq1PMo/8AW9Bt1Ds+FVDaYJbdUQQVrmDzM/P0q17Nfw/WuLeQMhzFAABCIJPsGx4X0jxpX0nyrWMiAhK1oCUwBAJG4WE6+NcGsiMGnCbjzwDPW8G8cQSwkrWkqMBJVb2STG69EDbuLzFAaSVfZ6tRVbWwM+lT4Ha68O+4tACkrzJWgmApJJ3i4I48zTTA9KWjjEvrR1SeqLZ96TIInKOQHhVhhzM8RLiNs4tsS5h8o4qbWn1UaBxnSBbqS31YBUDoTMb7Vd+lXSbDHDOJaeClqEAAk6691pqv7E20rDYaDhlAqV2HYKAskE9tRHbgC2tuFLqSBEGwmJdH3b+iq6P0Lb/Zsn/tz6Vz/YalBbgTBUoBM5gN6pyzrNvLnV76OOvtJQn6utWRGUlKm4N7RmcB05VnaogMf0l7F+AS1VlLP6Te/wCkc/E1/wD0rKp7/wDvEZtlH2D0VSnENRnKc4VcwOzf2TrpXRcdiC0hThM5EyeKiYifKqvsPEleLLQzdhKiQsdoaARN4vvq0MrEqUowJ36AC3hYTRfFXC6gL2AHF9zA0oJx3BsNtNt+RmSomDlUkSCOR13caNGHSG3DlAhB0GpvBqv9J9lBCg62ICjcDQK3ERxvpviLmDJs3FLKXBnURl0N96RY+NN0WMvmQg2LHB6wNS+3C35GROsrPbSQUyZi58RIj1tUP1eQFICQoTmFpyggEc7kR+hUimbBWZJJ1TYEXNr3PeNZqIYUKVmByqTG8pJmQSm8GBxmxr1Zy5AchDGh5HSecGLGdgKjnwes1wh6uRlCjMBJSdJASADE+6P1bXEuCFSi4HZShcKBSTYb8oKeY1Glq1edCShC1HMtWROaLm8TlsP4ipcR1nZzEge8Ck3kWvca6/qVNm3LjtgWvuCIS4trZPtIX0IriLdjrIffLhEpaaCjukqWT/pohe0WysIkhRIAzJUmSdACRv3cZofZpBdxRIJOZpICdSoBREc5NQ4kBWISl8vBWYZQooylYPZnJvkRwkRVXU85W/Oen+HZGx6fEBQsd/XxJsVjm0+0qLxMGJ4SBANtKF2oElIVmQN4zKhKwYsTwNr/AJ1ptNZgQp1KCo3ShJGkm/tkQSbgiCYrR1CW0ILbnsolJKC52VEnMcvs3VrpeI3VWqaBzsyupAIHrNcMCnDmSNFGxkAXgA8hFa7BaUpllCUlSikmBzWu53AXFzxFQISEsPLS4lQUmOynKBE7uN+VqbdEFupSgs5ZDSQvP7MFUpmLzm0y3oSOZxyMuNTwCB3N+JDjsE41/wAxBT3xHmCR/OoXtmuhOctLCd5ym3+Lenxp3t1eJOSQ3GcZQ1oV5k5ZzXJzZeV6Jx2IxPVqPUtZiFZlBRKxrnICju5EjwoaEQdQ1L059Yq6PY7K242pla0EkkoRm92Clyx7JtVaxKf2mHH/AHm/9Qq49H8W91QSMN1gTmKVJcDZ7SyVGCQVdoESOBG6q1tp9TmLYKkZD1oJTFxlG+bk21ok/EInI1K/HvcM2b0dfxCOsQEJSc2UrURmCSAoiAbSYvG/hQbmwcQXiwG5WAVGCICREqJ4XHnGtqtfRbAYrqEqbxBbbWCpKQ0HQO1FySMiiZOUTFyb0sw+BxX1t7K8krQmXVqggpMdkoIhU2taI1G+0TMmpX9r7CeYGZxIy/aSoKAtMGLi3EU8x2JxbmCLTmGXICAVyJyDtDO3OYKsLxpOlSdNMPiwEdY4lac4CQ2goJWfZsfaPC536Ue/i8eGlKKMMpwEgmT1gUIBhJ7JULeyYJ0mgJhSmbHwpKVLHtIWk84jtfGfCui7DdJSoybwNdbfxqidGs+eQCoFcKExuTcSIkd9dJ2Zh0tARvEq5TfwFzXnPibW9EzT0tBOkn+rr4DzrK3/AKQH92vy/jWVmfLx+Y/c/iA9H3my2HloKXIyqMSdxiQNBajc6CLHs8wR5giqzsx5xYUkKUgAZuyZBJJAniBl+NNtnuuQEriyfaBN77wf1pW58QwrmzFroxWkxVjHWT4LAK6p5lakqQUkNdoFQ1IkHSDljxoDAYB1tDpcTBUEwTcTNxPh+r0zCpN+dt3gTUOLGVsxvKR6LJq18Nv56gdyJV+JYQmndr7QB1tISClSs0XCuMXiOzE8ajCAdVQZFrwRHaum4ObwjjUG1cWllvrAVlX2SR2jFwPu2J0sJpXsna4U2VPNrKkFRKkpCkwRIBEymBwnQEma9A7FFYfdZ9e3kTzqJvZW+3aPTvDMa40tXUFQzKBkaxYxPOYjfeYgTUrbGQDtqXMarzjwgCPLhQLJazHEEBoKAAUYBI4wTvgRvjwrbCZU5ilSSk3EKmY1OgIm9jMZa5FY5Me4kH1F8epnPt+VkCixfY1z3oeJDsJcjEGAc7+UZjlAhCYknS5tzqNtSE4kIcQhSzmyrStSyICjJSskpkCJ5jjU3RFw/V3DCe28u6jlSNBKjuED4DfW2DxCj1oDaDl9lbaSlKzJEDNdVgDPOKz8zW7H1M9ZpUpMQvoBxV+8WbZywha0AtqBISl+4Aj3LATuCTeKnxKQUEs9aEhtJJaUE9gxlEKufaFgJvQu1VhDgMMurN1IDRCt0AKuSddRaOditqNoWsILXWExHaCSZMAC9zymOdKPWMWmRjY69xUX4sJGHdUC5KsqV9Z7Q1gEf5ifGnvRLDOqSktLLZQ21mIGYkKEiEyAoCCSTpaASaRbUS2MOA2AEqVffcSDJkzBEamnvR7CFxLYSrIUtt3HtQQB2bieJva2tB3jMg+yrA4HQWOsK23gny60C/nWpQDeYdWUmReBoAYuL28KJx7GKLCj14ywcwLXVkgEhXaAIv4TSvH4NP1hDZfBBICnDfJ3mfDW3wP2rs0hjMvEO/4XHAtJvYCIk6HQ1HaIYUVFj9ppsQ4kMiOpy5ZR1ySTlJJHaSIANyAT5Ras7RLhxrPWe1mWYERAQqMsWi1qebJ+tBgLafyoKsqUa3mI9k5STeOBkxVZecV9dZzElX7SZMmSlYv40ePlhFZRSOeP06y69HNjNqYC/rLgKgFLS26GwhRmQRvI3k67qUbJ2WFYh0M4hUtiUlCglbsqghKjYgRJN5kWonZmzsGWs+Ie7RBlIMKQQbBKQklRi86cqV7Cw+GW4516soGXqgtRSk37WdSbggRF4vvqwb5mZD+m2yXEqanErWpSglCXVCUkkDMCmwTcSYBHOmG0cFjk4dQOLJiQQpkDMBwcBJjmQDzGtIemeFwiMpw7gUozmCVlxMDiokkHlJ/Oba+x3k4cKRi1ut5cxEnqyBFgcxG+ySNx00oDCEh6KmEjeorMc9B8q6C6gOM9WffbAJAE6RI8OVc76MsLhggdlanJPNJXblMeMGukKYKI7vhXmfiNpkLD1PvxNXBTIBEf9WD/ANSry/jWU765f2vQflWVT+ofz7CM+X6e8qezEqbw2YWUoNmDuKgCR4do+NWLCG0nw8OIoLB7HcSwnsKJJ/5ueLpmCN44DupaMBjEEkqdI0kLza+Nb+XHZ3XBwZtoqjLMlHy158KzHslTJIVHa9o7osCrgLR40o2a68DC1KA17Vp86tGAbJYSIuoT+vOu0ZKZwfEVrz8zDt8mU15l2UlSGlFNwQ4I0vx3gHwFDPBwNlsNpIIIkOCTO8ynU7zN6Z7Y2CnMRDiVGbpUqBvsmYHgBSnEbDWBHWr5Ej+c1u//AFkU0wPtMQfBndQysKH5xNtjBvukEtwlKYSkELi2tuJAHgKCwOGcbKlrSpCUpVqIk5YAHn6Grl0Y6PKWV51hUDeBrIj3DU3SXoghDRcdUpSUkdltQBUVEAJuBAk6iDA1oxqcWQ/MAN+sE6XNi/psRXpAegTf/BJP31z4wfnTDEDWkWy8YnEHqsMs4cossLJ7c6HMmQAIi431rtPD4ttRT1+aCQb6wYkZgIHnWbkyAHmeo0moQoB4AhryqEfbSoQpIUOBE/GlOIdxaTHZV/mT+daDHYq37EnMYEJOvDvpe4GXPqcPQ/xPdupADaEgASTAsIjd506wjf7Fq2raD+6KrSi+64lS0FCYVEoIBgScs6nTjUWxsTiVkNIdUE58oFrSfdBFtaKqWzKn1SHMQo7D2ljeTQTieVMMD0exa1ELSswARDgv3wDGh416eiuJ4LSPxeZ6ugUbhYhPq8anabi5h9aD2FqTOuVRTPfBvSwrH15mSIAIuYuoKA9SKe4jo3ikLKRlJCc14mP8Mg+VCMdG+sIW5MqIGYWgnWJ/KKlG2NZlbOy5UIWT4lGtLcQKsPTDoYhjDdaFkrUtCETM3mSftCEnhpVb6KbBXiXCjrCMpjU3sYi/ERV5sgqYwTmCrNQqWYIm3DdVgf6JuAkXGt806cpNQf1Ve9/MBY2uT3WjzqqdQg6mW/o8oHSWDofiEow7ckE5VKjUyVKI7td9WVG3C4QnMlRJ0j4GbVTcFhltgtZVBJESJsDrffaab4FCVNN5gCQIH8D3D0rLz7XsnpNHBiA+2ufWPvrKuA9aykn1H76/xH86yqP02DxLu0/6+8sgYKUNKnRBHfMX9PWtXnNDz1OhgcIo/bWG/ZtpzFOWM0CT3d1qBJ1T93dvnSeFa2dTdXKWmIK2BPEXEdwg8zurXG7VcQ8rKTAOm7nW2DT2wOcxqRGl++nGLcbQ2p1yAhsEkkTYcd5nhvkUGmxs5O01F6vKqMAwuLHNpodQM7ZB+0k7/EUpxyBJUokJP5bpOvKq7t/pa+8ohmGGtwQlIWf8S4kH/BHedarzvWK9p51X+J1Z8pNq0DonfliP2lIaxEFKPedQ2LikMJVmklUGwHPn3UL0q22lxkICSP2gJOtgFHQc48q5uhTibpedB/8AuK+BMVM/0nxKEpS4pLgzSFqT2x2VJKSpMZkkKJvvFGuF8dcihFtmx5LNG5p0TxOXErETmgd2v51fRhVOoSvP7t4G8GPj8aoXQ8AuurPu5I8c0/Cn2IxrjjaW0qIQkEEj3rmfCTEb7kzaEfKfLl2r2j8WVMaEt/7GW1dnJRGZ9NxYGN3eeI9aEwWCbQtCi+2TNxmTaBO43NqQq2cNxI8Y+FRrwFtT5mrZ0TVW72iPqkLbq9482uwey4VZgrPlH2ewonW0aVVtgsrKlKQkmFTbdvrCtScwQuCkyUzYyIUSnQmDrG+mPRFUlyR73duqvnBx466w8NZMnHE6h0a9pUg+yndEntHzgUVtXCqSnrAQAkEmTAFpm9gKW4ZWdglsyoZPZFwQL899VXbO03MQSznUWmzcTOZQix5J4caTpBuGz3jdVSsXv9Ic90kYSoqDsqNyoBSp7lAXrbZ+3mCP+elPaCoUMugjVQE+NVN3CJm4BqBeCTwqyNEq9zEnXs3YS+fSViErbw5SsLSXgZScwMNuRETxqrfR2D1rxEi6NDB97Q7u+kLrfVkKBgyL89Br30x6JYtbK3Cm0lMwBuniO+iznatmKxguaE6Zt3Ct4dKSnNeSSTJsCI050kTtNtQIyqFgLQZvvM2pq7iDiGklZzyqBECQQbWHEClititRN9DYHTvtpWM7Kzk9pt4vmBKuz3guL2k2gwpUg6GJjxTN+WtCF9CkHKRCHEmdBHedBJNbO7EQSQFLSk69r2o0t376gewaUodA9jsW5Zr31nQ+NT/S7EwLy9wO8Y/XGv79r8QrKX/1ba/7vmmvaDZh8n9o35mo/wBR+86Q80nKUka7/GhTsxOskTukwYokGVE7hYeGp+XhXmLcyid49K2G06t1mIuXIDSmCYXDpQqZJi0EgxeToKrf0kbVhCGu5agPeJJDae6Qo+CTVhwSuyCd5J0jUk1Q+l+JBxRJ7QRJA+9JQnuADalf5u4VX+Hg/MbwP57QtSSRZ6xOMMr+0KiSJhJygcrXPjWi2Eif2e7efSsLrrqwhGqjAAgep/Otl7ExRE9WviRmAInTMM0p8QK1zkUSnsMHdZSQRl8j/Gtcds4lhTgCQAr2U6I4HQa/lUWMafZIDgUkqSFAK3pOh9D5GjdmYnrGn2zqWirxR2gfIEeNRuVpNMsXdGnoDgTqtQSO8iB6qq6qwwQ2O6B3DSqX0HbzvgcMyj4JMfvEV0PpA1khPACi0qABm8n+IvUMbAldffSDH60JPoDUq8OMhWlQMGCN4/U1HierOqwNdFAagg+hrRGJQBHWA3JuobzPzppMDtxFL+ECXcxPZM25kR4jl/KiOjycpc4ggHvEifSvcfB0rNjNhT7wO9CVjdrr8az9Wloal3S5NjWZa8BtxWHaeeSe0lJAnSYAT5KIpVs9gpYBMydZ1JNzPn6UFjngtKWEm7q0DwKhc+MUz2ptRhDYTmM391RAubSBFtLcKHRjalwdW29uIrxC4rxkpVEyCrS33c1+Fj5kcRQ7m02T72v3VflWjWJbmy/U8uPcPKrG4SuF4mu0GeESkyJ0PfTToQ6kOFBykqSIkWlNiL8iPKgHlAixBr3o2R9ZbCtCoj9xRHqkUnKAVMfjJ6ToDzoSUIgZVKTYWv2vKdPKvHO0mBexsLRffxoTaxzZcvaIynXgTR3VqygltZsbZSI8YvWDmreZu6Jx8uiYieDhVkJkJi8Wg8edabISlaHBcjrCL3myDfxpziXOKT7t8pCdN4j9Xqr4xteZYQsBBUTAIF5vzqVplrpGN9rBuvWWHPWUChnDwLq81/8AnXlK+WPMsfMPj3l9LqiSAhQA32v3VqvDKKSmN281HjMOpUFC1IUNIPZPeDI8YqLC7UWCUuiCBaRqd2ljPLjXomNDmeZRmB4mrIiB3D5VzLais77it5I8CEpC9fvfGulvGEqOkJUfJJPyrmTCg46bWlav3nD46o8qpaJtmJmPmMzHpBlYU/aT4T+VenDLOryzExradYvvqyYJgZAVAEwJtvitcRigFBIR45RFWBmsXUrbpVX9nE+8Z5zW+zMEtt1BPsrDiMw0ktqt6/GrUhXIeVC7XUQ3hSf797URYC3pTMeTc1SbsSufRwiXn9xDcA8CpxsD4U3+kfAuuY1zq2llAsmATpzOp/KlX0bmFvq4Fof+5P8AtrpuL7WJUfuDfxUd3hrRZXKKCO8gmiZznZmFcSgBezlOK3rzkT2ibpggWOWRuA0NT4nZbq0EI2eUExCusnLB3A6yCRflvF7ljluJPYRmtrmj4142tckFMC8GdbiPMT5Uj5rSLnOMVsLEtpK1sLSkXJtA74NbtPFLqSDGZkA/u/lV+28icM8eDL3+iflXPMhUtmNerPxokfcphIbIuMdjHNiWxqUgrPLIhah6ijmNiuYoKKVpSEKymQbkpCjpzVQHRmzzzm9LK/M5Uf7zVx6JOAlwgQlTrqoGnuAfA1DuUxCvM7IfuuIsH0VxTObJ9XcCokOAqBiYsU29qddw3WOmJ2S+DKsAyuBENqCJuDJvJNotEyZm0Xx9JjsgeP8ACh4VNwI4j0pRzMBB3mcnxWy3kEyy4kTaxMcJUBB7626NPEvJBkw4I8l11VbelpvXLtnwnGuHcHz6KXQYtQM25fSMxncZe2lRc2A4g002d0lbdeGHQCQEmV7pGgA3jnSp1QUmx1BvVc6KrIxCDbxn0gjjVRMCfMPpLhBB2idC2k6ECVLgSBpxIFbu4AEAE332maVbfwXXti8EXTcxPMA3ojo9tBS0qbcs42SN90z2TfW1v51cXTpzxElsghP9H/eHl/Gsoqayu+mx+PeR87J5g/RDavXN9WtUuNwJOqxuPM2v576Y49gLEkXQQQe43Hj8YpDgOiIQUuJcVYykgBJB3GQf1NN8UyoqClqOtkgwJ4wNfGpy6oBCCD+3ElUIaL9uYWW1LBgpSSRNiPzrmew3iQsjXKr4Irp+3HAnDOmfdjxKkiuT7CdAK0lwIMkSfDSdfZocGO9OQOpnZ2LEDwJeWVdmtTcUqw2JAAnEgxrASZ8ZoobQag9szGoGnPWiVGAqpW2w1rCqO+KVdKHMrWGv7+IV+4uP9Ner240nXEHu7A8+1SfpHttp8tpaUVdW0vMea1Zfg4fIU/ChDWZIEG6EKhrFq4dWfw5z8q6NhXSuFpuVtjXlmj1Irn30dpCk4gHRRSD3ELn40+Q8+wyhXUlzLmScqjxN+zMC+/yp2ZC6CoP+REfOuvfYR5/xqLrnbSlGl4N9d3h/OqcemikEp6gi8wXTPqioV9LC4f8A6fMqIs4qYmfdRpNVzjbxO2mXParivqr+ZIH7N3QzqggbufpXPX3ijqVD7B15ij8Xt5xTRZDQbC+ySVEmCRMA91A7QAK2xu7Q7uyYosSFVNyVFGNOi4lOJP8A20p/EsH/AG1ZOh+KQltsqMZys8pUsnWq50VENPK++geiqk2pioSOpecaU2SlQKMyCTeZBIAggSUjQa1OTGXxgSDy5E6OHQq4INRFQ41zlrpdjGwMxbX97ICDzBRE1KenTh9tlBPFKlJ/OqmTC5FCdsMv7ptb9WNcj2a4VOqXvU6pU+Z+dPcR03PVqCWVJUbDt5gNb+zSfo7hh1rLZmO1JGvsLPxgUrS6d8ZcsOvT3jsQphfmXTZ+FUkiVSDFq96NbKb67MskQLXgCOJi9FNrhQ5X/n5VvmCdNx+XH9E8jS9rLkJHT+ZojGzm4++rsnspc7u0CfDjQeM2OUrDrbqUrSfeEBQ3pUZ0PpSlWI+R9OHC+p/OoCpvtLKZOszr4xerq5QTUB9MyiwZZfr7X943+MfnWVExsBvKnsI0GsTpvrKdKNCPXHY7I1GvLlQLi5cHif151MqAKXYlyA6rggx5H8qyNRkLFV8mWFXqZWNo4gnCuqvBIvuu6m88bxHjVLcYbBOdMA3CwTbiFCYHGefnb9vIKMKRJyjICJP20HSbib+FIVYV3IXAhJTrZckCJuAOHhXo3AAAMpi7leehKiAZG7jBqfF4PJl/aJVmkdk6HSCJmJsCQJ1olbiVCQmIUM0ATE30mbfCvEuhJR1Rkk9qUABIn7W+193Ck7aMK4HhEtlEqlSiYAF7AAzG/X0r14ZUGLFUSBuAmBbU3P61N6tavZFiSLnhrblzig8ehSeyoXibRungTvEVI2g1fM6mI3VxG/0baP8Aen50bthhCFuK6s/tDKVIBC80XTKBmMwFATvVwuF9GYs+P8HzptjsU5lK0pQtHalIV2wlJIUbiDETG6DexIbxsFxRveaivE5gltt9eRUZnFEZlJBUrIDAN4Bkj7Mb5oAY2QpEkhCtU9krReOEXibAxG+j8U4YzhHWtqyqHahQEAQZ3c90mgsRs5YWS4kNJAnKFZzBAIEi2kc+VAd1wxVSDZyMxLhTEExaJJEd5gE/iHA1HtMyU+PwNG4ltaADCAmQMoUCq5A3G5vpH50BtM+z4/A0tiNpqFRB5EsXRhEYVR+09H4Uf/KsxeHVJyZe0AFZjAkeyqwPEjTeOFS9HUH6mjiVuEeSQPhSvE4kJTo4h1IvJUtLhkSIiNJIUDui02PooESOXJECx6ChPVhU3KlEW9rcnfHZnvO6aDD3tJSTGqSdY3jU3onGJUFlSYMkEpVpuESN1qGcaVJKgEjgmTruE39TSz1jgeJGwnMd8A3kn5042I5D6SNQFR4iNN+tLSVJAJTCTF8wJvpPnRux0y4f8B8Lp/l40t+VNRuP7XG4S34R0z58/LiY3+VxRLjvzjfuvlHxUdY4ik+zsTuJ3dwN+W62g76Yz89bbxrH+kaa1mZCQaM28RUrYnmIxEAxx8J/3HnprxodTpKbnUH0JB9RRGOwiHUlKpEnUWIgz3TxHd4DNdEpuh8wOKdPJVFjZU5aIzu4PTiX3rhXlVP6piv+qP8A+v8AjWVY+rx+v7TN+U3iW5eKURdsfjH5GhzhlPtrQkZCogdo5rAgnQbxIrdw0s2w+UttAEjM5fLrlAUTp4VmYshyZ1Wu8sPQQ8SDpbsVTWGKlKB7aBF+M7+6qDlSD2HHYE2bEgSCCMwSctiRE1atuvylIme2JkzPYXlN+Q1FV5WNLYyIfSEgzkUM2X2tOXaNiDXqHDbeeZnf5QXDOj2WmzvsBJ0kzJ1gTJqLEYjL7SSI1mLetepfEqXnlajMhJjQjQC9iZ/hWmLx63CetcJSogqSElIUbRPAWFLLHiTQkT7ZMqyqA0JGnKdxoZaRlURO6Seek+VHHHLEpS4pAMaJEiCVDtRa5mKDxTspUcxUTdRJkkxaZoebNzo6+jd0JTiVqmEpCjF7CSYpptdOVWZ7DJCVFPbQsquoQnOMqQokEC06iln0aOpQMSpXspSCbTYTNt9McY420tJXh1tzASonOASOyLKIQY0y2jlTQftXmCR9xkGKzOZm2kiYi5ygAhURPJJ5CKExuMUpwpcRlURmicwKbDhbuqXaSS5KUIUtY3ixTMnWx902E+yaADyAopS0WiQDFzIA1zXJ4342qGJ3Vc4AV0mqcCsguNtJIByyVAEGFeVkKpfj1ylCuP5UY7hVLGZLKliYkA3Im0DXTfQW03JSkxv0+XhSm7wxLOyVJwTATm3lQTZRSVK9k+R4xMUpfxIKobLpQZkOg9nhBJkmj334ZwyStSEZU9YpIzKSDOgpKp/tQlZcTE5ikpg8L61LHmAo4MwKKlKGdCMoBGY+1dIgEkcZt9k84jL05gqDGpFwe6tksrdzFKEkNxIVqZVlEbtb66VE06INssagaelD3hVNAgAZwg5b3mYiJtNtd9H7NcIKhxABtumY9B5UA4oWBzhJukGQkgk3A4Eg+ING7NXCj4VFXDEYKxJQpNzE37rad1OBiVNqyqkbxusdCDu76QY5y4Macf1pV2YwyH2UBafdEHeLbjVDVEBhctYMpQQJnEcxpz4/DfGs3o7ZzxzZRNxG7S06eQPInjS/+rTgV2Xhl5gg8tD60ywOCDMEqzGbmI8uAqs1DvLTagMpHeLBilcayhcQ2QpQjQn41lRLFrL68bUm26s9Yyke6hSj4xH+k00ViEqBAUk+NV7bOMScQ5uyZUg8IAJ15k+VD8Mx7tSD4Ezs5pIHt1AhF9SZ/Cr86UN4gtIS31bSkgzJ7CiIgAxY8Z40XtlzPlSlRghUHhoPSaXocbQnKrDyqDKkqmdIMqJM/nXpM1eJQXrBGHQ3mVmRJUTlzdmCBafCdPzqLF4oOq7XVJBUVEIuT90HcnlRGACUEKUjMmVDJMqCSpJFzvsRI3HwoXEwtQhHVgKkkq3SSAB5CeVJI+4cQh0ki9okJyDqozZgSkFW/jaO0T33oHGunKbzMEwAJgQLJsIk+Zo9WLTkCOoQSDOckibD7JmJk348qW48jKQEgSZt3Rab8+ZPdUAcnicfzj/6N1ICcSXIyZBmnSLzPhR+NxLPWBLnXAgjIHiqAbRAUSAYiM16W/R+lJTiAr2SgZrxaTN93fR+IxTbqspfLlwUpUAmYiCOyCqIGhimre0QD1MC2i+BKkFWcXBb1GsFUWA1uecUKcQ0VkpzBUCesMqPG+kchyorGYwsnrEryqvFpzWUNDrZSvOhCpsqKkuZzABJATHGEgCL7zeob8UkdJBinoTYuZM18pITmg8wkqjheKB2gsFCSNKPf2gtAKEvKSCcxSm4m94gxvpZjlyBebzPGdaA9YQjzaDkBpJXkHVjtRNwiQPE28aXIcMkSlUCZSbd14vU20nyTlGXsoBOYgWCRMSRJ5a0F1sSCII1jT0qCbMgDibKQVjrOqzJByk75IJi19ATXjbictoA3j86j660jOEzqkkAqjymD3waxMZYGlDCkhxZMJ61ZSAEhJJiBMDuv61aug7b5Svq8K66krnOhBIEAAiYg6cZpBsdr6zicOy4sEOONNkwAoJzJTZWsx6mu49Lekzey2mEow+ZCiUJSk5EoSkCw7JlRmyd8G9qEruFSblA2qpp/wD4fqsj6lBCQ4nKUqKgBmtKRe/foacYrY2IwoQ2tTZJTIidBbWBw4VYun2zEOHB4kJh1vEsCYuULcSFJV3TPKDxNMtqtIXjGUOIK0qaUIiYOaQTGgsb86q5sP2+vaMR6PSUJeMWNWyeaTPpUatooNiFJnik/Krv0h2Kxh8OspbUVFQhVzlkjXcEwI8RVMx+0EYdGZQzLPsI4njyFUmxMrU0bvU9BI+um/UG/IV7Uv8ASre9V9/fvrKKo3c3iZhsLhMO5KGVBRJiVgkcICkwDppSTG9W6+vsrBJJUQsAWtOlOOluHcQ6CgFR90ATfuoLE/sUJLrKesUAVQbWMkHLx1NbuLT4mJIBDehmVkyOK54ijbWBQ0Ulha1FSVklUESCj2bCdT6UtxPVZB23M5mQqbRppAvyFqabZ2oHlJKbBKCAncmVCwjupW+/lGvrUuhXgnpCVr5EiwGHRCVPJ7JsTeQJ1gbyOINDuNpUsdXOUKNymLTbfckVA9tJc2qL64reaVY3XcOjUY9WxkulzrJEwABEXud+bwAG+luNgJjfJOs2tA/XGt2sXmHA0PijoKLbOuWHoMhK04hBOqAP3hTDaWCLiwp1STlIPZTEwBEkkwLSR60l6JvdWtf3h86Z4zaApqqNouLYndxI1LyrzpSk7iFAEH2o+M+ApWtISrMQJiABMc/aJJNSYjGCl2IxE0tqu4S3JVYqApICYUQbi4gzbv391BPG0c6zNWjhpdQxDcQ5mN71ogxpQ+etgupnQgOKCcgVCJzZYBExE3HAVpkER676jz17nqKnQj6wrOhaQltTeQpUgQQURBvqZEk8a7P0f+lXDOso+tIUh3flTnQoj3k3lPGDpOpriGeiG8YQkDIDHP41G1v8ZwI7zpHSj6QRicThm2wW8Oh9pSlLIBVDiZKrwlIGbfvJNWzpP0kDb7TuGcac/ZFMpUFi6p1SY3VwxWOJ9xPlTjAbVRkSChVhBtaeQmq2pXJt+0RiMl8mdFV0sfcbU04QUrMkkXFwYHAW0qtPK65/rFaZoA4AafClf9OIsLgQdxta1eYfbDaTmLg7IsN5J+QFUdmY8NcejIOk3xDwzK7z8aykh2mr7VZVn5Jj/mLOwOunqCue1Cr76r23Uzh1ePwrKytvH/e/WYr/ANuUjC6q7vmKXbZV2v1yrKyh1P4jCw/hECrRVZWVTEfMa9ofrdW6vaFZWU1YBjTDti5oPErMm9ZWU1ukFZAtVRKr2spTRk1rbdWVlQvWQZ4Kkd0rKypacJDW1ZWUMmYmiEVlZTEgPCcMgE6UybTArKyiMXPHdD40sCZN71lZUCcId9UR9kVlZWUEbP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhUTEBIVFhEXFRYXFhIXFRUVGRcTGBIWFxkaGxgYHSggGRolHxUZIjEhJSorLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGy4mICUtLTctKzA1LS0tLTUuLS0tLS0tLS0tKy0tLTUuLS0tLSstLS0tLSstLS0tKy0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABBEAACAQIDAwoDBgMGBwAAAAAAAQIDEQQSIQUxUQYHEyJBYXGBgpEUIzJCUmJykrGhwfAzNFOi0dIWQ2Nzg7LC/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAEDBAL/xAAgEQEBAQEAAgMAAwEAAAAAAAAAAQIRAyESMUETMlEi/9oADAMBAAIRAxEAPwCcQAAAAAAAAAAAAAAAAAAAAAFnGYmNKnOpPSMIuT8ErkU4nl7jpSbjOMIt6QUINJeMk2/E7x47r6c61M/aXARJR5wsdHe6cvzU/wDa0bbA85nZXoafepy1/TL/AHHV8OoieTKRQaTZHKvB4ppU6qU3/wAufUlfgk9JeTZuyuyz7dy9DhuWHLueCrulSpwmoRTqOTkus9cqtu0s76/Vu0Oyx+LjRpzqz+mEZSfglf3PnHlTtGdRyb1q1ZuTS1vKUtEvey8icxzq8T1yP5R09pYZYinCUOtKEoS1tOO+z+0td/7PQ3Zp+R+xlgcHQw+maEFna7akutN+cmzcHKYAAJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHHc520uiw0aSfWqy1/JC0n/HKvNkSVa8Y75JeZ03OZtJ1sZKEHpTSpp8LazfjeWX0nKww8I9nm9WbfFnmWbd7RYmD3SXuVORbq0YtbkY06GX6G46pW4vwen9MscMpzOo5O8ucThFacnWp3SVKbd0u1xnq1ws7rU4zppR0mvUt3nwK3I5sl9VMtn0knlvy2oYnCQhh5a1J/NhLqyjCFnZ+MsuqunZnGc3mzfj9q03JN0qHzpXWl4tKmvHO07cIM5zGYuUHFRer/a2pMfMnsP4fAuvONquIm596pRvGC/8AaXrMu8zPqLc26qQwAVLgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMbaWMjQpVKsvphCUn32V7GSclzi4hujTw0HaVeok+6nDrzflaJOZ2ot5HDcndg/FyliMTJqEpN2jZSqSzPM7v6Y3uuLd91teolyW2alZ4d+Lr4hP36QiTlnj/i8R0FP+7UPlwgtU5x0lK3a73inwj+JlvCz2jhV8ivVjH7mbPBeiV4r2Ldat/VMsiRK3JrAVkvhq04Nq6jm6RecJ2n5Zkc9tPk3iKN3G1WH3qd83nTev6cxpYcsqidsXhk7tN1KMnRnmV7ScdYylq+G86TY/KrD1pWjidGmlRqx6OalmTVpNtT0utH2LvYnk1E8zXLyaZatbwOv27s2Na84q1bff7/dLi/xb93ZocVjauWDZozuaiu54p2Hs+WOxlOjG95zUU12RWsn4Ja+k+oMLQjThGEFaEIqMVwjFWS9kQ5zD7IzVKuKktIR6OD/AByd5NeS/wAxNBk3e1ficgADh2AAAAAAAAAAAAAAAAAAAAAAAAAAAAABF3LvbOSeKxKf9hTVClw6aTTk/wBc4L0MkfaeNjQo1Kst0ISk++yvbz3EA84GJlHDYalJvPVnOtUfGe939VZ/pR3mON1o+TWCzNN7t7f7a/1uZ1uLrOKVo34/w/1/gzWbFhGnBJ3TsvDtNtcp3rtUtVi8DCu7rqtPLuur33prx4dhh4zkpTqK8Gb+VOL3rju03pr/AOn7l6klFW7NX7u5HzqHLbDeJwmJhh5TlKjUjNqLd8uWN7q+5blbdqa7bdS83Fffm/8AO7fyNrgKrni6lSTbVGilrraVRuo7eC0MTk1s147HUqO9SmlL8ketN+yfsacX1a759J55ttk/C7PoRatKcekl4z1X+XKvI6c8iklZbuB6VL4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA53nAo58BX6zjaKlZfbcZJxh3ZnZX7yMtp1MLioqljISpu/UzrJZtfYqLqt9133o7bnO2kowp0L2zPPPW3VWkU/Ftv0Ed09pSgnTrNTVn8uauqkV2xvf23K+4tmL8ZVWtT5cYdXk7jMN/dKyrUuyjVsnbgnufk4+Bjf8QKk8mLo1KEuLi5Rfg978rm22jGnhlGWHrSp5leNFxlVptfl3wXg0jEocp1NOFai5R1vkTqRaW/qSSl7J+Jxcy+7Eci7hsaqmtKcai4Rkrry3+42jjo06Upy0STbTurrgu93t5mtqbM2XiXelJU6n/Tk4NP/ty3eSRbq8lKs2o1cXOdBO+RqV2uF8z9zj+OdR8VjBZqOBlVn/aV5Ob9T08rK/qO65iNj3qVsVJaQiqcH+KWsmu9JL9ZwvKrFKU404/TBblu7NP2XkT5ze7H+DwFGm1aco9JP889bPvSsvSW69R3n3XRgArWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAablftL4bC1JJ2nJZIPd1paX8leXpJk7eIt5Oot5XbVjWxc6087pLNCDinKyirR3J6OzfqfFGowlLpKOWrDqtyahJWajmeTTfFpW70ZdOrF6Rkn3Jr+RhU6tONo1s8Kzur6RUpW0cZ/bTeuXsXZ2Gy8x7Zu9e9Eqmic86tGGSOaSjGLyrKvqWVt273u3ljEQqVaiqJUIKOROUM8dYwUEssruLbs3mk7NviZWEeeMaynKlUV8tam1F5VJpS1urNarfbNpbUow1KNNtupKV8uslaKUU7bopL6nv36cCPj7T1VtLGYSq3B06dWzabeXenZq7/AK0NVOdKOZYadSnUSu4ZnUppfiU/p8Fa9tDb1cNGtLJ0dOc8ua01B6XsrZt736cEzSbUxEadKcFBQSk4tRSirKMZOyWnbl8Sv+PMvOp+VWuQ2zZ4/adGjLWCtUraaZY9Zx7k93ifT5EfMBsRxpV8bNdarLJB/gWsvJvL+lkuFOr2rszkAAcugAAAAAAAAAAAAAAAAAAAAAAAAAAAAB5OSSbbskrt8EQTyg23UxdapOUpZG30cW21CF+raO5OyV+OpJ/ONtToMHKKdp1X0a/K9Zv9N16kQw2afBn9U+W/jNePi4qNandRi0pQWZZs0pXlBpv7SWl7KK1KNnUK1a0XKLjUUpqnJOajTu8vSJ3aWWLk12a9hh3PJWbTkust0k3GS1vpKLTRZ8OfSv5f6zMbSywlGV4U8r1jZwyLe1GSvkt2RbVn2COIxFrKNCokvqTlTkm3f6cra85PfuMSdWc0qc6rnRus0JJXcU7uKkrJJq8d258TKoYrDqLjOnKDdRtVIxzqMNdzg819y1S0XgcanZ/1HWdc/rVMcB8qEZyanGKWaDt4pXWsfFdiOZ2zHPUjQpJtylkS+ptuV5Nt6tuT39rTN7V2lHrZJqpFRbzLjdKKduN3a+vVfll80Wx/jNp9LJXp4dZ79jmn1fPM83kyPJqfH0Zl6nTk1sqODwtHDxt8uCTt2z3yfnJtmzAMzQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABr+UG0lhcPUrP7MequM3pFebaEnRF3OTtXp8W4Rd4UVkX53rN+9o+g5GSK6lRybcneTbbb7W9Wy22b8zk4yW9vXli3JNbuGhcZRJki2yiRVJlvK3vCGNtDENQte6b3OzXjZ+BNfM7sT4bA9I4pTryz7krQWkFp5v1ENbK2fLG4ylQh9qajfhHfKXklfyPpzD0Y04RhBWhGKjFcIpWS9kZfNrt4v8c/VwAFK0AAAAAAAAAAAAAAAAAAAAAAAAAAAAACNedja15U8NF7vmT8XdQXtmfnEkXFYiNKEqk3aEIuUnwild/sQDtfHyxFapWnvnJytwXYvJWXkXeHPb1X5LycYbKT1lLNagZRI9ZQ2QKWWsRVyRb7v4lbMDHNylGEVdtrRatt6JEavIRJPMZsS8quLmvp+XB/idnN+SsvUyYTT8kdjLBYSjQ+1GN5vjUl1pfxbXgkbgw29rVJyAAISAAAAAAAAAAAAAAAAAAAAAAAAAAAAeSkkm27Jat9wHDc6m1+joxw8X1qrzT7qcX/OVv0sitm25T7WeLxNSr9lu0Fwpx0j4X3+Mmalm7x5+OWbeu1SzyRUUM7cqGUSLjKGBbk7b9xu+afY3xm0FVkr06PzZfm3U179b0s5raVW0bcf27SceafYXwmBjKcbVaz6SXFRf0L9OvqZn82vxZ452u0ABmXgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcjzl7Y6DC9FF/MrXh4U19b9mo+o64hHnE2m6m0KtOp1XTUYwi9Pl5cykuKbb18uws8We6cbvI5655c9KJSSt3/6X/kbWd62UNnrZQwDZQ2JGNjauWL4vREWjec3Wx/j9owzK9Gj82d9zyvqR85207VGR9DHB8zmwfhcCq0lariWqj4qklakvCzcv/IzvDDvXa04nIAA5dAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAa3bWwcLjY5MVRhUS3NrrR74zXWi+9NGyAEVbb5qasLy2fiLr/AAMRr5RqxV16k/E4TauGxGDeXG0KlHsU2s1N+FSN4vwvfuPpApqU4yTjJJxejTV013p7y3Pl1HF8cr5pg4uzi9OxJ6a9y/rUNkwbb5rNnV7yoxlhan3qDyxv30neHsk+84PbHNvtXDa0ujxdNdsH0VT9E3b2k33F2fNm/au+OuYbPdhbJe0MdRwy+hy+Y+FOPWqPudlZPjJGFjsW6MnCvTqUqv8Ah1IShJ9mia1XeSvzJcmp0adTGV4ONSr1KakrPoVaUpWeqUpW8VTi+0jybnPSMZ9pOpwUUlFWSSSS3JLcioAytAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADxpHoAAAAAAAAAAAAAAAAAAAAAAAAAH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUYGBgaGBwaGBoYGBgYGBgYGhoaGhoaGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJCs3NDQ0NDY0NTQ2NDQ0NDQ0NDU0NjQ0NDY0NTQ2NDQ0NDQ0NDQ0NDQ0NDY0NDQ0NDQ0NP/AABEIATwAnwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQYHAgMEBQj/xABMEAACAQIDAwcHBwkGBQUAAAABAgADEQQSIQUxQQYHIlFhcZETMoGhscHRIyRCUmJykhQ0gqKys8Lh8BVTc4PS8UNjZJPDRFR0o9P/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQMEAgX/xAAsEQACAQIEBQQCAgMAAAAAAAAAAQIDEQQSIUETMVFxgSIyYZEzoULBFLHw/9oADAMBAAIRAxEAPwC1YRwgdChHaFohCIimUUYxWhHaOAGNo4WjgIxhHC0BmJELR2nicquUlLAUw9RWcscqItrsQLnU6ADTXtiA9mEq9OddrgthRk42qksB6UsZYWxtq08TSWrSJKtpY6MrDerDrhcR3RTKYmMYoRwgBthaZWigIVoETKK0AFCOEQChHCACtCOEYCgYyIoAEqvnpf8ANh/iH92PdLUMqTnpb5TDj7DnxYfCAFeVR0BLc5oa+bDVE+q6n8SkfwSpK3mCWbzOP0K4+4f2/jOmLYs2EcJyMVorTKIwA3CKOEAFCZRQAUVo4QAUIndVBZiABqSSAAOsk7pEtq84OEokqpNQ9hCr4nX1RATCKVpiOdZR5mHv3ufconE/OrV+jQQd+c/xR69B2ZbEV5Uy86lfjRTwf/XN6c6j/SoJ4uPjC4WZaJlRc9K/K4fd5j9+j9Xp9Rki2fzmYZyBVRqd/pKc6jvAAYegGRPnaxSVa2Hem6uhoXDKcykF3IsR6e6ByQusfkxpLJ5nAfl+rKnrLfCVziEPkxuli8zqkGt1FFt6G/mPGdy5i2LSAhHCcHQrRGZRRAbYRwjARijhABTRjMUlJHqVGCogLMx3ACdEqvnX20XdMEh0FnrW4k+Yp7AOlbrK9Uai5OyC9tSOcquVtbHuVQmnhweggOrfafrPsngphQOE6qdEDQToGHIFzp2tYe2b4YdJEJVTh8j2TI0OydRKfXT0MD7Lxhk+uvg/+mV4aOeKzj8gI/yYdU7C6fXXwYe1ZkrKfppoLnpre3de58IuFE64rPMqYPq3zjCbxuYa2+t/Oe3WxlFWKAu5HnFE6IPaS1/VOHHoMq1kNxfePeOHVM1SlF3cXquZSNRv3eDViiGpAjuI6iJYfM//AMT7g/aWV1jqdlDr5ri/cZY/M+NKn3F/a/lM0jplniFoCE5BBaBEDCAzbCEcAFCOIwA1V6qorOxsqqWY9QUXPqE+fadZ8VXqV286o7NqbALcnUncAo9AEt7nIx3ktn1yPOcLTH6bAH9XNKo2ZRyoqnQMCW+4ttPSSPwma8JDNJy6Ea0ssbG7yI3hiqfXOjv2rxReriePUNJWiD5pJ6zrHiHLns4DhNaUQBoP59pPE6ze5NPQyqKerZ0eXQfQE2PiQpsaYB0PDcRcG/cRrNDITYEk2UKLm9lGgUX4DqmbqW1N20A1JbQCwFzwAAFuoRZpbnWWIDGIRfItt97i3jMRVTMp8mtgbkkX9AHx074Jhha1tN1tJs8jm363331v474XYWVzztn4ilTdzVD3zsylELZ7m4Gm4+rWZbGoZ6Lg6ZnY5fqX3D3zup4WxJA79Lb9dOA7ppww8niVH0agsd3nDUH2j0yMaSi83/alJ1G1bocGz6eejUpnzkJK+34yf80K6VfuJ62qfCQnCrkxlRODC49vvlhc2FDI2JHAeTt3FqxHqtMM45W0XTurlgCEYhJjFFGYRDNsIQgMIo4oCK65463yOGpD6dcsR1hEt7XEhrjKtuNlX0AXb9ZjJLzrHPi8FT6kdvxOi/wGQblJtDIAqmzOCxIPmqxJNu03sD2GbsPJQpOT6meqnOSihYvaKU9L5m4heH3jwPYL9tp5tXb7/QVV77sfXp6p4824elmZVvbMwXxNvfM8sROb0disaUYnU2165+mR3BV9gmBx9Xf5R/xt8ZNafN6Cz2rs9NCyh0p3dnp+U8pTyZrh18noL9LOsyp8glZVZalWmHKgJiKPkqupqCwXPqx8n0BpmLcJz63zkP0rYhSbUrDdUf0sT7Z1UeUNVd5VvvKPaLST4DkEtTKzO9NGQsTURUdHNV6aIyswFwELNrcWIAOkh2MwL03enUGV0Yoym9wykg/79ULzXJitF7EgwXKVDo6ZftLqPSu8DuvO3aZDItRSDkZXUjUEA30MhTJbcZ7Gw8VvpMei9wB1NbS3f8Jpo1pN5ZbkqlNJZonq7bFsWjrudNPA7vVLI5vKgLVxbUpQY/8A2r/D65We0Hv+SNxACnvHRPsMsPkG9sS4+tQ/d1B/+hksTpIpR1iWBeOAgZA7AQjiiGbI4oQAIRxQAqfnEObadIfUwt/16h9wlY7eqZsQ+uikKP0QB7byzeW+u1W+zhaY8Xf4yBbB2E+OxDhWsMzM3Fjck2UdwOu4W9E0ST4MYrdtkl+Rv4RHwszUSbDYWFQ6hmIP0nPsXKPVNq08Mu6lT/CrftXM4VF7s7dREKSswv0mF2zHpN531t/ndu+bDWZjdmLHS5ZiSbbrknXf65O0xSjzUHcqD2ATeuOf+7b8DfDSdqCW5w5XIEBm3668TebfJH6t/H+jJ2uOOl6R38UJ9omL4mgTd6NMn7VNb+JHvnaSFmK/roLebY9+s10DlcMOBv4ayxHpYJxcooOnmO627lDW9Uju29mU16dFiyZspvbMrWzDUAXFgeHDjec5dboalpYy2qAKWGI4V6ik9mcMo8Gk45FvbFp20qw8DRPukDxZvhqZ/wCoQ/ip0yfWDJvyPb55Q+5WHigP8MeJ537BQ5fZZ4jiWOZigRRxRAbIzCEBhFHFARUvLNwNpYhj9HDUvjIvyAzLSxTrcNkRQRvBdwlx6GM9/l+9sdjD1Yan+xeeZyIogYRzxevSX0Bs2/8ARmv+MezJbvwTGnTorWKGgjWpeVLkBnOvm2I177zo/tBVyZMOyhiPPRUuCQLLa/S1vbsM6KasMQ5yXApIFOVQSbm4D213DS9prxtXEohqZqRCglkIItYbg9+kb9gmfMnzX7IWbZ7A04CZrI5iOUKFQ6OosAfJspzuSdVuNEsNx1veduJ26gajlOjNd+tFIK9LXQgm9j9WcWYZJHp4jElCgyghmIO++iM4sLfZtNX5a3ky+QXCFrE2FwdRpe47b9mnDmrbZXOVV1VUG9gSHbqDDzR9r4Too456zlKRVUW12Zbsbk+apOo3dXrnatbVDszeyI7sjUkICggsoN9SDv4Stdt4BUqYykgsiPTdRqbB0BsB2Zz4S06Be3TKt1MugYdZHA+qQfblDNjsUB9LD0n8Ag90pTazIIt6kFq64QdmIQepl/hkz5In55Q/zPXTb4SJY6kUw7qeGJp+s1GHqaSnki3zzD97/u3neJ27F6G/ktZY4hGJmKAYQigBtEIQiGERjigIprnC/Pcb/wDGp/sWm/kNhgcCpvr+UISOIt5SaecD8+xg68Kn7AnXzdVl/Icp84YhfSCzAft+2av4Lt/ZJ82S6ivytTUebT01uLZ9+nG/qhX2bTc5nUnUEjMwRiNxZAcrHdqRwiFxWJCizqMxv9S9gB13fw48J3LMxnuanwaMVJRTl1Gg6rC/XYTF9m02YsUBLHMxIB3oU38N9++dQnn08JXZkLGxXIXPQ1YeUDWt9DpKbHgOuCBN9TuTBoMnRHQGVdAdLWsb7xNr4FHIYr0rWupKm3USpFxMNnJUyfKedmsNLXAVRe1hvIY+mdyCMLtGDUwFsAAALADcNOqQakijEuDZrbNp2IuBouhAIvw42k5xj5Ua1uzMbDUgdI8BrrIDtDEeTxNRl0AwuHQAG5ytluB16GUprU6g7akZ5VUwiOB/f4fx8gjH1t657XJIWxmH+8/7p5GtvVy9AsdL4pRb/Dpolv1ZIuSX57h/vP8AunlMTt2Rejv5LZWOJY5mKBCEDADZCELRDCIxxGCEU9y5TNtOuv1sKtu/I1vWJ5HN3ib06yjeopv35ayMT4Xntctzba57aFPwuwMgmwttNgarrlDKcyOMq5raroSOq+l7a9YBmm9oRb+USteTXYuSvjHR3NrrTRDlGhLNcEXtu0v/ALzZ/apDlPJkEMimzLc5st7A626W/dodRK3o8tLAAYmqoG4Mgew6tc09Cly0fhi0P3qSj+ASVu32c8F9Sd09tLl1TKxzixB0KqTfUC+uhE9TB7SRiq6XYGxvobFh0b+d5vDrlc0OVzjRcRhrfcsPVadA5X1v7/C+B/1R2fQOE/gtBHU9UTMBwlYryvrf+5wo7kJPvmDcsKlrnHU1+7RVvahnOV9BcJ9UWUX1lYcr658vjGB/4lBB+jTDEeKH0zW/LMfSx9VvuUETwIVZFNq7aR7LSVggYuzORndzcFmIvpYnj9IykNHdjjTy3Nu0T8zpH62JdvWR7pK+SX59h/8AN/dGRXbVPJhcKpHEHxGY/tSU8jRfHYburfux8Z3itLeDqg9H5LaEymKxzMVHCF4oAbYQhEAGKMxQAp7nG02oD14ZPUzyD7cwi+WDm6q4vcW88aMD1Xtf0mTjnP02lTPXhV/eVJHqtNXUqwup8QeBB4Edc9ClT4lG3yZpSy1Lnh/2MCOjV16mA9087F4Z6bZXGtrgjUEdYMkK4jE4cZVd2pjcU3gX+kvDf3TzNu7RFYIxYlwSDffYgfCZatNRXRloTbfweal72Gp4Tf5Ij6aA9RYX9J3euYUBoW3XYJfqvctr12FvTJPhqmGXDn5Rc+YAUsjFWTiS9subjv3DrMUIq2o5S1I9haxRxmBBB1v2/wAjNQYswVRcncJtxwW7ZD0VIK63yo30b9h3d8Wy8QqPnJtYdE7je/A9cG3dLYNrno0tiki71LdiAe0zFNloay00Z2O+pfLZVHcN53emdv8AauKxAK02qFToWZmC29O/uno7NwS0VIBzM2rMd7H3DsminRzSTS06kZ1csWnzNHKxuhSt9c+6SXkT+fYf7lf9hJFeU7dGl94+6SzkIPntH/Dr/s0xFi/d9HWG9v2WuJlMVjmQsMwgYoAbojCEQDiMDEYwKg519Mfhz14f2PUkZesq72A7yB7ZKudtfnmGtvNBgO/M/wAZXeyBRzr+UKxGaz2sX7bX7Zro1nCCSXNshOClJt7Ht08Up3Op7iDNxVTqyqT2qpPjaZHZOFqI9SipZU1qK4AdFN7MGXRhp2EWnl12WkyilVZ8zBcjdLQ7yrbxbwl44i7tJEsia9LN2JrojZBTU5h5vRVdN5a4PWOHCaPyTNr5CiP0j7knTtPAO+V0tmXSx0uO/wDrdNKbRxiUmoBHyMwYqBcFh1Hq3H0Cc1cyla2m2h3Ttl+e5rRFV0V6aAM25SGU9d9B139E9lMMmlkTTd0F07uqeXgcFVeor1FyBL5RfUk9Y4RbVxT+V8kWKLlBuPOe++zcBw0lIyywzSW+mhxJZpZYvueu9UDzmA7yB4TBMQjbnU9zA+yc2A2Rh2AYlSxNgD02Y7/pEadt49p4PDIl8qNvG4BlI33A3Sf+W72sV/w2o5rnLykPRp/ePukx5AD55T7KNU+JQSv6pY4amzXINVshOpyi289+YeiWFzdj52nZhnPjUUTPipZmn1sdUY5U13LUEYiEcgVHeIwivEBuhCEQBFCEYFT87g+d4X/Dcfr/AM5CcbssOcytkfid6tbrHX2ycc7v5zhPuP8AtCQbaGOZGCIFvlBuxJ0O6w65to5eD6uVzPPNn9Jop7JrajyoUEWOXN0hvsRoCNBvnpYDZqUzcXZjoWbU+jqE1jZGKOS9bz0FRchUDKzFQL6dLMCLTXjMBVohWd2ZCQCc5utzlvobGx0I3idU50oy0T7sUoya5nsgTMGRqvTY1QmdlFgb5iNSSNSdw0nrvyadXyCoznKHulRiMraA62t6ew7tZWWJtK1iaoXV7npIBNGMwCVVyut+o7mU/ZP9CePtDAPh8pLvqygqzk6MbXHEGDrUNQU0qMGIBLM7ZVBNhva3XqdBHxoyi3JadBcJxkrMxqcn3HmVAR1OCD6r3mVDk47H5ZwVH0Uvr3sd09B9j4xXKCuzMoBNlVxZgCpvrvBE01doYigfl1R1BW5XouL2IupuDvEjHgt6p/0UkqttGjHlRRCUaYAAAawA6hwks5uB86HZhT66o+EjfLIjyGHI4sT6hwkm5tB85c9WFX11TJYv3FMPfKWeI7xRzMWC8IGEQG2EIRAOKEUYFV8735xgz9mp7UkPxWCWqBmuCNzLow+I7DJlzwD5bBH/ABfbTkE2hj2Rgiqt8oYlibAHdpN1BxVJ5uVzPUUnJZTYKWLUqUr3yLkW5KMqXJy3XeLkmLEriqoyVLEG2Zs2dsoN7DNu3TOrszGjJnYqXXOioilsvaBqPTNeJw1eiR5V3KkgHVkZSTYEi+ovpeJOk3azH60uaNmPwbuVZAVdd17EEb7Gx33mutisc7ZnVmawGYuLkDUak7pzYnOamQO6gKGJDEk3J6z2T06vJ+ujhGq1c5AICuGuDu3d0dVwcno7iipW2OfD4Ss7K1YGyG6oNdRuLMTw6ptr4fELW8rSS5OXzmVSrLuI19U0YvD1KNia1RukqlWY3s1rEEd4Mydq5qLRpOzObE3JYC5sotxJPCdJwyPnz8iefNsdjNtB2LFlQkAXDWFlFlAVABYC2gmeG2GCwevUaq4NwD0VBG7Tjbt8Jr/IccjMvlczKbMDSDANfcSt432niKNvyikpU26S3U2JtfK3bCDpX1v5CSqW0sZ8s1tTo9rE+ySvmyX5eqerDUx41HPukU5avdMPbv8AGxkv5s1+VxHZSoDx8oZHFP1I7oe0sURzETKZiwRiYxxAboCKEQBCEUYFX88Q+UwRPXV/8cheLwSVbZrhhuYaEdnaO+TfniHSwR+3U/8AHK/x20GRsiIC1r3J0APYJtw7iqbzcrmeopOSy8zpqVsaCpFfynkwwQuSGUNvGoN/Gc9VcTUGR16Jy3bOGNgQ1lHeJtqbOx1lZmUBwWXIEqXAIBPQJIsSBrx0mmvRxFLKajMVZsuazKVY7rg8O7sgnSb0uN50tjZtDCu5VkBDKLajRhvsSL2PxjbamMLAsjZguVcuRQF1PRC2tvO4cZyVGqtV8mjsug1uSSWvYC89CrsPEI5V6lUOBc2ytYHtW8dRwct7igpJbGqlRrVXV6wICnMFszMzDcWNrae6bSMRTr+WooWJykeaCpXQedoRNOIp1aWVjWdgWVSGGVhmNgR6Y3rYg1FpUmZ3a2hAIFzYX6NyT1TtZHB81/sTzqWx2VcZj6jE2CE2BuyqtgoUDKl9AABMk2UzsrYmq1Ur5qahBbrvqwv3TTVTGoxVmplhvDKRv1Go7CDftmVPa9VCPLU7KT56G66m2oNja8UHRvrfyKSqW0t4HyyJvRFuPvk45tF6eKP2cOP1HMg3LBgXoWNwQD4mT3m0GuKP2qA8KZ+MhiveUoL0k7EcQhM5YcIrxxAbbwEUIgMooXijArXnjXTBn/mOPUnwkDxmBWpYklWA0ZerqI4iT7nkHyeFP/Ob1qPhK5xuPZGCIl2tfU2ABmzDuKpvNyuQqKTksp0flOMQjK6sFQU1y2QhFNwALaa6k3ubmY4rEYmsMlRWsWDMSykaEaqqnf0QJoVcUyh7qik2By3BOugJ3nQ+Eyfy6WLuCpIXMgAysdwYEaX641wm9Lh6ktjdjqL50q0wQ620KmxsbjhvB9Eyr7exbvndHz2C3RLaA3tp2mcFStVL5BUK2AJNgb34AW7J6NfZmIQgVKzoSLgFF3br+qOpKLk+dwipJbGqmtWq6vVVwqkMFKszMyiy5jawA90dXy1OuatNGN8pBUFSpXvtp3RV1rUwGNfOpYKRkUMMxsCNCCLzCrja4cIjZmtfpBAFHWSFnSyOG618nLzZtjvq7Xx9RmOUrmJJuVVRdclgLkgZdLdU2DZ9Wu6tiqgqWNwiiy6sWsxsCRcnScxGNW11pG9iAQwJB3WJ3zdh9ssjAV6RXW2ZSGXq4aiKHBvq35CfEtp+jHlkb16ItbT3ywebUdHFH/moPCkvxld8rXDYmlbdlB49Z65Y/NuPk8Sf+oI8KaCZ8T7ylD2EzhFC8iVHHFHEBthFCIY7RQvFGIrvnkHyGGPVX9qH4Su8Vg1exuVYCwYdXURxEsjnjS+FonqxK+unU+EgKjSbcJFSi0zPWk4tNGh8ZixSWjdHRDdcpytx35vR+Edt9dbEV6xIqKwzFSzGx80g6Bd56M7AJpxWNSmOmdeAGpPo4emXdGEdW7I4VST0SNW0cOxZalMdICxBBGYA3FjbeJsxfKHEu4Z6JuAwsKV1OclmJVgQSSSfZaec+3yfNQDtbU+At7Y124/Wv4CP4pGcqUpXT/RSKmlax301qV3Vqi5EUg5QoUsV0XoqLKBpMa5enXNRKbODlOik2KcGHUZjhNuFjZlUa77lRb1z3kBKq5BCuSFbQqxG8K6kgnsveVjGnKNkycpTi7tHDidvY2tU8p5EghcouAqgHfvNxffca+iYps+rXfNiGWxbMUQWBN79I6ad3jPZTD37PTOhAB6J1HDxXN3OJVpP4Ivyk/OqY6gP6Es7m4HzesevFVPUEHulYbbObFp3CWnzdD5qx68RWP6wHumHE/kNVH8ZK4xFCQKDhFCAzbAxXhAB3hC8V4CIRzuU74At9SsjeOZf4pW+HcMoIPCXbyg2WuKw9SgxsKi2B+qwIKn0ECUJjsBicG5p1aTAjcQCVYcGVtxE04WrGDaluRrRckrGe1Md5JbDz283sHEmRpnJJJNydSTvnXji9R82RrAADQ8P95zeQfgjH9EmcYipKcvjY7pQUY/JgDrNu+YGg/1G/C3wh5J/qP8Ahb4TOkyl0dDVRe+7u3DunbgNolDlV2ysRnQ6I3eNRpwO8bxPLKP9RvwtFlcfRYfomUjOUXoJxTJ9sraGc5MxJt0Tx03g8CR18R6Z6jUGAv8A16pWmDxTJUR7HosCdOF9fUTJliOVlHKQM5PAEf1aejRxClH1O1jHVotP0nn4pr41PsgXltc3iWwFM/WZ28XaUzQZ2dqpBDP0aa8TfS4Hq7zL65P4I0MNRpHeiAN97e3rJmCtJTqNo1wjlgkz0hAmIRiTGMGF4oQGZxgzG8IDMooXigIDOPH4CnWXLUQMOHAjuI1E6yZiY7XERl+RWFJ3VB3VX+M1vyFwx+lXH+c/xkpvAxWQm2RI8hMN9ev/AN1j7Ym5BYc/8Sv+O/tElsI7CuQ88gKH99W8UPtWa25vaPCvV8Kf+iTOELfL+xEJfm8pn/1FX0rSP8E1Dm3p8MQ//bo/6JO4Qa7/AGMjew+RuHwz+U6dSpweob27huB7ZJhMRMoJJDu2EIQiOhgwihEMzheYxiADMLxQjAJiY4jGcsRijiMZyEIQgFggYTGABCEIBYyjBmIjiGhgxxQiOgjiMBEM/9k=</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRkRz5NXRYypS1k-RBt9__y_LZG-ZRehtZzCA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRJB4_Y4JPQDXAefoPbFUTYE1jGV9muoLGyDw&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQx3sTA-likzOUiR9jFVYCtG6Htu9ZgMFtE2w&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRsN_El5Eb0hsVWzrg39ErM_5r8PsQwmvoFlA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-UTIx1clLlHZzCIUmmnFgt9BHm6Y95Op_Fw&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS3irOCp3_iHr24CnPePG1D9YYXuFwjTRkOdA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS9v1grIBlaO63xYLdF-ovrqmGggqbj1RFRhQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQRCJ333NN4OaGzofLSs4cd4Lcvl49o8GYBA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSiyxkRHYq2nKHVZyYKTX1BJP8Ot_F3jZdOfA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRHPVaftE_78Yy5juSEH4LIQ7V39-DWXOszxQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8PDw8PDw8NDw0PDw8PDw0NDw8NDw0NFREWFhURFRUYHSggGBolHRUVITEhJTUrLi4uFx8zODMtNygtLisBCgoKDg0OFw8PFSsdHR0tKysrKyswLSstKy0tLSstLS0rLS0rKy0rKy0tLS0tLSsrLS0rLS0tKy0rLSstKy0tN//AABEIAKgBLAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAABAgADBAUHBgj/xABBEAACAQIDBQQHBgQDCQAAAAAAAQIDEQQSIQUxQVFxBhMyciIzYYGRobEHFCNCUsGi0eHwNMLxJENEU2ODkqOy/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAgEQEBAAIDAAIDAQAAAAAAAAAAAQIRAyFBUWEiMYES/9oADAMBAAIRAxEAPwDpTFGAeZ2AZrQA7KK2gDtAsApAkKFA0MBgKBjAAVgYzAArFY9gAI0K0WNCtAIwDNCsBWhGi1iSQVRVnGKvKUYrdeTSV+WorOafa6p9/RTbdPuG4w/Kp53mfVrL8Adme1daGFo021Lu04XkrycVJ2TfsVl7jUxtnSb706UyGPs/FKtShUX5ldrkzIMtEaFY7FaAraFaLGhGQVsRljQjQFbFY7FZFIxR2IQKxRmK0RXvGQJDTmCQ7FQWUAASAKAZgZQAMJAFAMBoBSWCQBRbDgsAjR4Ttf29eFrSw+GpwqVIaVKlVtwjP9KimrtcXc99Y+fdrzz4nET/AFV60vjUkzWElvaW9Nti+3+0Zf72EPZSpQS+Mk2a2XbLaLf+LrrpJJGlqveY06sevu0O8/zPHPv5elj212jH/iqr8yhL6ozMN9o+Ph4pUqq5VKUV842PF98mFsv43w7+XpO1Xal7R7lypRpTpRqRk4Sc4yzZXua0tZ895h7Fnlg092ZtdLI0mZq9t7NnsfwyXKX7ImMkvS7da7D4jPh3H9Eml0Z6Jo5p2X2vLDTa0yTtmTOlUpqUVJbmrnHkx1XSIxWh2hGYUjEZYxGRVbEkWMRgI0IyxiMikaEHYpArFsOxGSj3hAkNsAgkRAAAICgAGAwAAJABYAxAFBYYACslhrAAScrJy5Jv4HzjiKts0n1974fM7n23xtWhgatSk1GbnRpttXahUqxhK3ttJnAsbK8rcFr72awZrBrVG9X8ORmT2NiEnJxgoKMJOcqkIxSloldvffRrhdczGrUJKTUllkt8ZaNe4ya1GvQt6VSGZZk4TlG91bhx4e5cLHTbKqrsnEQdpUpKWml4Nu7itEnrrOK04uxi1YypycZJxlF2af8AepbHF1k3arWTe9qpNN6Jc+UV8FyKq1SU3eUpTlZLNJ5nZKy16FQyd9V8ORtdl7pdf2RpqMrProbrZi9H3msf2Nthnqup13ZfqaflRyLDb49Udf2avwYeVGebx0xXMRotZWzg0RiMdisiq2hGWMRgIxGOxWRVbQjLGJIgVijMUg96QIDbAoDGsAqFAMABWQIAoMgQAAgSAAgQAADQwAPK/aNTqvAy7tRcI1ITrNuzjSSdnHm82T4nCXK1p8XLN87o759odTLszE+1U1/7Iv8AZnz9VesUuSNYJkerJyd3vere+7MzCTVWUaVVvJbKrb0+Fn/fLcYVrDR0O2mVkMIm5eksmVvNL0XHk2uHt4FE6OSLb8Ul6K4pXs2/hb4mXHSXie/TLv634f3oZmNpPFN1Kek5SlGza1UbO6vrZJ/LoiDzlVWZu9l+rXVmlxMWpWe9b7O/HmbvZi/Diax/aNphlrHqvqdf2b6qHlRyHC+KPVfU7Bs71UPKjHN43ivZXIsYkji0rYjHYjIpGIx2IwEYjLGIyCtiyHYjIpADMUg98yECjbmjAFohQpAgAAAkClIEgCkCQAEIQAECAg8h9qNS2z3H/mVoQ/gm/wBjhP5v59Dtv2rS/AwsP1Yhy/8AGnJf5kcaxmAqp3jB5H4Xor20fzRvBMldSLT1A+ZjypTjvjJe6/0KnN82ddsM1y9vAtlVWSkru8Z1G7b7PI179GavvHzD94lz+SBtlbccXXnkVkpSja1ruLtmtwubPZ69CPQ0TqOpJZndrS/sXM3uzn+Gva5f/TLiNphfFHqvqdf2d6qHlRyHBeOHmX1OwYFWpw6Ixy+OmK5lcixiSOKq2Ix2KwqtoVodiMgRiMsYjARiMdisKrYg8t4pB74KIRG3NABIApAgAAAkCgAYAAAEAEAEgAIQhBzj7XamuDjyjiJ/F0l/M8Vg6tKou6qONNzd++qTcIQ0bdndJNtLfvvpbj6n7Wal8TShq1DDxbSdrqVWen8B4GEXOVowvKWlld5t9tOFka10MvaWzlRfo16NdSvljTnGU4tPjZvTdqZNTsniY1LSSqU1JpulZz3aJRk0uXF+8xKOGnKMu7pXcXaXdtVJZvKm3zLZ9psU5ylUqzkvT9BKEEpNNLck7J+/Qn5+U1PWuxuxcTQjnr0VTjot6d5a7rN8EzHls2vZPI0pRjKLalZp7tUmZGO23ia8VSqVHUipZoOUYRm5ZWvy6Ws37TXyrVoxUHUrRjayhnnGOXla+43Llrtm6V4qlkk4qSlZK7XCVtV7jZ7O9XH3/VmBX7qEIZbubisye67W5WejXTgbDZ/q49Dpija4Hxw80fqdiwfq49EcdwPjh5o/U7Dg/Vx6Ixy+N4rWJIeQjOSkYjHYjClYjHYjIEYrGYjAWQjGbEbCkqcOq+oAVHo+hLkHvwoAxtzKQIAAQIAAAIAqACACAYQAAAQAQhAEHIvtMqZsfUX6KWHh/DKX+ZHjo1FBxm0mlK6zXyyfK/vPT9up58di3/1VDTestGmvrc87LGQlTjRdOKjGTm+5mlOc3o2278G1x4cjUKyMB2ghTnmlScpXlJuNfRydrvK42W5fBGjxMlOpOWVLPUlK181szvrxe8sxMIqpFrvVFQaca0oylmvuVraW+dy+O0Ka7iSg/wALO36SU6kpNNNuEVbK0tLvjzNSSdxLdjszaPc0qtO84d7eMlFQ9KDjFWb9z09pi4rG+h3cHeEmm04uKhbW0U5P4j7Ux33ivCTTVOMVHVLRXV7tLXcZ1KphXOnndFwyPPJxWlVNa2vrHev5D7Pp56S1Nvs/1cehhbT7vvZqlZ00/RcXdNfsZuA8Eeh0xZbbAeOHmj9TsOD9XHojjuA9ZDzR+p2LB+rj0Rjl8bxWsRjsrkcmisRjMSQAZWxmxJECtlbYzK5ALJiSYzK2FLJixeiDISK39f6kHRggRGbc0AQjAAAgAgCACiAhAAQgAAyEABAEJcg4b2lnnxGKk9VPE4p77Xj3sopfCNjHni8HLuc1D0KaqynCaTU6sstnLLbNFW3aX09t12pJSWbVupmqNX3qdSUvozEpyoS7uNSMoxjTcXOC7qTquWkpNJ3io6br36mhVtarTliIVaLlkVGEXBxcY0qilfLFPfHdv/orqeLpVq9Pv5KlHLetUSVPvJJaJOCfHjy0sinDOnLaEbyg8NGpSUJVEow7pO9paK/J6avqbXamy6VXF0o0HQjGVOOeUVTVJVr63u1o1y4pC2TpNNVtvufvNHJOjOioRvkV0rVPzv8ANJpX6MzsThsLOpSlCOF7t00qsKTUbVbatRc4vL7U3w0epj9rcNSp4unTp06caf3anOUaMrKpO8ru93leluO5FE9l0ZOLjOCpunGU3Kd8knmvFWurpJNp7k94ncl2fxrdqKlGtUjSi404txSc+896f+pmYDwQ6I1mKhGM5xi1KMZOKkmpJ6LitH7uRs8F4IeVHXFn1tMD44eaP1OxYL1cOiOO4Hxw80fqdhwT/Dj0RnkbxXyK5DSZXJnJorEYzYjYCSYjY0itsBWJIZiMBWIx2IyKRlUnqWyEZB0dAYUA25gAIAIAjABAEAFQlwAAICAAhAXIBDG2hVyUa0/0UqkvhBsyDUdrauXZ+MfH7tVS6uLX7kVxbaayqmtdKVHNxtejGT+bNZVjTzQyuq42h3l5KLct8lF7kuVzbbe/xFZLdGpKC8sXlXySNTM3GaxUrzqLXKrWSmnfR6ZvgbFYOj33dudJxsvSqVbZm5SWjjpqknZ6rMk9TBlFckUNJPl0NItxfdKvUjGMoUadtzvKVk22m07XtoX7VwtKi4QlOtKUqVOraMoVFDNf0W/R1Vvma+S383vfMSavv4F0gO2tr213qz+Bt8H4IeVGntozc4Twx6I1CNlgvHDzR+p2HBP8OPRHHcE/Th5o/U7Bgn+HDyo58jpF0mVyY8mVSZzUGJILYjYCsRjsRgIxWMxGAGIxmIyKWQjGYpB0cFwyFZtzQW4QMCMBGAKgGQDAgrCxWBLkIQAAbIwNgFs0PbaX+w1Y8J1MNTb5KWIpp/I3hg7a2fHFYerh5tqNWGXMt8ZXvGXuaT9xFcP2g3KrUfOpN/xMwakbG7x/Z/aWGnKM8JUrrVKtQTqQmv1aaro7GoxFDEp+lhMRDzUqi/Y3ErCqGNMvq5+NOousZL9jFnP2M3GaEmJcjmgXKyE9xucL4Y+VGmyt2SV29ElzN7Rp2SXJJCNRmYPxx8y+p1/Av8OHlRyLA03KpBLe5L6nXMHG1OKfJGM24ukVyHZXJnNSsRhYrADEYzFYCsVjMRkUrEY7EYCsSw7EbIOjMVkIacwuABAqAbIQoDYGyEADFIQCEIQBWBkIAoGQhFIyqSCQyqieHg98IvqkY9TZtCW+jSfWCCQisGv2cwUvFhqD/wC3Ewa3YrZ0t+Gpry3j9CEGxjrsJgFfJTlC/wCmTv8AMSXYfDcJVF70yENS0ZuzezVCg8yvKXORubEINhZFcgEARishChWIyEAVsRkIQK2I2QgCSYjIQg//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRQSFhYYGBgYHRkZHBwaHRwaHRoeGRgZGRwdGRgfIS4lHh4vJSEZJjsmKy8xNTU1HiQ7QDszPy40NTEBDAwMEA8QGhISHjQkJCExMTQ0MTExMTQ0MTQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDE0MTQ/ND80NDQxNDE/MT8/Mf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcBBQMECAL/xABAEAACAQIDBAgDBQcDBAMAAAABAgADEQQSIQUGMUEHEyJRYXGBkRQyoUJScoLBI0NikqKxstHw8TRTc+EVJDP/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/xAAgEQEBAQEBAAIDAAMAAAAAAAAAAQIRIRIxAwRBEyJh/9oADAMBAAIRAxEAPwC5oiICIiAiIgYMQYgIiICIiAiJxVKgUFmIAAuSTYADiSTygcsSC7X6SsNTJWilTEkc0Fk9Kh0PoDIftLpdxA+TDon47t9QRLyp1dV4lK7O6ZaoI67Doy88jFG9A1w3lcSf7B3+wOKIVKopufsVbI1+4X0b0MipXEwDMwErvpZ281GjTwtN2V65JYoSGWmpBYhhwubL5Xlh3nnbffa/xWJr1wbpcUaRvoUQnUeBYufWErq7A2ti8Pmr0cQ4ym5V2ZlYDk6k/wBrHxnonZlc1KNKqy5WdFYjuLKCRPPmAwRf4fDKLtVdE9GYZj6DMfSei6aBQFHAAAeQ0jiS9ckRENEREBERAREQEREBERAwYgxAREQEREDjqOFBYmwAuSeAA1JMrbePab4pstytEHspwz9zP334heQ468JDvXj83/1lOmjVPK91W/pc+Fu+RzEKACxNgASSeAA4k9064z/a561/I0z4fgLTX43AI/zKDOttPem7FKCBhc9t72PkosfedEbxVhrUpoy88gZSPLU/Wb+U+mOV08fu6NSht4TQYrAumhHvJ+ldKiB0NxwIIsVPcw5H+86GMpBuMmsywmrHT3b6QcbgyFFTrKY4pV7Q/K3zL/aW7uv0k4XFkU2JoVTYBXIysT9xxofI2MpLE4BToeB+k02Iw5QlTyM43NjrnUr07vxtkYXBV6pJDFciW4l3uq2+p9J5+RQz06YFlQC8+to73YnEUMNh6rBlosWVrHMxsQM5vY5VJANuE59kAkNWa/nJDScdHGCFXHM/2cKl/wA9S6qfYPLiEhfRbs7q8EKpFmxDGr4lTot/TX1k0hZPGYiIUiIgIiICIiAiIgIiIGDEGICIiAnT2ljBRpvVYXCi9u88gPEmwnbMh2/GNuadAf8Akb0uFH+R9BNZnyvE1eRoUqsSWY3diWY95Op9O7wkc3xxpISiumbtP3nWyjy4/SbfP/vvkb2/fr0NibhR5cdT4T0WcnHDrrbP2eLXM2DYQXAy6EG/ha3LnO3h6dso0y2NzzB0tpbhx9hOVMOVDEsWubj+HwHpMzJ1oadHqaoI+R7Iw8z2T6H+5nJiV4zt7Qp3C9+YWPqJoMX11d3VHyImpPfc6SasyszdXkK4vcf79J0Nr0wRTf7y6+Y0nJhmcOaVQ3NiVPlxB+s+tri1Oh+Fj9ZnvZ1ecvHQwuGz02W2o7Q9GsfoZLcDs8v8PhF0as6obcbcWPooJmh3Z1qZTwZXH+Ms7o5wHWYqriSLrQXq1/G4u1vJbD8051r+8WXhqKoiU1ACoAqgcgosAPQTsT5E+pHQiIgIiICIiAiIgIiICIiBgxBiAiIgfLG2sqHae1Vq1qlUto7HLfTReytr8dB73k/31x/U4SoQbM/7Ne+79nTxteRmioSmlPQhVAN9R4kg6cbzeL8fXPd/iPmoCNNRNftRCwVxqUvfvK8dPEa+82W0q2GS/YQHvT9mf6CJoam16Q4O6n+Kzjy5H6mdf8kv258raYCurKNZ32RStm4XBF+8cNfaRI7Tog3DhCeOQ2B80YAexmwG0UYWzs2nA2T6A3PvLN5TljkrVA+ovlBYXIOrAkaX7uPtI1iMU9J300YC/K9uYM3VWqT+gGlvSdV7zOpNRc6ub2NbhlZmNZxYKGVR3lhY+gEbeawpL3IPrrO1U1sO8ge5mv2496rD7vZ9haY58Zxflda6+NiVQj5zyVzPQ+4+yThsJTpsLO96j/jfUj0Fh6Skej/ZYxGOo0mF0HbYd6pZiD4E2HvPR4mHTM96zMzEzI2REQEREBERAREQEREBERAwYgxAREwYEA35xOfFYbD8qYas3dfTJ7Ef1SP4zFVKrmlRGZrXPgJ1dsbVz4jG1+Wbq1/CpI08wFM5NzaRdDUzENUfQ6/KmrWI4TP5NfHPjjq+9Q3b+ExFIk1UYDv4j35SMO5M9IY2mjqVdQQe+V9trcSk5ZqZKE8ha3tOM/YkvNLNSfaBbubGOMqmiHWmArOWa5UWKqLga6syj1jF7FxVBesam6oOLC7KutrNa+U+feO+fe1N2cRQNypZRwZf9OM2eA3zqB0fEqKxTMA9yrhXGV1IByuCOTDiBrpad86zr6rfetDR2tUXncTu09uA6MCPEa/Sbg4PC40s1NqdFzkYrcqQzs7VyysbOBZVRUt84HImRfbGAOHr1KDG5Rst7WvoCDbloROnbE+MqQYKsHdWBBUXb2F/eaWu+Z3Y8SSfckzvbKGSi7/w29XP+lprb8Zb9M5ntWT0JYbNisRVt8lLL6u4/RD7y7ZW3Qps/JhKlc8atQgfhpjJ/lmlkzm6QmZiZhSIiAiIgIiICIiAiIgIiIGDEGICazeHHdRh69XmqG34j2V+pE2cgvSnjcmGSlf/APRwT+FBm/yyyz7S/So9oYq1Mi+pZvW1lH9hLI3Qw2SilwOyg87vq3loF95UFNzUekl+LC/81zLq2ahRGFrXOh1ubKF1HLh9J5f2tc5HGu5iKk0Q2t22V0ZQCbHvGbKDbu+X3mzdpx1sOrizAHiPfuPKeD5TvqPlKiOuhDD3ke2xufQrXZVyN3jT/mbX/wCMIdHV+ythl8ANAD7+82M1NXPualtindsbqV6FzbOo1uB+nCaN2Z2uSWY2F2JJ4AC5Ougt7S1t5cWyUsYxbshFpqt72dhqSLaHUSr9nUizacuHmdB+vtPo/g3ref8AZ2zbztbTHPkoog+2c3oNBNenDhe/1t3Tsbaf9pl5IAo9JttytmfEY3C0bXXOrv8AhpnO3vYD1no0mZ4v/dPZow2Dw2H5oi5vFm7TH+YmbmYEzMOhMzEzAREQEREBERAREQEREBERAwYgxAwZT/Spiy+JFJderpgAfxPmZvoElwGefNvY5q+Lr1EGYvUZU10PaCJ6WyzWftnd8RHZeIWnWRnuArDNobj0lz4DaFOqqujKy94N/fukR2zuNVSl1lXJUsO01MEMnjr8yjX2kEWrWw1Q5HZSODLcBhyNuBE4fm/B8/WLJpeDuBa5tfQeOhP6GciiVlgd9g4CYlNNbOnK4tcp3+Ikv2ftPMualUWuvMAjMNeY4jutPBv8OsfbNzZ9t8wnyTPsnSdPHE5coBObski+gPE3HDTvnGRKgPSBiwKdKkBY1Ges48z2b+Ov0kf2DTt2zyBf20H6zG9OM6/FPl+VW6tbdynLcet5zsQlF7fbIQeSjWfY/Bn45nW75JGrJLPc8zc/3MtToT2aWq4nFEaIq01Pi5Lv9AnvKsTmZ6K6NdmfD7Pw4Is1Reta/G9QBgD5LlE6abkSyIiZaJmYmYCIiAiIgIiICIiAiIgIiIGDEGIGt2/jOpw9er91GI87WH1M894VcjKwPykWPdbgT9Jb3SvjcmCFMcatRE9Fu7f4gesp1Hm8ue1z7KxZrKahJKsAMpy5dVFxbiCDm48cwlfjdzrMfWwauEVFZwSC11JQ5QLi3z/SdLYm8rUQyEtYiyspGYcbXB0M2/R/VatjMRXdizdWFu1rnM6/2CiarEdfbe4VW2bJTrAfaTsVB+W1n9SZAMRhamHYvTZhlNiRdWQjk45f2nogVXX5hmH3l4+qf6e0ifSLgaBonENZaosqkfvL2urjnpfXlrJrHVmkA2Vv3WSy1R1ij7Qsrf6GSLHb50Ww9RkbthbBWFmu2g058b+khtHBUnbIlFnbnkZifZdBOHHbFyadtCfs1Bb2a36TzX9bNvZF5m10MChJZzy0v4md/abZQlP7oufMxhaFilMd+p7+ZI8J18W+d2PefoJ6J5C+1393NmfE4nD4b/uOAfwi7v8A0hp6epoAABoAAB5DhKa6F9k58RWxZGlJci/ifVv6bfzGXTMV0z9EREKTMxMwEREBERAREQEREBERAREQMGIMxAqXpg2gvW0KJPyKXI46ubDTvsp95Bauz6yoHejVRDwZ0ZR7kaesmWLx9N9qVK1SxRagVSRcDq1CD6hjJ0lYhbPZg5Y/eFibKvCx0tx5nunTnJHK+1RM2exNqnDvmsdeY0YeR5jwM2m/+x0w1RKqdmnVznLyVlsSB4G97cpFgwK5x8v3rG3vwlljNlW1s3edHFgVc9wIV/VG4+hkH6QNr/E1VpqGVaYIIbTtMRfgSOAAkbzTbbq7LTFVxRd2UFWa62LMU5a+f0i/8JEl6NtqKKT4UMlNlJcOQO0rHtaki5B776HhO70g7TUYNKbhWqVMncSuQhmYW8res1e9O5a0KHW4Z3NmAe5GiEHW45A2v4XkJ2nhXpP1dRgzAA6G9geEnpzt6+cM/wA7/dWw8zOknMzsu+WkO9zf0H/M7W7uyTisRQwo+24DHuUauf5QR6yareYvPo02T8NgKIIs9W9V9LG7gWv5KFEl0+KagAACwGgHcBoBPuYdCIiAmZiZgIiICIiAiIgIiICIiAiIgYM1+2sb1GHrVj+7Rm9QpsPe02BkM6T8eKeEFO+tVwv5V7bemgHrLEv0r7Ym7L4jNUq1lpJmsNMzuxtcgE2tc/Wb7GYbGYBMyP11FeNxqg4ar3eI08prt2N4KS5KVYiynMjg3KnhZra28OGg7hJxRxVMIc9dHQjUkrrfQ6Am48Ju+OX8Vljdq/F1aPxGqI4Nja1sylhYAcQLSyKeNWzhkIo6KqlQRwPBVuMhFrX1uZWGz9hVsTVrLTyU6VNtXqEgBWJyADmbW+klPUY3AJplxFIcStzlH4DqB6ypOtPv9u1ToqMXQsKbEK6DVVLGwZfAmwtwkQ2Xjmo1ErIRmQhh424g+BFx6yTbwbzfE0uoK5VYg2UAKCDcEm5J18pLd2qWHo0MMlOmhzoDVYqDmIS7sXtqQQ2niO+Ti9jWbZ3ppDBO1J2L1gUCN+7zE5rC1rAXsdb3Eqtl0AHlLd3n3ToYhGq4bKlQAtkW2V7cRkHyk99pVeGTM6jxufIayVZ5DHDVKf3VA/UyyehXZOapXxjDRV6pPNirOfYKPUysHe7O/edPG5no3cHZHwuBoUj85Gd/xVDnI9AQPSZ1W8pLERI0REQEzMTMBERAREQEREBERAREQEREDBlX9IJTE47DYRz2EUFhfnUdbjzyrb1lntPP+8OONbF4iseDOwXX7KHIlvMAH1msz1nV8WXTwGGsaL0Ka0+CKVCkgaHhqBe9iTc6mQfezYxwbqabN1T3y9o3UjihPPSxB5idjZm+LovV106xBazfa04Zhz9pwbybXTHImHTsKGzX1uCe8m3K+k1Ouflj43Y2yqBqDnKHIsxAYBhcAsL+N7ix0EsbDOxtYo1OwAI1Og1Jtpr3SOYHd3AIfhRRzEKL1GLZidLnNoOJXh96aHerYb4O1Sm7NSYgdqzFCb2DX4g249/GO9JONJtzZxbHPhsKmcOSUCnsjQF7N90G8kOzdk7RwKllVHQ6siPn4cdLDXymh2JtfJVL1GNnVkZh8yq4GotbgQDpLP2ZUZaaZMlRLXBTQ2uSLXJvpYa66anjJSIad+0Aa1PI5uCQLm+vLQXvfjK+zAdbUHDgL8e0efjJ10l4RA1LEIMr1MwdbWNlGjle/S1+dx3SBYjRETvu5/SO+HGy3L2OcVjcNRt2Awd/wp2yPWwHrPS6iVN0J7LNsRjGHEiknkO0xH9A9DLaEw6wiIhSIiAmZiZgIiICIiAiIgIiICIiAiIgafefH9RhcRV4FUa34m7K/UiVnuVhEyVKqqj11yhA9jlAJzFb8Ce/jpJJ0t44JhqdH/uVAT5IM3+WWVdQxjIQyMVbvGk3meOer6tTejBI+HqVHRVdFzK9hckDVdOR4WlbUlSo/VU0d34/s1ZiviSBp6z7q7Uq1RZ3Zh4m8lW6NYBHVF7bOGcAhXdVQgKHJ4Zsp8i1p0nZGOy0we13w46vE0GOgUPls5A4AnnbwOk4t5t4qNXDPh0a5e3ztdhrm0XU9w1taTNqaVEFGrZjlAa99Tl1Kn9RKl23glSvWonVkawb7wIDLe3gQPOYnKdsbrdndfDhKBxJd3rrnFnKqly3ZCjViLC7cswnc23uvWwqtXwlWpkUFmp3OYAakrY9rnpx85qN3t6fhwaOITPTPBgASoJvbxW+tu+TCjvNhgCyVSy6nJbw4ZmPZF/H/wBzi9VVtDaNSvlVmvcjUc/xE6zV4h8zsQCfsqBztoLTuYlwHquLWUsRY3ALG4APcOE2PR7sn4jHYemRdEJqv5IMw92yD1k1Wsxeu52yvhcHh6BAzKgLW++wzN9SR6TeTAmZl0IiICIiAmZiZgIiICIiAiIgIiICIiAiIgVZ0yYNj8NW1yDOh7gzWYX87H2lZoZ6R2ls+nXRqNVQ6MNVYXGhuD4EGxB5WlXbw9GlSmWq4RutXU9W9g687I/B+6xsfEzWdMaz1CEqWE5aeKZGDIxVhwI8J16iMjMjqyMujKwKsv4lIuPacZadeuXxTGjvrXCZWObTitgx9SDNItRMTiUWrdEqOocgm9ibG78bnheag1dJ8FzJ4RamN2BgnRaDIlFzomQEMOAueN9bjXjx8ZV218E+HqPRcC6EjzHEMPMayVbJ3yyZTXpB3UWWpezW4C+hueV+Mj28u0vicQ1QDRsq+g0568L6zKzxpMR8ir94lj5DQS3OhPZRWlXxbCxqN1anvVNSf5iR+WVC4LuVQFjoiAc9QAB4k6T07u7stcLhqGGX92oUnvPFj6m8xa6ZjaRESNkREBERATMxMwEREBERAREQEREBERAREQMGYImTEDSbe3aw2MW1amCw+V17Lr5MOXgbjwlT7ybgYnDZnp3xFLvQftFH8ac/NfYS84MsvEsleV+tB4a/74Wnyz6T0DvJuPhMbd6iFKh/eU7K1/4tLN6gysN4OjLF4e7UQMSn8NlcC3NCe1+U+ks0zcoa1XSfK1LK79wsPM8JxYlGRijgow4qwKt7HWSDYO52LxmRadMrTBBao/ZUX5i+r/lB9JbT4tj0UbE6/GI7C6UB1jHkWvlQepLN+SegAJoN1N3KeBo9ShLEnM7m12by5AcAJv5hqEREKREQEREBMzEzAREQEREBERAREQEREBERAwYiICIiAMwYiBXe/v8A1eF/3zk/w/yp5TERRzLMxEBERAREQEREBMxEBERAREQERED/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAGQAZAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAACAwABBAYHBQj/xAA1EAABAwIDBQYEBQUAAAAAAAABAAIDBBEFEiEGIjFBURMyYXGBoUKR0fAHFLHB4SMzUmLS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAeEQEAAwACAwEBAAAAAAAAAAAAAQIREiEDMVFhE//aAAwDAQACEQMRAD8A6EQhITChIXF1KKFyaQhIQKKEptkJCoSQgITyEshAohAQmSubGwvkcGNAuXONgFjU1ZSVocaSphnDe92Tw63yVyQRCCyaQhIUXSrKIiog99CQjspZRC7KrJhCGyBZCot0Xk4vtVg+FZ2z1TZZmjWKDfcPO3D1XPMb/EyurC6LCoRSxcA/NmkPry9F1p4rWYm8Q6ZiGIUeHsz1lQyPmATdx8gNStNxr8QaenY5tBEM3J83/I/c+i5xUVs9U576qpkdI/jfW/meKU6lnbTl8jAc9spGu71Xpr4vHX325Ta9vXTNxfayrxGQmqe6UDgDwb5DgsWlxienmFRTSGKRvxs0IWFTztpy5krDJSSEZ28weo8Vj1MLqWVhD2yRvGaN4Peak+XOojo4OsbJ7cR4jIyixQsjqHaRyjRsh6HofY+C3Ir51Lvkuk7F7YvlhZSYk8vLBYSHVxHU9V5rxEzsO1Z67b+QoliogLWu7aMBwuLuA0UWMa1sKVU1ENLC6aplZDG3i+RwaB6lczxn8TqqVrmYPSNgjvl7abedfy4D3Wl4jiNbiEkVTiFTNVOcT/cdcA8225eisVZ10/GfxHwukzR4cx9dKPi7kY9TqfQLQ8b2xxvF2yNfU9jCRbsYdxoHieJ9SvAdOwVD+x3m24W04ai6FjJWNb2u4XDdN+X2VuOMJOnDOynyuO8SCD111XmVRfBIDGRkJuLfovShBLHNIJkjbYC/yQVTTV94G2Sx0tboVr+kwnEmmEbx2rNTw3h3Ssq24S5zi7qTqvMhvSPeXuA/1t3llS11PG0b+Y2vlb9Vi1rNRipGB7t8Ek+K8mZmWbJe9tBqnz1k05tGOzZ4fVSCkedbWHU6JH6gTr5LIp31EbmzRXb2Y3T18ExkcUZDQM716eHU8skoLmEu+FrRdIntcYRo8Sq/60hcSf8AJ6i3em2ZxGaIPLGsvyedVS6cqfTjPxpRa94EcTA57tBf74o4acSzGOd0mZmmVtu9+n2VcRzDo4cFWSXtHVDGOjhFxnLb2PU8rXXHQTXsbBKyX+m9p1IaL35e/RC0y1EMbIoxn1dcjUeH6eyN1PHTxMmDi7M8Zy8cDy91dVKxskcjHNa54ymO3dIvy+YPVTVwDnMjBkDyyRtwHDU3+9E0VkxkkqwAHGICXTS3U/NYc9RmmkeQGtdra6SQ+bRoIZbUk6H6qourbduRxALSeaRHSGQ5gNOrlktjjjcLgyP+fssmKnnqHAHdB4NbxKbixXWMyKKE6Xe/pb9lkRUs07gHXHINbqVt2BbEVlWGvmb+WhPNw3j6LfMJ2dw/Cmgwwh0vOR+pK5zdvi0PA9iqmpa187RTwnr3it4wvA6HDGgQRAv5vdqSvYsgKz2pZCtRRBweG4KyHSAU8kb72O80DXX+f2WPI9sPecAkOkkmv2LbN5ucuzmN87xSdlI/KHjfHG/3olXkmN422H+TlAyKLekcZH+P0TWMmn0G433U9GTJDOxa7UmV3W2iyo4ZprX3G9BxWw7O7IV2JuaYYeziPGaQaenVdJwPY/DsKAe5v5icfHIOHkFmbNxVoGz+xVbX2e6PsITxfINT5BdDwbZjDsKaHRxCSW2sj9T/AAvesALAWCFyxKlkAcEDkZQFAsoHI3ICgBRQqKo47tBs+cHrzDNC4G+5nNw7y6ryXiRxyMsB4L6PngiqIzHURMlYfhe2491jswvD4/7dFTN8omhXlI4bgmzFdiUo/LU73dZHiwC6VgGwlFQZZa61TMNbEbrT5LbmsbGMrGho6AWRKKBjGxtDWAADgALKyruhJQUULuCsoSUAFAUZQOQA5LKY5LKAFFCrVR7JVHgooogVRUURVFCVFEFFLKtRUAULlSiAHIVFFYAqlFER/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIAGQAZAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAGAAEEBQIDBwj/xABKEAACAQIEAgcDBA4HCQAAAAABAgMEEQAFEiExUQYTFCJBYXEygZEHFSPwFjNCQ1JVcpKTobHB0dIkU2KUotPxNDVjc3SCssLh/8QAGQEAAgMBAAAAAAAAAAAAAAAAAQIAAwQF/8QAKhEAAgIBAwIFAwUAAAAAAAAAAAECEQMSITEEsRNBUdHwMpHBIkJSYYH/2gAMAwEAAhEDEQA/AO44j1lZTUcfWVU8cS8AXa1/TngY6adMkyIxUVDEtVmM5sELWWIbd5z7xYYoaRp8wmapmnfSbg1L2Lt5J4AefDkPEWLHtbM2TqKlogrYWz9LKGF0HVTlXNlZgqA+gYgn4YscuzWmzAssXWJIouY5UKNbmAeI8xgVhqKejDmmjWMn25Cbs3qx3PvxhLmckE0NRcFo32N7cdrHyPD4HwwGl5Dx1reTDzCxVJTy1shrKXNKmOCZVKRoiELt/aU742fN9Z+OKz9HD/JhaH1P07FjiHmk8lPSNJDoD60UFxcDUwHC4588avm+s/HFZ+jh/kxDzOjqYqYPJmVTMomiujpGAfpF5KD+vBSViylLS9iL88ZkZHQPQnSTuBy5/SbYT5xmSDc0t9RAtGNx4H7b47/DEdtQaX6FmsSe7SA3Fz433wmja5UxuVBFtNIu3O3Hn+o4Fj6CT87Zp3b9lGoiwMYvuP8AmYc5rmXZ55Osow0SltPVE32PKTbhiG4kVe7HLqHj2RfcePHbEuqijiy+oEaIv0LX0qBfunliWLKNRbCNTdQeYwsMnsL6DCwrHXB5x6QpM/SfNpZHdpUrpbgnjZzYelhYYNoMw66mgkQjq3jBW3D0xRdO6U0XTrMUtZZys6WH4Si/+INjDJ6jTTy0pNjE2tPyTx+vljXNXBM5XTz09RLGwqWcOlrKDzcnc+Vh5+fDGEjpNTtDPaRXQq+1gwOx23xXUdUOv6taZ6qYjuxIeHm3l62w+ZV3ZqZKqsbttwRFDSyBYVO5Klr3PA7AeVjjO5JHRsLfk4zl546jKaty1TTORduLcN/eCrerNywcY8+5HWzdG+l9LUSIsUdSA7pH7K7klR6d/wDPGO6VWbZfRSJHWVkEDSLrTrXChh5E7YHPAykktydiPXU3a6cwl2QFlbUtrgggjj6YifZBkv43y/8AvSfxw/2QZL+N8v8A70n8cHTL0A8mNqrRVVOW0EM7RzVlUZCNbaacPx8bhDyxrajy1vaqq0+O9Gf8vDZlUU1dVy1FJUU08Uax3kSoNg3e2unjuMa4EYs8cTRsb3Yipckb7eHng3XIkY6laff3JUUdHEumOvrwL3t2Q/5eGqOxmnlEuZV4j0HUeyWsLb/e+WMoVniATQjLe+ppSTx34j4egxrrDKcrq+uREPZ32Vid9J8vTETVklBqLd9/cJUAKi3C22FhR/a19MLClqRyL5eaeWhfK86p1Xe9NKT+cn/v8MBWTZj10dNWkC4bqplXkfr/AIsdw+UbIm6RdDsxoIl1VHV9bTj/AIibge+1vfjzZ0YqFM0tJI30dQndPJvr+wYtxy/a+DH1OFJeLFbrf/PM6hmVU1F0dgjy4LD17iGedfaLEWLX/fytinE0Dww09KBMlPdULbhfEnwHhe/68RmZK6ipRmNRJFCgcMqgH6ULtxI46SLX3t4XwRU9BPWxzQUEXZqJe67zBV0Lya4stxa+vU2+yWxncd6L4tVaBLpOstJHSTzMhmiImCqbvHuLqRxFyE9bY7z0QnStyChqCAZUi6kuRv3Tbj7gcAEEFPRMseVRdprJH09rmU7MdrqGuSbG2trm17BQbYMugipSwV+XJMJlpqgFZALag6K1/jfDqLURrSaT8wothWw+FgFoNZ1q+cZArOt0jF1lCHfWPEG/H68MRUZw95JZQHsf9pQ6Ta9h8MSs5VmzN9Ku1kjuEiV7jv8AgcQ41kjDAxS3J4LSqNRANhx+Hu54LFjwbFMn0QaSUAMSG69Nxccdt/8AXyw9bDpy6qZaiWRRBJYMwI9kjlho6aSUNe0YCgXelUbb8PL+PnjdXpoyqqUW2gfgLfcnwxI8ok/pYSRfa19MNh4vta+mGxBlwbMeZPlU6Pv0W6ayS0yaaWsPa6Y22Uk99Pc3hyYY9N4Bvlh6NjpB0OqHhj1VlBepgIFybDvr71v7wMADVnMujFfAlevW9UYagLLH1pNg/C229ztw8fXBuxEkkArG/oyg9WkaWSO3gqLwHoOWOOZBUmShsTdqdwR+Sf8A7+zB3l/SLq1Iej6xgpN1e1hxO1vE7nGlxc/1I52PPHA3iyeQSVVakdXTSs4SGAsVLKBc2udh6bC/v32nfJ5XyvnVU1UjIcyRpkLA6XKtuFPjbXbA7Vr2rLWqp6pI3AV46SMEgg29p+ZBPAc/PFvTVdYrZZnc8i9kpZgiarIzo5VGKqBsosv14xKoteouTJqyxl/Hf78t+iSOnjhh8MvDD4zHUBfPkVsyYv1RULHtJGW/D4W4HESOOJZrSxw6AQGtBJcnf3Dn78E1TltHUy9bUU6PJYDURvbFQIqAl+rygMquyX1gXsSP3YbZlVyjt87GmPsEUqGKIq4OxWJtj8PM4xrquGXLqlU13aCS142H3J5jDdqyXVp7BBqte3XLfhf9mNtSmXxU8skuTKURGZhrBuALnBSViynJxe3f2CSP7WvphYyFgLcsLCF64MsMdxY4001VFUKSjDUDZlvup8QcbrjEIeYekGTfYx08zDKNJSlnu1Py6t91+G6+7BL0WrKs0UtLRLqkYfSAhVUDcEux8PLy9Rgg+X7IjPldD0ipV+ny+Tq5SBxjYixPo1vzjgEySojepVwyxx1CiTUylguxO4HEg3288X43cKMHUR05lJeewV5V2Wi6yPOIROKWTq2gaSyIu24/CuDtc24Y35FT009NPBmT1MIhW2hUIdm0izMSLADULDx39DCMkeWZpFUU1TLPI6HTJLEDIkmobqu/tbgeO/pi1mhrIczpswzumjeKoIDxs4J7oFussLcLm3C+xtizn52MqVV/Wz/Fv8Bp0YrcyzPKKeoiqKPT1SxsGQuQ63Dbgjyxb6M1/r6L9A/8+B3ofmi1Gb16WVFqtMyqvAMFCtb1tfBliiaqXB0OnqeNNOyu0Zr/AF9F+gf+fA3O4QsKmWFW1y6yZXj++Pc7eHkfP3mpwFz1USTSgVZRhPICEqUX743FWwvKLHUZJt/Niwp3p5I+riKuFAJBOq3xxjmn+7az/p5P/E4rpaxGvpq7cLEV0Yttx38cbauupPmmqVqyDUYZNjOjH2TyxEnZJzjoe4Y4WFhYBYUOdZfIX7fQr/SEHfjH31f44yo5qbOaKy2SX+ztiTU1rwyaFpJ5QSBqjAt64p8wp6inqGzKgp5IyO9URfhbm5XmdrnnceN8FoWMvUnR5FT1XRuryirBMVUskcnPvbX9R+7HnCgSqyuoq8rqwFrMunZDy42JHlcA+hGPT+UVaV1Es6EEOSdscv8AlP6B5nU9JV6RZBTCqWaMR1tMhAe4FtYue9cWFuPd8b7HHLTIr6jH4mNpclLLV5cMtjENKIqzWkiSh9UikG5LHz5DbGk1bTsiqtgDZI1udyeA954YyyPoZ0hzCYQtl81KgNjLVKUAHv3J9MdZ6M9EcuyFFkQdoq7b1Eg3H5I+5GNXiQxq+Wcl9Pn6luP0xKboRlUlJU9szKSGCQDq46cuNdz4sPA24DjvgzFfRlXYVUFkbSx6wd08jvscCuZ01C+VV9RKFWohiq1LcPo3qCSb+RjHpfEqphj+eKXrYlGieeOLuAWiEI2HlfGWcnN2zqYMawQUIhB2+kJKiqhJ326weHHxw4qacwmZZ4zEvtOHGke/Ai9CslVNTxRqIUr6LqQB3eqVQdvKwP68SqppXlK0scXXytDPEvdaJpNMg71uIAjHDxthaLdbCI11IIklNVB1chsj9YLMeQN98Zy1MEWoSzRx6V1NqYCw5nywG05da81KLNIhoYJ6hWgvNIpUhVaxtrdva2tZRe1hh4IIo46DSIXkjWcxyxr7bCFdLDxNvDyA5YNA1hpHLHKiyROHRhcMpuD6HCxU5SXV60JcfTqSALbmKMn4kk+/CwKG1o2rQRpfS8guT4jx25csJKCJZkk1SlkNxdzba/h/3H4+mFhYcqMMuiWkzOaCAaYpU64p4K17G3K+LjCwsI+S6PA2EcLCwBivfJ8ueYyvRxM7Ekkjjc3PxO/rhDJsuNr0qEqLKTe6jkOQ8hthsLEBpQlyXLV06aRBa1rEi1uHj4YdMoy6ONoko4lRgAVA5G4tysd9vHCwsQOlCGT5eHLimGtvafUdTepvc+/C+Z8u2Io4gVA0kC2mwA25GwG45YWFiApEqmp4qaPq4ECLck28SeJPM+eFhYWIFH//2Q==</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/7-EAAOSwq7JT~ud0/s-l500.jpg</t>
+  </si>
+  <si>
+    <t>big nokia</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1380,6 +1468,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1661,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C474"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="C478" sqref="C478"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,7 +4612,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5975,6 +6065,9 @@
       </c>
     </row>
     <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
       <c r="B392" t="s">
         <v>427</v>
       </c>
@@ -5983,6 +6076,9 @@
       </c>
     </row>
     <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
       <c r="B393" t="s">
         <v>427</v>
       </c>
@@ -5991,6 +6087,9 @@
       </c>
     </row>
     <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
       <c r="B394" t="s">
         <v>427</v>
       </c>
@@ -5999,6 +6098,9 @@
       </c>
     </row>
     <row r="395" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
       <c r="B395" t="s">
         <v>427</v>
       </c>
@@ -6007,6 +6109,9 @@
       </c>
     </row>
     <row r="396" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
       <c r="B396" t="s">
         <v>427</v>
       </c>
@@ -6015,6 +6120,9 @@
       </c>
     </row>
     <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
       <c r="B397" t="s">
         <v>427</v>
       </c>
@@ -6023,6 +6131,9 @@
       </c>
     </row>
     <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
       <c r="B398" t="s">
         <v>427</v>
       </c>
@@ -6031,6 +6142,9 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
       <c r="B399" t="s">
         <v>427</v>
       </c>
@@ -6039,6 +6153,9 @@
       </c>
     </row>
     <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
       <c r="B400" t="s">
         <v>427</v>
       </c>
@@ -6046,7 +6163,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="401" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
       <c r="B401" t="s">
         <v>427</v>
       </c>
@@ -6054,7 +6174,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="402" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
       <c r="B402" t="s">
         <v>427</v>
       </c>
@@ -6062,7 +6185,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="403" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
       <c r="B403" t="s">
         <v>427</v>
       </c>
@@ -6070,7 +6196,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="404" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
       <c r="B404" t="s">
         <v>427</v>
       </c>
@@ -6078,7 +6207,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="405" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
       <c r="B405" t="s">
         <v>427</v>
       </c>
@@ -6086,7 +6218,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
       <c r="B406" t="s">
         <v>427</v>
       </c>
@@ -6094,7 +6229,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="407" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
       <c r="B407" t="s">
         <v>427</v>
       </c>
@@ -6102,7 +6240,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
       <c r="B408" t="s">
         <v>427</v>
       </c>
@@ -6110,7 +6251,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="409" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
       <c r="B409" t="s">
         <v>427</v>
       </c>
@@ -6118,7 +6262,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="410" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
       <c r="B410" t="s">
         <v>427</v>
       </c>
@@ -6126,7 +6273,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="411" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
       <c r="B411" t="s">
         <v>427</v>
       </c>
@@ -6134,7 +6284,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="412" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
       <c r="B412" t="s">
         <v>427</v>
       </c>
@@ -6142,7 +6295,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="413" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
       <c r="B413" t="s">
         <v>427</v>
       </c>
@@ -6150,7 +6306,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
       <c r="B414" t="s">
         <v>427</v>
       </c>
@@ -6158,7 +6317,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="415" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
       <c r="B415" t="s">
         <v>427</v>
       </c>
@@ -6166,7 +6328,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="416" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
       <c r="B416" t="s">
         <v>427</v>
       </c>
@@ -6174,7 +6339,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="417" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
       <c r="B417" t="s">
         <v>427</v>
       </c>
@@ -6182,7 +6350,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="418" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
       <c r="B418" t="s">
         <v>427</v>
       </c>
@@ -6190,7 +6361,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
       <c r="B419" t="s">
         <v>427</v>
       </c>
@@ -6198,7 +6372,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="420" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
       <c r="B420" t="s">
         <v>427</v>
       </c>
@@ -6206,7 +6383,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="421" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
       <c r="B421" t="s">
         <v>427</v>
       </c>
@@ -6214,7 +6394,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="422" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
       <c r="B422" t="s">
         <v>427</v>
       </c>
@@ -6222,7 +6405,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
       <c r="B423" t="s">
         <v>427</v>
       </c>
@@ -6230,7 +6416,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="424" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
       <c r="B424" t="s">
         <v>427</v>
       </c>
@@ -6238,7 +6427,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="425" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
       <c r="B425" t="s">
         <v>427</v>
       </c>
@@ -6246,7 +6438,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="426" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
       <c r="B426" t="s">
         <v>427</v>
       </c>
@@ -6254,7 +6449,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="427" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
       <c r="B427" t="s">
         <v>427</v>
       </c>
@@ -6262,7 +6460,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="428" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
       <c r="B428" t="s">
         <v>427</v>
       </c>
@@ -6270,7 +6471,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
       <c r="B429" t="s">
         <v>427</v>
       </c>
@@ -6278,7 +6482,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
       <c r="B430" t="s">
         <v>427</v>
       </c>
@@ -6286,7 +6493,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="431" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
       <c r="B431" t="s">
         <v>427</v>
       </c>
@@ -6294,7 +6504,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="432" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
       <c r="B432" t="s">
         <v>427</v>
       </c>
@@ -6302,7 +6515,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="433" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
       <c r="B433" t="s">
         <v>427</v>
       </c>
@@ -6310,7 +6526,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="434" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
       <c r="B434" t="s">
         <v>427</v>
       </c>
@@ -6318,7 +6537,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="435" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
       <c r="B435" t="s">
         <v>427</v>
       </c>
@@ -6326,7 +6548,10 @@
         <v>396</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
       <c r="B436" t="s">
         <v>427</v>
       </c>
@@ -6334,7 +6559,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
       <c r="B437" t="s">
         <v>427</v>
       </c>
@@ -6342,7 +6570,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
       <c r="B438" t="s">
         <v>427</v>
       </c>
@@ -6350,7 +6581,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="439" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
       <c r="B439" t="s">
         <v>427</v>
       </c>
@@ -6358,7 +6592,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
       <c r="B440" t="s">
         <v>427</v>
       </c>
@@ -6366,7 +6603,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="441" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
       <c r="B441" t="s">
         <v>427</v>
       </c>
@@ -6374,7 +6614,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="442" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
       <c r="B442" t="s">
         <v>427</v>
       </c>
@@ -6382,7 +6625,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="443" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
       <c r="B443" t="s">
         <v>427</v>
       </c>
@@ -6390,7 +6636,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="444" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
       <c r="B444" t="s">
         <v>427</v>
       </c>
@@ -6398,7 +6647,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="445" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
       <c r="B445" t="s">
         <v>427</v>
       </c>
@@ -6406,7 +6658,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="446" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
       <c r="B446" t="s">
         <v>427</v>
       </c>
@@ -6414,7 +6669,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="447" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
       <c r="B447" t="s">
         <v>427</v>
       </c>
@@ -6422,7 +6680,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="448" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
       <c r="B448" t="s">
         <v>427</v>
       </c>
@@ -6430,7 +6691,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="449" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
       <c r="B449" t="s">
         <v>427</v>
       </c>
@@ -6438,7 +6702,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
       <c r="B450" t="s">
         <v>427</v>
       </c>
@@ -6446,7 +6713,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="451" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
       <c r="B451" t="s">
         <v>427</v>
       </c>
@@ -6454,7 +6724,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="452" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
       <c r="B452" t="s">
         <v>427</v>
       </c>
@@ -6462,7 +6735,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="453" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
       <c r="B453" t="s">
         <v>427</v>
       </c>
@@ -6470,7 +6746,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="454" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
       <c r="B454" t="s">
         <v>427</v>
       </c>
@@ -6478,7 +6757,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="455" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
       <c r="B455" t="s">
         <v>427</v>
       </c>
@@ -6486,7 +6768,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
       <c r="B456" t="s">
         <v>427</v>
       </c>
@@ -6494,7 +6779,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
       <c r="B457" t="s">
         <v>427</v>
       </c>
@@ -6502,7 +6790,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="458" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
       <c r="B458" t="s">
         <v>427</v>
       </c>
@@ -6510,7 +6801,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="459" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
       <c r="B459" t="s">
         <v>427</v>
       </c>
@@ -6518,7 +6812,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="460" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
       <c r="B460" t="s">
         <v>427</v>
       </c>
@@ -6526,7 +6823,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="461" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
       <c r="B461" t="s">
         <v>427</v>
       </c>
@@ -6534,7 +6834,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="462" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
       <c r="B462" t="s">
         <v>427</v>
       </c>
@@ -6542,7 +6845,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="463" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
       <c r="B463" t="s">
         <v>427</v>
       </c>
@@ -6550,7 +6856,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
       <c r="B464" t="s">
         <v>427</v>
       </c>
@@ -6558,7 +6867,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="465" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
       <c r="B465" t="s">
         <v>427</v>
       </c>
@@ -6566,7 +6878,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="466" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
       <c r="B466" t="s">
         <v>427</v>
       </c>
@@ -6574,7 +6889,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="467" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
       <c r="B467" t="s">
         <v>427</v>
       </c>
@@ -6582,7 +6900,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
       <c r="B468" t="s">
         <v>427</v>
       </c>
@@ -6590,7 +6911,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="469" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
       <c r="B469" t="s">
         <v>427</v>
       </c>
@@ -6598,7 +6922,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="470" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
       <c r="B470" t="s">
         <v>427</v>
       </c>
@@ -6606,7 +6933,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
       <c r="B471" t="s">
         <v>427</v>
       </c>
@@ -6614,7 +6944,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="472" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
       <c r="B472" t="s">
         <v>427</v>
       </c>
@@ -6622,7 +6955,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
       <c r="B473" t="s">
         <v>427</v>
       </c>
@@ -6630,12 +6966,312 @@
         <v>425</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
       <c r="B474" t="s">
         <v>427</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>428</v>
+      </c>
+      <c r="C475" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>428</v>
+      </c>
+      <c r="C476" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>428</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>428</v>
+      </c>
+      <c r="C478" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>428</v>
+      </c>
+      <c r="C479" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>428</v>
+      </c>
+      <c r="C480" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>428</v>
+      </c>
+      <c r="C481" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>428</v>
+      </c>
+      <c r="C482" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>428</v>
+      </c>
+      <c r="C483" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>428</v>
+      </c>
+      <c r="C484" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>428</v>
+      </c>
+      <c r="C485" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>428</v>
+      </c>
+      <c r="C486" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>428</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>428</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>428</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>428</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>428</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>428</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>428</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>428</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>428</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>428</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>428</v>
+      </c>
+      <c r="C497" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>428</v>
+      </c>
+      <c r="C498" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>428</v>
+      </c>
+      <c r="C499" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>428</v>
+      </c>
+      <c r="C500" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>456</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -7103,8 +7739,20 @@
     <hyperlink ref="C472" r:id="rId461" xr:uid="{83FA39EC-894D-4FEF-8371-90809F7D7F3F}"/>
     <hyperlink ref="C473" r:id="rId462" xr:uid="{CF541790-155B-4B73-81A5-DB0B9B1C16BB}"/>
     <hyperlink ref="C474" r:id="rId463" xr:uid="{CB5AC22E-9EE1-4A0E-AC11-62D31E81001E}"/>
+    <hyperlink ref="C477" r:id="rId464" xr:uid="{BAA23890-F6E5-4FA1-8EBD-4229730741ED}"/>
+    <hyperlink ref="C487" r:id="rId465" xr:uid="{5211B405-F261-441E-914C-5DB940B63493}"/>
+    <hyperlink ref="C488" r:id="rId466" xr:uid="{F4EA1BBA-1CD8-4780-A3BE-173B85AEBF91}"/>
+    <hyperlink ref="C489" r:id="rId467" xr:uid="{FDA73B5D-020D-407B-9ABE-C762FCDCA58A}"/>
+    <hyperlink ref="C490" r:id="rId468" xr:uid="{A7A8EF0E-8369-41F9-8277-AC999F3B35A6}"/>
+    <hyperlink ref="C491" r:id="rId469" xr:uid="{28CF8D5A-AC8E-422C-8B2D-B573D71BEF03}"/>
+    <hyperlink ref="C492" r:id="rId470" xr:uid="{B75ADF2C-E4F4-4C16-97B5-CE1A9D64F652}"/>
+    <hyperlink ref="C493" r:id="rId471" xr:uid="{8A44E674-E3FE-4E2A-B27D-1D8F5C11DD79}"/>
+    <hyperlink ref="C494" r:id="rId472" xr:uid="{7530F93D-BE6D-4475-B3D7-CA29B409BE4B}"/>
+    <hyperlink ref="C495" r:id="rId473" xr:uid="{7FC9B162-5158-4647-A85F-380EC697B285}"/>
+    <hyperlink ref="C496" r:id="rId474" xr:uid="{BF019874-2AA9-4F99-92CD-24852CDF4C56}"/>
+    <hyperlink ref="C501" r:id="rId475" xr:uid="{7768A998-7A63-4D3A-8264-8CD34284896D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId464"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId476"/>
 </worksheet>
 </file>